--- a/base/Plantilla.xlsx
+++ b/base/Plantilla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j99cr\Desktop\liquidaciones\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDFAD9-906E-48AC-A2FB-87621FF39F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3F9ACB-15A3-4C40-975F-B740D449169E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38715" yWindow="0" windowWidth="12990" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25425" yWindow="1785" windowWidth="16410" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIQUIDACIONES (2)" sheetId="3" r:id="rId1"/>
@@ -3279,10 +3279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B03710-434D-4E95-ACD3-312F4010F038}">
-  <dimension ref="A1:AS312"/>
+  <dimension ref="A1:AS323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="9.9499999999999993" customHeight="1"/>
@@ -6560,6 +6560,9 @@
       <c r="L101" s="107" t="s">
         <v>19</v>
       </c>
+      <c r="M101" s="107">
+        <v>6</v>
+      </c>
       <c r="N101" s="107" t="s">
         <v>20</v>
       </c>
@@ -6713,13 +6716,25 @@
     </row>
     <row r="106" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B106" s="43"/>
-      <c r="D106" s="115"/>
-      <c r="F106" s="112"/>
-      <c r="H106" s="129"/>
-      <c r="I106" s="112"/>
-      <c r="K106" s="129"/>
-      <c r="S106" s="110"/>
-      <c r="U106" s="113"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="8"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="14"/>
       <c r="Y106" s="43"/>
       <c r="Z106" s="43"/>
       <c r="AA106" s="43"/>
@@ -6738,13 +6753,25 @@
     </row>
     <row r="107" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B107" s="43"/>
-      <c r="D107" s="115"/>
-      <c r="F107" s="112"/>
-      <c r="H107" s="129"/>
-      <c r="I107" s="112"/>
-      <c r="K107" s="129"/>
-      <c r="S107" s="110"/>
-      <c r="U107" s="113"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="14"/>
       <c r="Y107" s="43"/>
       <c r="Z107" s="43"/>
       <c r="AA107" s="43"/>
@@ -6763,13 +6790,25 @@
     </row>
     <row r="108" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B108" s="43"/>
-      <c r="D108" s="115"/>
-      <c r="F108" s="112"/>
-      <c r="H108" s="129"/>
-      <c r="I108" s="112"/>
-      <c r="K108" s="129"/>
-      <c r="S108" s="110"/>
-      <c r="U108" s="113"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="14"/>
       <c r="Y108" s="43"/>
       <c r="Z108" s="43"/>
       <c r="AA108" s="43"/>
@@ -6788,13 +6827,25 @@
     </row>
     <row r="109" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B109" s="43"/>
-      <c r="D109" s="115"/>
-      <c r="F109" s="112"/>
-      <c r="H109" s="129"/>
-      <c r="I109" s="112"/>
-      <c r="K109" s="129"/>
-      <c r="S109" s="110"/>
-      <c r="U109" s="113"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="14"/>
       <c r="Y109" s="43"/>
       <c r="Z109" s="43"/>
       <c r="AA109" s="43"/>
@@ -6813,13 +6864,25 @@
     </row>
     <row r="110" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B110" s="43"/>
-      <c r="D110" s="115"/>
-      <c r="F110" s="112"/>
-      <c r="H110" s="129"/>
-      <c r="I110" s="112"/>
-      <c r="K110" s="129"/>
-      <c r="S110" s="110"/>
-      <c r="U110" s="113"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="14"/>
       <c r="Y110" s="43"/>
       <c r="Z110" s="43"/>
       <c r="AA110" s="43"/>
@@ -6844,21 +6907,25 @@
     </row>
     <row r="111" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B111" s="43"/>
-      <c r="D111" s="115"/>
-      <c r="F111" s="112"/>
-      <c r="H111" s="129"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="107">
-        <v>3.6999999999999999E-4</v>
-      </c>
-      <c r="K111" s="129">
-        <v>3.5E-4</v>
-      </c>
-      <c r="L111" s="107">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="S111" s="110"/>
-      <c r="U111" s="113"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="14"/>
       <c r="Y111" s="43"/>
       <c r="Z111" s="43"/>
       <c r="AA111" s="43"/>
@@ -6883,24 +6950,48 @@
     </row>
     <row r="112" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B112" s="43"/>
-      <c r="D112" s="115"/>
-      <c r="F112" s="112"/>
-      <c r="H112" s="129"/>
-      <c r="I112" s="112"/>
-      <c r="K112" s="129"/>
-      <c r="S112" s="110"/>
-      <c r="U112" s="113"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="14"/>
       <c r="Y112" s="43"/>
     </row>
     <row r="113" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B113" s="43"/>
-      <c r="D113" s="115"/>
-      <c r="F113" s="112"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="112"/>
-      <c r="K113" s="129"/>
-      <c r="S113" s="110"/>
-      <c r="U113" s="113"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="14"/>
       <c r="Y113" s="43"/>
       <c r="AA113" s="115"/>
       <c r="AC113" s="115"/>
@@ -6915,24 +7006,48 @@
     </row>
     <row r="114" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B114" s="43"/>
-      <c r="D114" s="115"/>
-      <c r="F114" s="112"/>
-      <c r="H114" s="129"/>
-      <c r="I114" s="112"/>
-      <c r="K114" s="129"/>
-      <c r="S114" s="110"/>
-      <c r="U114" s="113"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="14"/>
       <c r="Y114" s="43"/>
     </row>
     <row r="115" spans="2:45" s="107" customFormat="1" ht="10.5" customHeight="1">
       <c r="B115" s="43"/>
-      <c r="D115" s="115"/>
-      <c r="F115" s="112"/>
-      <c r="H115" s="129"/>
-      <c r="I115" s="112"/>
-      <c r="K115" s="129"/>
-      <c r="S115" s="110"/>
-      <c r="U115" s="113"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="14"/>
       <c r="Y115" s="43"/>
       <c r="AA115" s="115"/>
       <c r="AC115" s="115"/>
@@ -6947,57 +7062,117 @@
     </row>
     <row r="116" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B116" s="43"/>
-      <c r="D116" s="115"/>
-      <c r="F116" s="112"/>
-      <c r="H116" s="129"/>
-      <c r="I116" s="112"/>
-      <c r="K116" s="129"/>
-      <c r="S116" s="110"/>
-      <c r="U116" s="113"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="14"/>
       <c r="Y116" s="43"/>
     </row>
     <row r="117" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B117" s="43"/>
-      <c r="D117" s="115"/>
-      <c r="F117" s="112"/>
-      <c r="H117" s="129"/>
-      <c r="I117" s="112"/>
-      <c r="K117" s="129"/>
-      <c r="S117" s="110"/>
-      <c r="U117" s="113"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="8"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="14"/>
       <c r="Y117" s="43"/>
     </row>
     <row r="118" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B118" s="43"/>
-      <c r="D118" s="115"/>
-      <c r="F118" s="112"/>
-      <c r="H118" s="129"/>
-      <c r="I118" s="112"/>
-      <c r="K118" s="129"/>
-      <c r="S118" s="110"/>
-      <c r="U118" s="113"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="8"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="14"/>
       <c r="Y118" s="43"/>
     </row>
     <row r="119" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B119" s="43"/>
-      <c r="D119" s="115"/>
-      <c r="F119" s="112"/>
-      <c r="H119" s="129"/>
-      <c r="I119" s="112"/>
-      <c r="K119" s="129"/>
-      <c r="S119" s="110"/>
-      <c r="U119" s="113"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="8"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="14"/>
       <c r="Y119" s="43"/>
     </row>
     <row r="120" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B120" s="43"/>
-      <c r="D120" s="115"/>
-      <c r="F120" s="112"/>
-      <c r="H120" s="129"/>
-      <c r="I120" s="112"/>
-      <c r="K120" s="129"/>
-      <c r="S120" s="110"/>
-      <c r="U120" s="113"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="8"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="14"/>
       <c r="Y120" s="43"/>
       <c r="Z120" s="43"/>
       <c r="AA120" s="43"/>
@@ -7017,13 +7192,25 @@
     </row>
     <row r="121" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B121" s="43"/>
-      <c r="D121" s="115"/>
-      <c r="F121" s="112"/>
-      <c r="H121" s="129"/>
-      <c r="I121" s="112"/>
-      <c r="K121" s="129"/>
-      <c r="S121" s="110"/>
-      <c r="U121" s="113"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="8"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="14"/>
       <c r="Y121" s="43"/>
       <c r="Z121" s="43"/>
       <c r="AA121" s="43"/>
@@ -7042,13 +7229,25 @@
     </row>
     <row r="122" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B122" s="43"/>
-      <c r="D122" s="115"/>
-      <c r="F122" s="112"/>
-      <c r="H122" s="129"/>
-      <c r="I122" s="112"/>
-      <c r="K122" s="129"/>
-      <c r="S122" s="110"/>
-      <c r="U122" s="113"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="8"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="14"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="43"/>
       <c r="AA122" s="43"/>
@@ -7067,13 +7266,25 @@
     </row>
     <row r="123" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B123" s="43"/>
-      <c r="D123" s="115"/>
-      <c r="F123" s="112"/>
-      <c r="H123" s="129"/>
-      <c r="I123" s="112"/>
-      <c r="K123" s="129"/>
-      <c r="S123" s="110"/>
-      <c r="U123" s="113"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="14"/>
       <c r="Y123" s="43"/>
       <c r="Z123" s="43"/>
       <c r="AA123" s="43"/>
@@ -7092,13 +7303,25 @@
     </row>
     <row r="124" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B124" s="43"/>
-      <c r="D124" s="115"/>
-      <c r="F124" s="112"/>
-      <c r="H124" s="129"/>
-      <c r="I124" s="112"/>
-      <c r="K124" s="129"/>
-      <c r="S124" s="110"/>
-      <c r="U124" s="113"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="27"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="8"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="14"/>
       <c r="Y124" s="43"/>
       <c r="Z124" s="43"/>
       <c r="AA124" s="43"/>
@@ -7117,13 +7340,25 @@
     </row>
     <row r="125" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B125" s="43"/>
-      <c r="D125" s="115"/>
-      <c r="F125" s="112"/>
-      <c r="H125" s="129"/>
-      <c r="I125" s="112"/>
-      <c r="K125" s="129"/>
-      <c r="S125" s="110"/>
-      <c r="U125" s="113"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="14"/>
       <c r="Y125" s="43"/>
       <c r="Z125" s="43"/>
       <c r="AA125" s="43"/>
@@ -7148,13 +7383,25 @@
     </row>
     <row r="126" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B126" s="43"/>
-      <c r="D126" s="115"/>
-      <c r="F126" s="112"/>
-      <c r="H126" s="129"/>
-      <c r="I126" s="112"/>
-      <c r="K126" s="129"/>
-      <c r="S126" s="110"/>
-      <c r="U126" s="113"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="14"/>
       <c r="Y126" s="43"/>
       <c r="Z126" s="43"/>
       <c r="AA126" s="43"/>
@@ -7178,24 +7425,48 @@
     </row>
     <row r="127" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B127" s="43"/>
-      <c r="D127" s="115"/>
-      <c r="F127" s="112"/>
-      <c r="H127" s="129"/>
-      <c r="I127" s="112"/>
-      <c r="K127" s="129"/>
-      <c r="S127" s="110"/>
-      <c r="U127" s="113"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="14"/>
       <c r="Y127" s="43"/>
     </row>
     <row r="128" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B128" s="43"/>
-      <c r="D128" s="115"/>
-      <c r="F128" s="112"/>
-      <c r="H128" s="129"/>
-      <c r="I128" s="112"/>
-      <c r="K128" s="129"/>
-      <c r="S128" s="110"/>
-      <c r="U128" s="113"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="8"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="14"/>
       <c r="Y128" s="43"/>
       <c r="AA128" s="115"/>
       <c r="AC128" s="115"/>
@@ -7209,24 +7480,48 @@
     </row>
     <row r="129" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B129" s="43"/>
-      <c r="D129" s="115"/>
-      <c r="F129" s="112"/>
-      <c r="H129" s="129"/>
-      <c r="I129" s="112"/>
-      <c r="K129" s="129"/>
-      <c r="S129" s="110"/>
-      <c r="U129" s="113"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="14"/>
       <c r="Y129" s="43"/>
     </row>
     <row r="130" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B130" s="43"/>
-      <c r="D130" s="115"/>
-      <c r="F130" s="112"/>
-      <c r="H130" s="129"/>
-      <c r="I130" s="112"/>
-      <c r="K130" s="129"/>
-      <c r="S130" s="110"/>
-      <c r="U130" s="113"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="8"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="14"/>
       <c r="Y130" s="43"/>
       <c r="AA130" s="115"/>
       <c r="AC130" s="115"/>
@@ -7240,58 +7535,118 @@
     </row>
     <row r="131" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B131" s="43"/>
-      <c r="D131" s="115"/>
-      <c r="F131" s="112"/>
-      <c r="H131" s="129"/>
-      <c r="I131" s="112"/>
-      <c r="K131" s="129"/>
-      <c r="S131" s="110"/>
-      <c r="U131" s="113"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="8"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="14"/>
       <c r="Y131" s="43"/>
     </row>
     <row r="132" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B132" s="43"/>
-      <c r="D132" s="115"/>
-      <c r="F132" s="112"/>
-      <c r="H132" s="129"/>
-      <c r="I132" s="112"/>
-      <c r="K132" s="129"/>
-      <c r="S132" s="110"/>
-      <c r="U132" s="113"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="8"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="14"/>
       <c r="Y132" s="43"/>
       <c r="AS132" s="115"/>
     </row>
     <row r="133" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B133" s="43"/>
-      <c r="D133" s="115"/>
-      <c r="F133" s="112"/>
-      <c r="H133" s="129"/>
-      <c r="I133" s="112"/>
-      <c r="K133" s="129"/>
-      <c r="S133" s="110"/>
-      <c r="U133" s="113"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="8"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="14"/>
       <c r="Y133" s="43"/>
     </row>
     <row r="134" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B134" s="43"/>
-      <c r="D134" s="115"/>
-      <c r="F134" s="112"/>
-      <c r="H134" s="129"/>
-      <c r="I134" s="112"/>
-      <c r="K134" s="129"/>
-      <c r="S134" s="110"/>
-      <c r="U134" s="113"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="8"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="14"/>
       <c r="Y134" s="43"/>
     </row>
     <row r="135" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B135" s="43"/>
-      <c r="D135" s="115"/>
-      <c r="F135" s="112"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="112"/>
-      <c r="K135" s="129"/>
-      <c r="S135" s="110"/>
-      <c r="U135" s="113"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="8"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="14"/>
       <c r="Y135" s="43"/>
       <c r="Z135" s="43"/>
       <c r="AA135" s="43"/>
@@ -7310,13 +7665,25 @@
     </row>
     <row r="136" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B136" s="43"/>
-      <c r="D136" s="115"/>
-      <c r="F136" s="112"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="112"/>
-      <c r="K136" s="129"/>
-      <c r="S136" s="110"/>
-      <c r="U136" s="113"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="14"/>
       <c r="Y136" s="43"/>
       <c r="Z136" s="43"/>
       <c r="AA136" s="43"/>
@@ -7335,13 +7702,25 @@
     </row>
     <row r="137" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B137" s="43"/>
-      <c r="D137" s="115"/>
-      <c r="F137" s="112"/>
-      <c r="H137" s="129"/>
-      <c r="I137" s="112"/>
-      <c r="K137" s="129"/>
-      <c r="S137" s="110"/>
-      <c r="U137" s="113"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="8"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="14"/>
       <c r="Y137" s="43"/>
       <c r="Z137" s="43"/>
       <c r="AA137" s="43"/>
@@ -7360,13 +7739,25 @@
     </row>
     <row r="138" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B138" s="43"/>
-      <c r="D138" s="115"/>
-      <c r="F138" s="112"/>
-      <c r="H138" s="129"/>
-      <c r="I138" s="112"/>
-      <c r="K138" s="129"/>
-      <c r="S138" s="110"/>
-      <c r="U138" s="113"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="8"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="14"/>
       <c r="Y138" s="43"/>
       <c r="Z138" s="43"/>
       <c r="AA138" s="43"/>
@@ -7385,13 +7776,25 @@
     </row>
     <row r="139" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B139" s="43"/>
-      <c r="D139" s="115"/>
-      <c r="F139" s="112"/>
-      <c r="H139" s="129"/>
-      <c r="I139" s="112"/>
-      <c r="K139" s="129"/>
-      <c r="S139" s="110"/>
-      <c r="U139" s="113"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="8"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="14"/>
       <c r="Y139" s="43"/>
       <c r="Z139" s="43"/>
       <c r="AA139" s="43"/>
@@ -7410,13 +7813,25 @@
     </row>
     <row r="140" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B140" s="43"/>
-      <c r="D140" s="115"/>
-      <c r="F140" s="112"/>
-      <c r="H140" s="129"/>
-      <c r="I140" s="112"/>
-      <c r="K140" s="129"/>
-      <c r="S140" s="110"/>
-      <c r="U140" s="113"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="8"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="14"/>
       <c r="Y140" s="43"/>
       <c r="Z140" s="43"/>
       <c r="AA140" s="43"/>
@@ -7440,13 +7855,25 @@
     </row>
     <row r="141" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B141" s="43"/>
-      <c r="D141" s="115"/>
-      <c r="F141" s="112"/>
-      <c r="H141" s="129"/>
-      <c r="I141" s="112"/>
-      <c r="K141" s="129"/>
-      <c r="S141" s="110"/>
-      <c r="U141" s="113"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="8"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="14"/>
       <c r="Y141" s="43"/>
       <c r="Z141" s="43"/>
       <c r="AA141" s="43"/>
@@ -7470,24 +7897,48 @@
     </row>
     <row r="142" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B142" s="43"/>
-      <c r="D142" s="115"/>
-      <c r="F142" s="112"/>
-      <c r="H142" s="129"/>
-      <c r="I142" s="112"/>
-      <c r="K142" s="129"/>
-      <c r="S142" s="110"/>
-      <c r="U142" s="113"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="8"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="14"/>
       <c r="Y142" s="43"/>
     </row>
     <row r="143" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B143" s="43"/>
-      <c r="D143" s="115"/>
-      <c r="F143" s="112"/>
-      <c r="H143" s="129"/>
-      <c r="I143" s="112"/>
-      <c r="K143" s="129"/>
-      <c r="S143" s="110"/>
-      <c r="U143" s="113"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="8"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="14"/>
       <c r="Y143" s="43"/>
       <c r="AA143" s="115"/>
       <c r="AC143" s="115"/>
@@ -7501,24 +7952,48 @@
     </row>
     <row r="144" spans="2:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B144" s="43"/>
-      <c r="D144" s="115"/>
-      <c r="F144" s="112"/>
-      <c r="H144" s="129"/>
-      <c r="I144" s="112"/>
-      <c r="K144" s="129"/>
-      <c r="S144" s="110"/>
-      <c r="U144" s="113"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="14"/>
       <c r="Y144" s="43"/>
     </row>
-    <row r="145" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="145" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B145" s="43"/>
-      <c r="D145" s="115"/>
-      <c r="F145" s="112"/>
-      <c r="H145" s="129"/>
-      <c r="I145" s="112"/>
-      <c r="K145" s="129"/>
-      <c r="S145" s="110"/>
-      <c r="U145" s="113"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="8"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="14"/>
       <c r="Y145" s="43"/>
       <c r="AA145" s="115"/>
       <c r="AC145" s="115"/>
@@ -7530,535 +8005,516 @@
       <c r="AO145" s="115"/>
       <c r="AQ145" s="115"/>
     </row>
-    <row r="146" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="146" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B146" s="43"/>
-      <c r="D146" s="115"/>
-      <c r="F146" s="112"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="112"/>
-      <c r="K146" s="129"/>
-      <c r="S146" s="110"/>
-      <c r="U146" s="113"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="8"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="14"/>
       <c r="Y146" s="43"/>
     </row>
-    <row r="147" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="147" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B147" s="43"/>
-      <c r="D147" s="115"/>
-      <c r="F147" s="112"/>
-      <c r="H147" s="129"/>
-      <c r="I147" s="112"/>
-      <c r="K147" s="129"/>
-      <c r="S147" s="110"/>
-      <c r="U147" s="113"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="14"/>
       <c r="Y147" s="43"/>
     </row>
-    <row r="148" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="148" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B148" s="43"/>
-      <c r="D148" s="115"/>
-      <c r="F148" s="112"/>
-      <c r="H148" s="129"/>
-      <c r="I148" s="112"/>
-      <c r="K148" s="129"/>
-      <c r="S148" s="110"/>
-      <c r="U148" s="113"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="14"/>
       <c r="Y148" s="43"/>
     </row>
-    <row r="149" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="149" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B149" s="43"/>
-      <c r="D149" s="115"/>
-      <c r="F149" s="112"/>
-      <c r="H149" s="129"/>
-      <c r="I149" s="112"/>
-      <c r="K149" s="129"/>
-      <c r="S149" s="110"/>
-      <c r="U149" s="113"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="14"/>
       <c r="Y149" s="43"/>
     </row>
-    <row r="150" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="150" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B150" s="43"/>
-      <c r="D150" s="115"/>
-      <c r="F150" s="112"/>
-      <c r="H150" s="129"/>
-      <c r="I150" s="112"/>
-      <c r="K150" s="129"/>
-      <c r="S150" s="110"/>
-      <c r="U150" s="113"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="14"/>
       <c r="Y150" s="43"/>
-      <c r="Z150" s="43"/>
-      <c r="AA150" s="43"/>
-      <c r="AB150" s="44"/>
-      <c r="AC150" s="43"/>
-      <c r="AD150" s="43"/>
-      <c r="AE150" s="43"/>
-      <c r="AF150" s="43"/>
-      <c r="AG150" s="43"/>
-      <c r="AH150" s="43"/>
-      <c r="AI150" s="43"/>
-      <c r="AJ150" s="43"/>
-      <c r="AP150" s="110"/>
-      <c r="AQ150" s="110"/>
-      <c r="AR150" s="113"/>
-    </row>
-    <row r="151" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    </row>
+    <row r="151" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="B151" s="43"/>
-      <c r="D151" s="115"/>
-      <c r="F151" s="112"/>
-      <c r="H151" s="129"/>
-      <c r="I151" s="112"/>
-      <c r="K151" s="129"/>
-      <c r="S151" s="110"/>
-      <c r="U151" s="113"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="14"/>
       <c r="Y151" s="43"/>
-      <c r="Z151" s="43"/>
-      <c r="AA151" s="43"/>
-      <c r="AB151" s="44"/>
-      <c r="AC151" s="43"/>
-      <c r="AD151" s="43"/>
-      <c r="AE151" s="43"/>
-      <c r="AF151" s="43"/>
-      <c r="AG151" s="43"/>
-      <c r="AH151" s="43"/>
-      <c r="AI151" s="43"/>
-      <c r="AJ151" s="43"/>
-      <c r="AP151" s="110"/>
-      <c r="AQ151" s="110"/>
-      <c r="AR151" s="113"/>
-    </row>
-    <row r="152" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E152" s="112"/>
-      <c r="M152" s="43" t="s">
+    </row>
+    <row r="152" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B152" s="43"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="14"/>
+      <c r="Y152" s="43"/>
+    </row>
+    <row r="153" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B153" s="43"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="8"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="14"/>
+      <c r="Y153" s="43"/>
+    </row>
+    <row r="154" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B154" s="43"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="8"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="14"/>
+      <c r="Y154" s="43"/>
+    </row>
+    <row r="155" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B155" s="43"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="8"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="14"/>
+      <c r="Y155" s="43"/>
+    </row>
+    <row r="156" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B156" s="43"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="8"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="14"/>
+      <c r="Y156" s="43"/>
+    </row>
+    <row r="157" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B157" s="43"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="8"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="14"/>
+      <c r="Y157" s="43"/>
+    </row>
+    <row r="158" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B158" s="43"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="8"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="14"/>
+      <c r="Y158" s="43"/>
+    </row>
+    <row r="159" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B159" s="43"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="8"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="14"/>
+      <c r="Y159" s="43"/>
+    </row>
+    <row r="160" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B160" s="43"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="8"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="14"/>
+      <c r="Y160" s="43"/>
+    </row>
+    <row r="161" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B161" s="43"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="8"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="14"/>
+      <c r="Y161" s="43"/>
+      <c r="Z161" s="43"/>
+      <c r="AA161" s="43"/>
+      <c r="AB161" s="44"/>
+      <c r="AC161" s="43"/>
+      <c r="AD161" s="43"/>
+      <c r="AE161" s="43"/>
+      <c r="AF161" s="43"/>
+      <c r="AG161" s="43"/>
+      <c r="AH161" s="43"/>
+      <c r="AI161" s="43"/>
+      <c r="AJ161" s="43"/>
+      <c r="AP161" s="110"/>
+      <c r="AQ161" s="110"/>
+      <c r="AR161" s="113"/>
+    </row>
+    <row r="162" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B162" s="43"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="14"/>
+      <c r="Y162" s="43"/>
+      <c r="Z162" s="43"/>
+      <c r="AA162" s="43"/>
+      <c r="AB162" s="44"/>
+      <c r="AC162" s="43"/>
+      <c r="AD162" s="43"/>
+      <c r="AE162" s="43"/>
+      <c r="AF162" s="43"/>
+      <c r="AG162" s="43"/>
+      <c r="AH162" s="43"/>
+      <c r="AI162" s="43"/>
+      <c r="AJ162" s="43"/>
+      <c r="AP162" s="110"/>
+      <c r="AQ162" s="110"/>
+      <c r="AR162" s="113"/>
+    </row>
+    <row r="163" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E163" s="112"/>
+      <c r="M163" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="T152" s="109"/>
-      <c r="U152" s="109">
-        <f>T111+T116+T121+T126+T136+T141+T146+T151+T131</f>
+      <c r="T163" s="109"/>
+      <c r="U163" s="109">
+        <f>T111+T116+T121+T126+T136+T141+T146+T162+T131</f>
         <v>0</v>
       </c>
-      <c r="Y152" s="43"/>
-      <c r="Z152" s="43"/>
-      <c r="AA152" s="43"/>
-      <c r="AB152" s="44"/>
-      <c r="AC152" s="43"/>
-      <c r="AD152" s="43"/>
-      <c r="AE152" s="43"/>
-      <c r="AF152" s="43"/>
-      <c r="AG152" s="43"/>
-      <c r="AH152" s="43"/>
-      <c r="AI152" s="43"/>
-      <c r="AJ152" s="43"/>
-      <c r="AP152" s="110"/>
-      <c r="AQ152" s="110"/>
-      <c r="AR152" s="113"/>
-    </row>
-    <row r="153" spans="1:44" s="107" customFormat="1" ht="3" customHeight="1" thickBot="1">
-      <c r="A153" s="1"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="45"/>
-      <c r="G153" s="45"/>
-      <c r="H153" s="45"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-      <c r="L153" s="45"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="46"/>
-      <c r="S153" s="46"/>
-      <c r="T153" s="45"/>
-      <c r="U153" s="45"/>
-      <c r="V153" s="1"/>
-      <c r="Y153" s="43"/>
-      <c r="Z153" s="43"/>
-      <c r="AA153" s="43"/>
-      <c r="AB153" s="44"/>
-      <c r="AC153" s="43"/>
-      <c r="AD153" s="43"/>
-      <c r="AE153" s="43"/>
-      <c r="AF153" s="43"/>
-      <c r="AG153" s="43"/>
-      <c r="AH153" s="43"/>
-      <c r="AI153" s="43"/>
-      <c r="AJ153" s="43"/>
-      <c r="AP153" s="110"/>
-      <c r="AQ153" s="110"/>
-      <c r="AR153" s="113"/>
-    </row>
-    <row r="154" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="158" t="str">
+      <c r="Y163" s="43"/>
+      <c r="Z163" s="43"/>
+      <c r="AA163" s="43"/>
+      <c r="AB163" s="44"/>
+      <c r="AC163" s="43"/>
+      <c r="AD163" s="43"/>
+      <c r="AE163" s="43"/>
+      <c r="AF163" s="43"/>
+      <c r="AG163" s="43"/>
+      <c r="AH163" s="43"/>
+      <c r="AI163" s="43"/>
+      <c r="AJ163" s="43"/>
+      <c r="AP163" s="110"/>
+      <c r="AQ163" s="110"/>
+      <c r="AR163" s="113"/>
+    </row>
+    <row r="164" spans="1:44" s="107" customFormat="1" ht="3" customHeight="1" thickBot="1">
+      <c r="A164" s="1"/>
+      <c r="B164" s="45"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
+      <c r="G164" s="45"/>
+      <c r="H164" s="45"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="45"/>
+      <c r="K164" s="45"/>
+      <c r="L164" s="45"/>
+      <c r="M164" s="45"/>
+      <c r="N164" s="45"/>
+      <c r="O164" s="46"/>
+      <c r="P164" s="46"/>
+      <c r="Q164" s="46"/>
+      <c r="R164" s="46"/>
+      <c r="S164" s="46"/>
+      <c r="T164" s="45"/>
+      <c r="U164" s="45"/>
+      <c r="V164" s="1"/>
+      <c r="Y164" s="43"/>
+      <c r="Z164" s="43"/>
+      <c r="AA164" s="43"/>
+      <c r="AB164" s="44"/>
+      <c r="AC164" s="43"/>
+      <c r="AD164" s="43"/>
+      <c r="AE164" s="43"/>
+      <c r="AF164" s="43"/>
+      <c r="AG164" s="43"/>
+      <c r="AH164" s="43"/>
+      <c r="AI164" s="43"/>
+      <c r="AJ164" s="43"/>
+      <c r="AP164" s="110"/>
+      <c r="AQ164" s="110"/>
+      <c r="AR164" s="113"/>
+    </row>
+    <row r="165" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A165" s="1"/>
+      <c r="B165" s="158" t="str">
         <f>B76</f>
         <v>Jr. San Martin N° 967</v>
       </c>
-      <c r="C154" s="158"/>
-      <c r="D154" s="158"/>
-      <c r="E154" s="158"/>
-      <c r="F154" s="158"/>
-      <c r="G154" s="158"/>
-      <c r="H154" s="158"/>
-      <c r="I154" s="158"/>
-      <c r="J154" s="158"/>
-      <c r="K154" s="158"/>
-      <c r="L154" s="158"/>
-      <c r="M154" s="158"/>
-      <c r="N154" s="158"/>
-      <c r="O154" s="158"/>
-      <c r="P154" s="158"/>
-      <c r="Q154" s="158"/>
-      <c r="R154" s="158"/>
-      <c r="S154" s="158"/>
-      <c r="T154" s="158"/>
-      <c r="U154" s="158"/>
-      <c r="V154" s="1"/>
-      <c r="Y154" s="43"/>
-      <c r="Z154" s="43"/>
-      <c r="AA154" s="43"/>
-      <c r="AB154" s="44"/>
-      <c r="AC154" s="43"/>
-      <c r="AD154" s="43"/>
-      <c r="AE154" s="43"/>
-      <c r="AF154" s="43"/>
-      <c r="AG154" s="43"/>
-      <c r="AH154" s="43"/>
-      <c r="AI154" s="43"/>
-      <c r="AJ154" s="43"/>
-      <c r="AP154" s="110"/>
-      <c r="AQ154" s="110"/>
-      <c r="AR154" s="113"/>
-    </row>
-    <row r="155" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="158"/>
-      <c r="C155" s="158"/>
-      <c r="D155" s="158"/>
-      <c r="E155" s="158"/>
-      <c r="F155" s="158"/>
-      <c r="G155" s="158"/>
-      <c r="H155" s="158"/>
-      <c r="I155" s="158"/>
-      <c r="J155" s="158"/>
-      <c r="K155" s="158"/>
-      <c r="L155" s="158"/>
-      <c r="M155" s="158"/>
-      <c r="N155" s="158"/>
-      <c r="O155" s="158"/>
-      <c r="P155" s="158"/>
-      <c r="Q155" s="158"/>
-      <c r="R155" s="158"/>
-      <c r="S155" s="158"/>
-      <c r="T155" s="158"/>
-      <c r="U155" s="158"/>
-      <c r="V155" s="1"/>
-      <c r="Y155" s="43"/>
-      <c r="Z155" s="43"/>
-      <c r="AA155" s="43"/>
-      <c r="AB155" s="43"/>
-      <c r="AC155" s="43"/>
-      <c r="AD155" s="43"/>
-      <c r="AE155" s="43"/>
-      <c r="AF155" s="43"/>
-      <c r="AG155" s="43"/>
-      <c r="AH155" s="43"/>
-      <c r="AI155" s="43"/>
-      <c r="AJ155" s="43"/>
-      <c r="AK155" s="43"/>
-      <c r="AL155" s="43"/>
-      <c r="AM155" s="43"/>
-      <c r="AN155" s="43"/>
-      <c r="AO155" s="43"/>
-      <c r="AP155" s="43"/>
-      <c r="AQ155" s="43"/>
-      <c r="AR155" s="43"/>
-    </row>
-    <row r="156" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A156" s="52"/>
-      <c r="B156" s="173" t="s">
-        <v>62</v>
-      </c>
-      <c r="C156" s="173"/>
-      <c r="D156" s="173"/>
-      <c r="E156" s="173"/>
-      <c r="F156" s="173"/>
-      <c r="G156" s="173"/>
-      <c r="H156" s="173"/>
-      <c r="I156" s="173"/>
-      <c r="J156" s="173"/>
-      <c r="K156" s="173"/>
-      <c r="L156" s="173"/>
-      <c r="M156" s="173"/>
-      <c r="N156" s="173"/>
-      <c r="O156" s="173"/>
-      <c r="P156" s="173"/>
-      <c r="Q156" s="173"/>
-      <c r="R156" s="173"/>
-      <c r="S156" s="173"/>
-      <c r="T156" s="173"/>
-      <c r="U156" s="173"/>
-      <c r="V156" s="173"/>
-      <c r="Y156" s="43"/>
-      <c r="Z156" s="43"/>
-      <c r="AA156" s="43"/>
-      <c r="AB156" s="43"/>
-      <c r="AC156" s="43"/>
-      <c r="AD156" s="43"/>
-      <c r="AE156" s="43"/>
-      <c r="AF156" s="43"/>
-      <c r="AG156" s="43"/>
-      <c r="AH156" s="43"/>
-      <c r="AI156" s="43"/>
-      <c r="AJ156" s="43"/>
-      <c r="AK156" s="43"/>
-      <c r="AL156" s="43"/>
-      <c r="AM156" s="43"/>
-      <c r="AN156" s="43"/>
-      <c r="AO156" s="43"/>
-      <c r="AP156" s="43"/>
-      <c r="AQ156" s="43"/>
-      <c r="AR156" s="43"/>
-    </row>
-    <row r="157" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A157" s="52"/>
-      <c r="B157" s="173"/>
-      <c r="C157" s="173"/>
-      <c r="D157" s="173"/>
-      <c r="E157" s="173"/>
-      <c r="F157" s="173"/>
-      <c r="G157" s="173"/>
-      <c r="H157" s="173"/>
-      <c r="I157" s="173"/>
-      <c r="J157" s="173"/>
-      <c r="K157" s="173"/>
-      <c r="L157" s="173"/>
-      <c r="M157" s="173"/>
-      <c r="N157" s="173"/>
-      <c r="O157" s="173"/>
-      <c r="P157" s="173"/>
-      <c r="Q157" s="173"/>
-      <c r="R157" s="173"/>
-      <c r="S157" s="173"/>
-      <c r="T157" s="173"/>
-      <c r="U157" s="173"/>
-      <c r="V157" s="173"/>
-      <c r="Y157" s="43"/>
-    </row>
-    <row r="158" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A158" s="52"/>
-      <c r="B158" s="173" t="s">
-        <v>63</v>
-      </c>
-      <c r="C158" s="173"/>
-      <c r="D158" s="173"/>
-      <c r="E158" s="173"/>
-      <c r="F158" s="173"/>
-      <c r="G158" s="173"/>
-      <c r="H158" s="173"/>
-      <c r="I158" s="173"/>
-      <c r="J158" s="173"/>
-      <c r="K158" s="173"/>
-      <c r="L158" s="173"/>
-      <c r="M158" s="173"/>
-      <c r="N158" s="173"/>
-      <c r="O158" s="173"/>
-      <c r="P158" s="173"/>
-      <c r="Q158" s="173"/>
-      <c r="R158" s="173"/>
-      <c r="S158" s="173"/>
-      <c r="T158" s="173"/>
-      <c r="U158" s="173"/>
-      <c r="V158" s="173"/>
-      <c r="Y158" s="43"/>
-      <c r="AA158" s="115"/>
-      <c r="AC158" s="115"/>
-      <c r="AE158" s="115"/>
-      <c r="AG158" s="115"/>
-      <c r="AI158" s="115"/>
-      <c r="AK158" s="115"/>
-      <c r="AM158" s="115"/>
-      <c r="AO158" s="115"/>
-      <c r="AQ158" s="115"/>
-    </row>
-    <row r="159" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A159" s="52"/>
-      <c r="B159" s="173"/>
-      <c r="C159" s="173"/>
-      <c r="D159" s="173"/>
-      <c r="E159" s="173"/>
-      <c r="F159" s="173"/>
-      <c r="G159" s="173"/>
-      <c r="H159" s="173"/>
-      <c r="I159" s="173"/>
-      <c r="J159" s="173"/>
-      <c r="K159" s="173"/>
-      <c r="L159" s="173"/>
-      <c r="M159" s="173"/>
-      <c r="N159" s="173"/>
-      <c r="O159" s="173"/>
-      <c r="P159" s="173"/>
-      <c r="Q159" s="173"/>
-      <c r="R159" s="173"/>
-      <c r="S159" s="173"/>
-      <c r="T159" s="173"/>
-      <c r="U159" s="173"/>
-      <c r="V159" s="173"/>
-      <c r="Y159" s="43"/>
-    </row>
-    <row r="160" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A160" s="52"/>
-      <c r="B160" s="162" t="s">
-        <v>64</v>
-      </c>
-      <c r="C160" s="162"/>
-      <c r="D160" s="162"/>
-      <c r="E160" s="162"/>
-      <c r="F160" s="162"/>
-      <c r="G160" s="162"/>
-      <c r="H160" s="162"/>
-      <c r="I160" s="162"/>
-      <c r="J160" s="162"/>
-      <c r="K160" s="162"/>
-      <c r="L160" s="162"/>
-      <c r="M160" s="162"/>
-      <c r="N160" s="162"/>
-      <c r="O160" s="162"/>
-      <c r="P160" s="162"/>
-      <c r="Q160" s="162"/>
-      <c r="R160" s="162"/>
-      <c r="S160" s="162"/>
-      <c r="T160" s="162"/>
-      <c r="U160" s="53"/>
-      <c r="V160" s="52"/>
-      <c r="Y160" s="43"/>
-      <c r="AA160" s="115"/>
-      <c r="AC160" s="115"/>
-      <c r="AE160" s="115"/>
-      <c r="AG160" s="115"/>
-      <c r="AI160" s="115"/>
-      <c r="AK160" s="115"/>
-      <c r="AM160" s="115"/>
-      <c r="AO160" s="115"/>
-      <c r="AQ160" s="115"/>
-    </row>
-    <row r="161" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="B161" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D161" s="43"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="T161" s="110"/>
-      <c r="U161" s="113"/>
-      <c r="Y161" s="43"/>
-    </row>
-    <row r="162" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C162" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="D162" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="112"/>
-      <c r="T162" s="110"/>
-      <c r="U162" s="113"/>
-      <c r="Y162" s="43"/>
-    </row>
-    <row r="163" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D163" s="115">
-        <f>K100/2</f>
-        <v>0</v>
-      </c>
-      <c r="E163" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F163" s="112">
-        <v>6</v>
-      </c>
-      <c r="G163" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H163" s="129">
-        <f>D163/F163</f>
-        <v>0</v>
-      </c>
-      <c r="I163" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J163" s="130">
-        <v>3</v>
-      </c>
-      <c r="K163" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="L163" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="S163" s="110">
-        <f>D163/F163*J163</f>
-        <v>0</v>
-      </c>
-      <c r="U163" s="113"/>
-      <c r="Y163" s="43"/>
-    </row>
-    <row r="164" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C164" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="D164" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="E164" s="112"/>
-      <c r="J164" s="116"/>
-      <c r="M164" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="S164" s="110"/>
-      <c r="U164" s="113"/>
-      <c r="Y164" s="43"/>
-    </row>
-    <row r="165" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D165" s="115">
-        <f>H163*1</f>
-        <v>0</v>
-      </c>
-      <c r="E165" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="112">
-        <v>30</v>
-      </c>
-      <c r="G165" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" s="129">
-        <f>D165/F165</f>
-        <v>0</v>
-      </c>
-      <c r="I165" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J165" s="130">
-        <v>16</v>
-      </c>
-      <c r="K165" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="S165" s="134">
-        <f>H165*J165</f>
-        <v>0</v>
-      </c>
-      <c r="U165" s="113"/>
+      <c r="C165" s="158"/>
+      <c r="D165" s="158"/>
+      <c r="E165" s="158"/>
+      <c r="F165" s="158"/>
+      <c r="G165" s="158"/>
+      <c r="H165" s="158"/>
+      <c r="I165" s="158"/>
+      <c r="J165" s="158"/>
+      <c r="K165" s="158"/>
+      <c r="L165" s="158"/>
+      <c r="M165" s="158"/>
+      <c r="N165" s="158"/>
+      <c r="O165" s="158"/>
+      <c r="P165" s="158"/>
+      <c r="Q165" s="158"/>
+      <c r="R165" s="158"/>
+      <c r="S165" s="158"/>
+      <c r="T165" s="158"/>
+      <c r="U165" s="158"/>
+      <c r="V165" s="1"/>
       <c r="Y165" s="43"/>
       <c r="Z165" s="43"/>
       <c r="AA165" s="43"/>
@@ -8075,20 +8531,33 @@
       <c r="AQ165" s="110"/>
       <c r="AR165" s="113"/>
     </row>
-    <row r="166" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E166" s="112"/>
-      <c r="M166" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S166" s="131">
-        <f>S163+S165</f>
-        <v>0</v>
-      </c>
-      <c r="U166" s="113"/>
+    <row r="166" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A166" s="1"/>
+      <c r="B166" s="158"/>
+      <c r="C166" s="158"/>
+      <c r="D166" s="158"/>
+      <c r="E166" s="158"/>
+      <c r="F166" s="158"/>
+      <c r="G166" s="158"/>
+      <c r="H166" s="158"/>
+      <c r="I166" s="158"/>
+      <c r="J166" s="158"/>
+      <c r="K166" s="158"/>
+      <c r="L166" s="158"/>
+      <c r="M166" s="158"/>
+      <c r="N166" s="158"/>
+      <c r="O166" s="158"/>
+      <c r="P166" s="158"/>
+      <c r="Q166" s="158"/>
+      <c r="R166" s="158"/>
+      <c r="S166" s="158"/>
+      <c r="T166" s="158"/>
+      <c r="U166" s="158"/>
+      <c r="V166" s="1"/>
       <c r="Y166" s="43"/>
       <c r="Z166" s="43"/>
       <c r="AA166" s="43"/>
-      <c r="AB166" s="44"/>
+      <c r="AB166" s="43"/>
       <c r="AC166" s="43"/>
       <c r="AD166" s="43"/>
       <c r="AE166" s="43"/>
@@ -8097,30 +8566,44 @@
       <c r="AH166" s="43"/>
       <c r="AI166" s="43"/>
       <c r="AJ166" s="43"/>
-      <c r="AP166" s="110"/>
-      <c r="AQ166" s="110"/>
-      <c r="AR166" s="113"/>
-    </row>
-    <row r="167" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C167" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E167" s="112"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
-      <c r="I167" s="43"/>
-      <c r="J167" s="43"/>
-      <c r="K167" s="43"/>
-      <c r="L167" s="43"/>
-      <c r="T167" s="115"/>
+      <c r="AK166" s="43"/>
+      <c r="AL166" s="43"/>
+      <c r="AM166" s="43"/>
+      <c r="AN166" s="43"/>
+      <c r="AO166" s="43"/>
+      <c r="AP166" s="43"/>
+      <c r="AQ166" s="43"/>
+      <c r="AR166" s="43"/>
+    </row>
+    <row r="167" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A167" s="52"/>
+      <c r="B167" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="173"/>
+      <c r="D167" s="173"/>
+      <c r="E167" s="173"/>
+      <c r="F167" s="173"/>
+      <c r="G167" s="173"/>
+      <c r="H167" s="173"/>
+      <c r="I167" s="173"/>
+      <c r="J167" s="173"/>
+      <c r="K167" s="173"/>
+      <c r="L167" s="173"/>
+      <c r="M167" s="173"/>
+      <c r="N167" s="173"/>
+      <c r="O167" s="173"/>
+      <c r="P167" s="173"/>
+      <c r="Q167" s="173"/>
+      <c r="R167" s="173"/>
+      <c r="S167" s="173"/>
+      <c r="T167" s="173"/>
+      <c r="U167" s="173"/>
+      <c r="V167" s="173"/>
       <c r="Y167" s="43"/>
       <c r="Z167" s="43"/>
       <c r="AA167" s="43"/>
-      <c r="AB167" s="44"/>
+      <c r="AB167" s="43"/>
       <c r="AC167" s="43"/>
       <c r="AD167" s="43"/>
       <c r="AE167" s="43"/>
@@ -8129,139 +8612,141 @@
       <c r="AH167" s="43"/>
       <c r="AI167" s="43"/>
       <c r="AJ167" s="43"/>
-      <c r="AP167" s="110"/>
-      <c r="AQ167" s="110"/>
-      <c r="AR167" s="113"/>
-    </row>
-    <row r="168" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E168" s="112"/>
-      <c r="F168" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J168" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K168" s="136">
-        <v>9</v>
-      </c>
-      <c r="L168" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="M168" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S168" s="137">
-        <f>S166*K168%</f>
-        <v>0</v>
-      </c>
-      <c r="T168" s="115"/>
+      <c r="AK167" s="43"/>
+      <c r="AL167" s="43"/>
+      <c r="AM167" s="43"/>
+      <c r="AN167" s="43"/>
+      <c r="AO167" s="43"/>
+      <c r="AP167" s="43"/>
+      <c r="AQ167" s="43"/>
+      <c r="AR167" s="43"/>
+    </row>
+    <row r="168" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A168" s="52"/>
+      <c r="B168" s="173"/>
+      <c r="C168" s="173"/>
+      <c r="D168" s="173"/>
+      <c r="E168" s="173"/>
+      <c r="F168" s="173"/>
+      <c r="G168" s="173"/>
+      <c r="H168" s="173"/>
+      <c r="I168" s="173"/>
+      <c r="J168" s="173"/>
+      <c r="K168" s="173"/>
+      <c r="L168" s="173"/>
+      <c r="M168" s="173"/>
+      <c r="N168" s="173"/>
+      <c r="O168" s="173"/>
+      <c r="P168" s="173"/>
+      <c r="Q168" s="173"/>
+      <c r="R168" s="173"/>
+      <c r="S168" s="173"/>
+      <c r="T168" s="173"/>
+      <c r="U168" s="173"/>
+      <c r="V168" s="173"/>
       <c r="Y168" s="43"/>
-      <c r="Z168" s="43"/>
-      <c r="AA168" s="43"/>
-      <c r="AB168" s="44"/>
-      <c r="AC168" s="43"/>
-      <c r="AD168" s="43"/>
-      <c r="AE168" s="43"/>
-      <c r="AF168" s="43"/>
-      <c r="AG168" s="43"/>
-      <c r="AH168" s="43"/>
-      <c r="AI168" s="43"/>
-      <c r="AJ168" s="43"/>
-      <c r="AP168" s="110"/>
-      <c r="AQ168" s="110"/>
-      <c r="AR168" s="113"/>
-    </row>
-    <row r="169" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D169" s="112"/>
-      <c r="J169" s="136"/>
-      <c r="M169" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S169" s="148">
-        <f>S166+S168</f>
-        <v>0</v>
-      </c>
-      <c r="T169" s="115"/>
+    </row>
+    <row r="169" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A169" s="52"/>
+      <c r="B169" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="173"/>
+      <c r="D169" s="173"/>
+      <c r="E169" s="173"/>
+      <c r="F169" s="173"/>
+      <c r="G169" s="173"/>
+      <c r="H169" s="173"/>
+      <c r="I169" s="173"/>
+      <c r="J169" s="173"/>
+      <c r="K169" s="173"/>
+      <c r="L169" s="173"/>
+      <c r="M169" s="173"/>
+      <c r="N169" s="173"/>
+      <c r="O169" s="173"/>
+      <c r="P169" s="173"/>
+      <c r="Q169" s="173"/>
+      <c r="R169" s="173"/>
+      <c r="S169" s="173"/>
+      <c r="T169" s="173"/>
+      <c r="U169" s="173"/>
+      <c r="V169" s="173"/>
       <c r="Y169" s="43"/>
-      <c r="Z169" s="43"/>
-      <c r="AA169" s="43"/>
-      <c r="AB169" s="44"/>
-      <c r="AC169" s="43"/>
-      <c r="AD169" s="43"/>
-      <c r="AE169" s="43"/>
-      <c r="AF169" s="43"/>
-      <c r="AG169" s="43"/>
-      <c r="AH169" s="43"/>
-      <c r="AI169" s="43"/>
-      <c r="AJ169" s="43"/>
-      <c r="AP169" s="110"/>
-      <c r="AQ169" s="110"/>
-      <c r="AR169" s="113"/>
-    </row>
-    <row r="170" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E170" s="112"/>
-      <c r="M170" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="S170" s="151">
-        <v>38.57</v>
-      </c>
-      <c r="T170" s="110"/>
-      <c r="U170" s="113"/>
+      <c r="AA169" s="115"/>
+      <c r="AC169" s="115"/>
+      <c r="AE169" s="115"/>
+      <c r="AG169" s="115"/>
+      <c r="AI169" s="115"/>
+      <c r="AK169" s="115"/>
+      <c r="AM169" s="115"/>
+      <c r="AO169" s="115"/>
+      <c r="AQ169" s="115"/>
+    </row>
+    <row r="170" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A170" s="52"/>
+      <c r="B170" s="173"/>
+      <c r="C170" s="173"/>
+      <c r="D170" s="173"/>
+      <c r="E170" s="173"/>
+      <c r="F170" s="173"/>
+      <c r="G170" s="173"/>
+      <c r="H170" s="173"/>
+      <c r="I170" s="173"/>
+      <c r="J170" s="173"/>
+      <c r="K170" s="173"/>
+      <c r="L170" s="173"/>
+      <c r="M170" s="173"/>
+      <c r="N170" s="173"/>
+      <c r="O170" s="173"/>
+      <c r="P170" s="173"/>
+      <c r="Q170" s="173"/>
+      <c r="R170" s="173"/>
+      <c r="S170" s="173"/>
+      <c r="T170" s="173"/>
+      <c r="U170" s="173"/>
+      <c r="V170" s="173"/>
       <c r="Y170" s="43"/>
-      <c r="Z170" s="43"/>
-      <c r="AA170" s="43"/>
-      <c r="AB170" s="43"/>
-      <c r="AC170" s="43"/>
-      <c r="AD170" s="43"/>
-      <c r="AE170" s="43"/>
-      <c r="AF170" s="43"/>
-      <c r="AG170" s="43"/>
-      <c r="AH170" s="43"/>
-      <c r="AI170" s="43"/>
-      <c r="AJ170" s="43"/>
-      <c r="AK170" s="43"/>
-      <c r="AL170" s="43"/>
-      <c r="AM170" s="43"/>
-      <c r="AN170" s="43"/>
-      <c r="AO170" s="43"/>
-      <c r="AP170" s="43"/>
-      <c r="AQ170" s="43"/>
-      <c r="AR170" s="43"/>
-    </row>
-    <row r="171" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E171" s="112"/>
-      <c r="M171" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S171" s="132"/>
-      <c r="T171" s="133">
-        <f>SUM(S169:S170)</f>
-        <v>38.57</v>
-      </c>
-      <c r="U171" s="113"/>
+    </row>
+    <row r="171" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A171" s="52"/>
+      <c r="B171" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="162"/>
+      <c r="D171" s="162"/>
+      <c r="E171" s="162"/>
+      <c r="F171" s="162"/>
+      <c r="G171" s="162"/>
+      <c r="H171" s="162"/>
+      <c r="I171" s="162"/>
+      <c r="J171" s="162"/>
+      <c r="K171" s="162"/>
+      <c r="L171" s="162"/>
+      <c r="M171" s="162"/>
+      <c r="N171" s="162"/>
+      <c r="O171" s="162"/>
+      <c r="P171" s="162"/>
+      <c r="Q171" s="162"/>
+      <c r="R171" s="162"/>
+      <c r="S171" s="162"/>
+      <c r="T171" s="162"/>
+      <c r="U171" s="53"/>
+      <c r="V171" s="52"/>
       <c r="Y171" s="43"/>
-      <c r="Z171" s="43"/>
-      <c r="AA171" s="43"/>
-      <c r="AB171" s="43"/>
-      <c r="AC171" s="43"/>
-      <c r="AD171" s="43"/>
-      <c r="AE171" s="43"/>
-      <c r="AF171" s="43"/>
-      <c r="AG171" s="43"/>
-      <c r="AH171" s="43"/>
-      <c r="AI171" s="43"/>
-      <c r="AJ171" s="43"/>
-      <c r="AK171" s="43"/>
-      <c r="AL171" s="43"/>
-      <c r="AM171" s="43"/>
-      <c r="AN171" s="43"/>
-      <c r="AO171" s="43"/>
-      <c r="AP171" s="43"/>
-      <c r="AQ171" s="43"/>
-      <c r="AR171" s="43"/>
-    </row>
-    <row r="172" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="AA171" s="115"/>
+      <c r="AC171" s="115"/>
+      <c r="AE171" s="115"/>
+      <c r="AG171" s="115"/>
+      <c r="AI171" s="115"/>
+      <c r="AK171" s="115"/>
+      <c r="AM171" s="115"/>
+      <c r="AO171" s="115"/>
+      <c r="AQ171" s="115"/>
+    </row>
+    <row r="172" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B172" s="43" t="s">
+        <v>34</v>
+      </c>
       <c r="C172" s="43" t="s">
         <v>43</v>
       </c>
@@ -8269,17 +8754,17 @@
       <c r="E172" s="44"/>
       <c r="F172" s="43"/>
       <c r="G172" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="H172" s="150"/>
+        <v>176</v>
+      </c>
+      <c r="H172" s="43"/>
       <c r="I172" s="43"/>
       <c r="T172" s="110"/>
       <c r="U172" s="113"/>
       <c r="Y172" s="43"/>
     </row>
-    <row r="173" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="173" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="C173" s="107" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D173" s="107" t="s">
         <v>25</v>
@@ -8288,19 +8773,10 @@
       <c r="T173" s="110"/>
       <c r="U173" s="113"/>
       <c r="Y173" s="43"/>
-      <c r="AA173" s="115"/>
-      <c r="AC173" s="115"/>
-      <c r="AE173" s="115"/>
-      <c r="AG173" s="115"/>
-      <c r="AI173" s="115"/>
-      <c r="AK173" s="115"/>
-      <c r="AM173" s="115"/>
-      <c r="AO173" s="115"/>
-      <c r="AQ173" s="115"/>
-    </row>
-    <row r="174" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    </row>
+    <row r="174" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="D174" s="115">
-        <f>D163</f>
+        <f>K100/2</f>
         <v>0</v>
       </c>
       <c r="E174" s="107" t="s">
@@ -8320,13 +8796,13 @@
         <v>28</v>
       </c>
       <c r="J174" s="130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K174" s="107" t="s">
         <v>29</v>
       </c>
       <c r="L174" s="107" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="S174" s="110">
         <f>D174/F174*J174</f>
@@ -8335,108 +8811,177 @@
       <c r="U174" s="113"/>
       <c r="Y174" s="43"/>
     </row>
-    <row r="175" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="175" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C175" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="107" t="s">
+        <v>31</v>
+      </c>
       <c r="E175" s="112"/>
+      <c r="J175" s="116"/>
       <c r="M175" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S175" s="131">
-        <f>S172+S174</f>
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="S175" s="110"/>
       <c r="U175" s="113"/>
       <c r="Y175" s="43"/>
-      <c r="AA175" s="115"/>
-      <c r="AC175" s="115"/>
-      <c r="AE175" s="115"/>
-      <c r="AG175" s="115"/>
-      <c r="AI175" s="115"/>
-      <c r="AK175" s="115"/>
-      <c r="AM175" s="115"/>
-      <c r="AO175" s="115"/>
-      <c r="AQ175" s="115"/>
-    </row>
-    <row r="176" spans="2:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C176" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="D176" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="112"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43"/>
-      <c r="I176" s="43"/>
-      <c r="J176" s="43"/>
-      <c r="K176" s="43"/>
-      <c r="L176" s="43"/>
-      <c r="T176" s="115"/>
+    </row>
+    <row r="176" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D176" s="115">
+        <f>H174*1</f>
+        <v>0</v>
+      </c>
+      <c r="E176" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F176" s="112">
+        <v>30</v>
+      </c>
+      <c r="G176" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" s="129">
+        <f>D176/F176</f>
+        <v>0</v>
+      </c>
+      <c r="I176" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J176" s="130">
+        <v>16</v>
+      </c>
+      <c r="K176" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="S176" s="134">
+        <f>H176*J176</f>
+        <v>0</v>
+      </c>
       <c r="U176" s="113"/>
       <c r="Y176" s="43"/>
+      <c r="Z176" s="43"/>
+      <c r="AA176" s="43"/>
+      <c r="AB176" s="44"/>
+      <c r="AC176" s="43"/>
+      <c r="AD176" s="43"/>
+      <c r="AE176" s="43"/>
+      <c r="AF176" s="43"/>
+      <c r="AG176" s="43"/>
+      <c r="AH176" s="43"/>
+      <c r="AI176" s="43"/>
+      <c r="AJ176" s="43"/>
+      <c r="AP176" s="110"/>
+      <c r="AQ176" s="110"/>
+      <c r="AR176" s="113"/>
     </row>
     <row r="177" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E177" s="112"/>
-      <c r="F177" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J177" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K177" s="136">
-        <v>9</v>
-      </c>
-      <c r="L177" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M177" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S177" s="137">
-        <f>S175*K177%</f>
+        <v>46</v>
+      </c>
+      <c r="S177" s="131">
+        <f>S174+S176</f>
         <v>0</v>
       </c>
-      <c r="T177" s="115"/>
       <c r="U177" s="113"/>
       <c r="Y177" s="43"/>
+      <c r="Z177" s="43"/>
+      <c r="AA177" s="43"/>
+      <c r="AB177" s="44"/>
+      <c r="AC177" s="43"/>
+      <c r="AD177" s="43"/>
+      <c r="AE177" s="43"/>
+      <c r="AF177" s="43"/>
+      <c r="AG177" s="43"/>
+      <c r="AH177" s="43"/>
+      <c r="AI177" s="43"/>
+      <c r="AJ177" s="43"/>
+      <c r="AP177" s="110"/>
+      <c r="AQ177" s="110"/>
+      <c r="AR177" s="113"/>
     </row>
     <row r="178" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D178" s="112"/>
-      <c r="J178" s="136"/>
-      <c r="M178" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S178" s="148">
-        <f>S175+S177</f>
-        <v>0</v>
-      </c>
+      <c r="C178" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D178" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E178" s="112"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="43"/>
+      <c r="K178" s="43"/>
+      <c r="L178" s="43"/>
       <c r="T178" s="115"/>
-      <c r="U178" s="113"/>
       <c r="Y178" s="43"/>
+      <c r="Z178" s="43"/>
+      <c r="AA178" s="43"/>
+      <c r="AB178" s="44"/>
+      <c r="AC178" s="43"/>
+      <c r="AD178" s="43"/>
+      <c r="AE178" s="43"/>
+      <c r="AF178" s="43"/>
+      <c r="AG178" s="43"/>
+      <c r="AH178" s="43"/>
+      <c r="AI178" s="43"/>
+      <c r="AJ178" s="43"/>
+      <c r="AP178" s="110"/>
+      <c r="AQ178" s="110"/>
+      <c r="AR178" s="113"/>
     </row>
     <row r="179" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E179" s="112"/>
+      <c r="F179" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J179" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K179" s="136">
+        <v>9</v>
+      </c>
+      <c r="L179" s="107" t="s">
+        <v>40</v>
+      </c>
       <c r="M179" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="S179" s="151">
-        <v>63.03</v>
-      </c>
-      <c r="T179" s="110"/>
-      <c r="U179" s="113"/>
+        <v>51</v>
+      </c>
+      <c r="S179" s="137">
+        <f>S177*K179%</f>
+        <v>0</v>
+      </c>
+      <c r="T179" s="115"/>
       <c r="Y179" s="43"/>
+      <c r="Z179" s="43"/>
+      <c r="AA179" s="43"/>
+      <c r="AB179" s="44"/>
+      <c r="AC179" s="43"/>
+      <c r="AD179" s="43"/>
+      <c r="AE179" s="43"/>
+      <c r="AF179" s="43"/>
+      <c r="AG179" s="43"/>
+      <c r="AH179" s="43"/>
+      <c r="AI179" s="43"/>
+      <c r="AJ179" s="43"/>
+      <c r="AP179" s="110"/>
+      <c r="AQ179" s="110"/>
+      <c r="AR179" s="113"/>
     </row>
     <row r="180" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E180" s="112"/>
+      <c r="D180" s="112"/>
+      <c r="J180" s="136"/>
       <c r="M180" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S180" s="132"/>
-      <c r="T180" s="133">
-        <f>SUM(S178:S179)</f>
-        <v>63.03</v>
-      </c>
-      <c r="U180" s="113"/>
+        <v>145</v>
+      </c>
+      <c r="S180" s="148">
+        <f>S177+S179</f>
+        <v>0</v>
+      </c>
+      <c r="T180" s="115"/>
       <c r="Y180" s="43"/>
       <c r="Z180" s="43"/>
       <c r="AA180" s="43"/>
@@ -8454,23 +8999,19 @@
       <c r="AR180" s="113"/>
     </row>
     <row r="181" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C181" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D181" s="43"/>
-      <c r="E181" s="44"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="H181" s="150"/>
-      <c r="I181" s="43"/>
+      <c r="E181" s="112"/>
+      <c r="M181" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="S181" s="151">
+        <v>38.57</v>
+      </c>
       <c r="T181" s="110"/>
       <c r="U181" s="113"/>
       <c r="Y181" s="43"/>
       <c r="Z181" s="43"/>
       <c r="AA181" s="43"/>
-      <c r="AB181" s="44"/>
+      <c r="AB181" s="43"/>
       <c r="AC181" s="43"/>
       <c r="AD181" s="43"/>
       <c r="AE181" s="43"/>
@@ -8479,24 +9020,30 @@
       <c r="AH181" s="43"/>
       <c r="AI181" s="43"/>
       <c r="AJ181" s="43"/>
-      <c r="AP181" s="110"/>
-      <c r="AQ181" s="110"/>
-      <c r="AR181" s="113"/>
+      <c r="AK181" s="43"/>
+      <c r="AL181" s="43"/>
+      <c r="AM181" s="43"/>
+      <c r="AN181" s="43"/>
+      <c r="AO181" s="43"/>
+      <c r="AP181" s="43"/>
+      <c r="AQ181" s="43"/>
+      <c r="AR181" s="43"/>
     </row>
     <row r="182" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C182" s="107" t="s">
-        <v>149</v>
-      </c>
-      <c r="D182" s="107" t="s">
-        <v>25</v>
-      </c>
       <c r="E182" s="112"/>
-      <c r="T182" s="110"/>
+      <c r="M182" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S182" s="132"/>
+      <c r="T182" s="133">
+        <f>SUM(S180:S181)</f>
+        <v>38.57</v>
+      </c>
       <c r="U182" s="113"/>
       <c r="Y182" s="43"/>
       <c r="Z182" s="43"/>
       <c r="AA182" s="43"/>
-      <c r="AB182" s="44"/>
+      <c r="AB182" s="43"/>
       <c r="AC182" s="43"/>
       <c r="AD182" s="43"/>
       <c r="AE182" s="43"/>
@@ -8505,392 +9052,251 @@
       <c r="AH182" s="43"/>
       <c r="AI182" s="43"/>
       <c r="AJ182" s="43"/>
-      <c r="AP182" s="110"/>
-      <c r="AQ182" s="110"/>
-      <c r="AR182" s="113"/>
+      <c r="AK182" s="43"/>
+      <c r="AL182" s="43"/>
+      <c r="AM182" s="43"/>
+      <c r="AN182" s="43"/>
+      <c r="AO182" s="43"/>
+      <c r="AP182" s="43"/>
+      <c r="AQ182" s="43"/>
+      <c r="AR182" s="43"/>
     </row>
     <row r="183" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D183" s="115">
+      <c r="C183" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D183" s="43"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="H183" s="150"/>
+      <c r="I183" s="43"/>
+      <c r="T183" s="110"/>
+      <c r="U183" s="113"/>
+      <c r="Y183" s="43"/>
+    </row>
+    <row r="184" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C184" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="112"/>
+      <c r="T184" s="110"/>
+      <c r="U184" s="113"/>
+      <c r="Y184" s="43"/>
+      <c r="AA184" s="115"/>
+      <c r="AC184" s="115"/>
+      <c r="AE184" s="115"/>
+      <c r="AG184" s="115"/>
+      <c r="AI184" s="115"/>
+      <c r="AK184" s="115"/>
+      <c r="AM184" s="115"/>
+      <c r="AO184" s="115"/>
+      <c r="AQ184" s="115"/>
+    </row>
+    <row r="185" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D185" s="115">
         <f>D174</f>
         <v>0</v>
       </c>
-      <c r="E183" s="107" t="s">
+      <c r="E185" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="F183" s="112">
+      <c r="F185" s="112">
         <v>6</v>
       </c>
-      <c r="G183" s="107" t="s">
+      <c r="G185" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H183" s="129">
-        <f>D183/F183</f>
+      <c r="H185" s="129">
+        <f>D185/F185</f>
         <v>0</v>
       </c>
-      <c r="I183" s="107" t="s">
+      <c r="I185" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J183" s="130">
+      <c r="J185" s="130">
         <v>6</v>
       </c>
-      <c r="K183" s="107" t="s">
+      <c r="K185" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L183" s="107" t="s">
-        <v>164</v>
-      </c>
-      <c r="S183" s="110">
-        <f>D183/F183*J183</f>
+      <c r="L185" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="S185" s="110">
+        <f>D185/F185*J185</f>
         <v>0</v>
       </c>
-      <c r="U183" s="113"/>
-      <c r="Y183" s="43"/>
-      <c r="Z183" s="43"/>
-      <c r="AA183" s="43"/>
-      <c r="AB183" s="44"/>
-      <c r="AC183" s="43"/>
-      <c r="AD183" s="43"/>
-      <c r="AE183" s="43"/>
-      <c r="AF183" s="43"/>
-      <c r="AG183" s="43"/>
-      <c r="AH183" s="43"/>
-      <c r="AI183" s="43"/>
-      <c r="AJ183" s="43"/>
-      <c r="AP183" s="110"/>
-      <c r="AQ183" s="110"/>
-      <c r="AR183" s="113"/>
-    </row>
-    <row r="184" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E184" s="112"/>
-      <c r="M184" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S184" s="131">
-        <f>S183</f>
-        <v>0</v>
-      </c>
-      <c r="U184" s="113"/>
-      <c r="Y184" s="43"/>
-      <c r="Z184" s="43"/>
-      <c r="AA184" s="43"/>
-      <c r="AB184" s="44"/>
-      <c r="AC184" s="43"/>
-      <c r="AD184" s="43"/>
-      <c r="AE184" s="43"/>
-      <c r="AF184" s="43"/>
-      <c r="AG184" s="43"/>
-      <c r="AH184" s="43"/>
-      <c r="AI184" s="43"/>
-      <c r="AJ184" s="43"/>
-      <c r="AP184" s="110"/>
-      <c r="AQ184" s="110"/>
-      <c r="AR184" s="113"/>
-    </row>
-    <row r="185" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C185" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="D185" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E185" s="112"/>
-      <c r="F185" s="43"/>
-      <c r="G185" s="43"/>
-      <c r="H185" s="43"/>
-      <c r="I185" s="43"/>
-      <c r="J185" s="43"/>
-      <c r="K185" s="43"/>
-      <c r="L185" s="43"/>
-      <c r="T185" s="115"/>
       <c r="U185" s="113"/>
       <c r="Y185" s="43"/>
-      <c r="Z185" s="43"/>
-      <c r="AA185" s="43"/>
-      <c r="AB185" s="43"/>
-      <c r="AC185" s="43"/>
-      <c r="AD185" s="43"/>
-      <c r="AE185" s="43"/>
-      <c r="AF185" s="43"/>
-      <c r="AG185" s="43"/>
-      <c r="AH185" s="43"/>
-      <c r="AI185" s="43"/>
-      <c r="AJ185" s="43"/>
-      <c r="AK185" s="43"/>
-      <c r="AL185" s="43"/>
-      <c r="AM185" s="43"/>
-      <c r="AN185" s="43"/>
-      <c r="AO185" s="43"/>
-      <c r="AP185" s="43"/>
-      <c r="AQ185" s="43"/>
-      <c r="AR185" s="43"/>
-    </row>
-    <row r="186" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    </row>
+    <row r="186" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E186" s="112"/>
-      <c r="F186" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J186" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K186" s="136">
-        <v>9</v>
-      </c>
-      <c r="L186" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M186" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S186" s="137">
-        <f>S184*K186%</f>
+        <v>46</v>
+      </c>
+      <c r="S186" s="131">
+        <f>S183+S185</f>
         <v>0</v>
       </c>
-      <c r="T186" s="115"/>
       <c r="U186" s="113"/>
       <c r="Y186" s="43"/>
-      <c r="Z186" s="43"/>
-      <c r="AA186" s="43"/>
-      <c r="AB186" s="43"/>
-      <c r="AC186" s="43"/>
-      <c r="AD186" s="43"/>
-      <c r="AE186" s="43"/>
-      <c r="AF186" s="43"/>
-      <c r="AG186" s="43"/>
-      <c r="AH186" s="43"/>
-      <c r="AI186" s="43"/>
-      <c r="AJ186" s="43"/>
-      <c r="AK186" s="43"/>
-      <c r="AL186" s="43"/>
-      <c r="AM186" s="43"/>
-      <c r="AN186" s="43"/>
-      <c r="AO186" s="43"/>
-      <c r="AP186" s="43"/>
-      <c r="AQ186" s="43"/>
-      <c r="AR186" s="43"/>
-    </row>
-    <row r="187" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
-      <c r="D187" s="112"/>
-      <c r="J187" s="136"/>
-      <c r="M187" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S187" s="148">
-        <f>S184+S186</f>
-        <v>0</v>
-      </c>
+      <c r="AA186" s="115"/>
+      <c r="AC186" s="115"/>
+      <c r="AE186" s="115"/>
+      <c r="AG186" s="115"/>
+      <c r="AI186" s="115"/>
+      <c r="AK186" s="115"/>
+      <c r="AM186" s="115"/>
+      <c r="AO186" s="115"/>
+      <c r="AQ186" s="115"/>
+    </row>
+    <row r="187" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C187" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D187" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E187" s="112"/>
+      <c r="F187" s="43"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="43"/>
+      <c r="I187" s="43"/>
+      <c r="J187" s="43"/>
+      <c r="K187" s="43"/>
+      <c r="L187" s="43"/>
       <c r="T187" s="115"/>
       <c r="U187" s="113"/>
-      <c r="Y187" s="157" t="str">
-        <f>Y82</f>
-        <v>Jr. San Martin N° 967</v>
-      </c>
-      <c r="Z187" s="157"/>
-      <c r="AA187" s="157"/>
-      <c r="AB187" s="157"/>
-      <c r="AC187" s="157"/>
-      <c r="AD187" s="157"/>
-      <c r="AE187" s="157"/>
-      <c r="AF187" s="157"/>
-      <c r="AG187" s="157"/>
-      <c r="AH187" s="157"/>
-      <c r="AI187" s="157"/>
-      <c r="AJ187" s="157"/>
-      <c r="AK187" s="157"/>
-      <c r="AL187" s="157"/>
-      <c r="AM187" s="157"/>
-      <c r="AN187" s="157"/>
-      <c r="AO187" s="157"/>
-      <c r="AP187" s="157"/>
-      <c r="AQ187" s="157"/>
+      <c r="Y187" s="43"/>
     </row>
     <row r="188" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E188" s="112"/>
+      <c r="F188" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J188" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K188" s="136">
+        <v>9</v>
+      </c>
+      <c r="L188" s="107" t="s">
+        <v>40</v>
+      </c>
       <c r="M188" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="S188" s="151">
-        <v>56.96</v>
-      </c>
-      <c r="T188" s="110"/>
+        <v>51</v>
+      </c>
+      <c r="S188" s="137">
+        <f>S186*K188%</f>
+        <v>0</v>
+      </c>
+      <c r="T188" s="115"/>
       <c r="U188" s="113"/>
-      <c r="Y188" s="158"/>
-      <c r="Z188" s="158"/>
-      <c r="AA188" s="158"/>
-      <c r="AB188" s="158"/>
-      <c r="AC188" s="158"/>
-      <c r="AD188" s="158"/>
-      <c r="AE188" s="158"/>
-      <c r="AF188" s="158"/>
-      <c r="AG188" s="158"/>
-      <c r="AH188" s="158"/>
-      <c r="AI188" s="158"/>
-      <c r="AJ188" s="158"/>
-      <c r="AK188" s="158"/>
-      <c r="AL188" s="158"/>
-      <c r="AM188" s="158"/>
-      <c r="AN188" s="158"/>
-      <c r="AO188" s="158"/>
-      <c r="AP188" s="158"/>
-      <c r="AQ188" s="158"/>
+      <c r="Y188" s="43"/>
     </row>
     <row r="189" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E189" s="112"/>
+      <c r="D189" s="112"/>
+      <c r="J189" s="136"/>
       <c r="M189" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S189" s="132"/>
-      <c r="T189" s="133">
-        <f>SUM(S187:S188)</f>
-        <v>56.96</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="S189" s="148">
+        <f>S186+S188</f>
+        <v>0</v>
+      </c>
+      <c r="T189" s="115"/>
       <c r="U189" s="113"/>
       <c r="Y189" s="43"/>
-      <c r="Z189" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA189" s="43"/>
-      <c r="AB189" s="44"/>
-      <c r="AC189" s="43"/>
-      <c r="AD189" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE189" s="43"/>
-      <c r="AF189" s="43"/>
-      <c r="AQ189" s="110"/>
-      <c r="AR189" s="113"/>
     </row>
     <row r="190" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C190" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D190" s="43"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="43"/>
-      <c r="G190" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="H190" s="150"/>
-      <c r="I190" s="43"/>
+      <c r="E190" s="112"/>
+      <c r="M190" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="S190" s="151">
+        <v>63.03</v>
+      </c>
       <c r="T190" s="110"/>
       <c r="U190" s="113"/>
-      <c r="Z190" s="107" t="s">
+      <c r="Y190" s="43"/>
+    </row>
+    <row r="191" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E191" s="112"/>
+      <c r="M191" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S191" s="132"/>
+      <c r="T191" s="133">
+        <f>SUM(S189:S190)</f>
+        <v>63.03</v>
+      </c>
+      <c r="U191" s="113"/>
+      <c r="Y191" s="43"/>
+      <c r="Z191" s="43"/>
+      <c r="AA191" s="43"/>
+      <c r="AB191" s="44"/>
+      <c r="AC191" s="43"/>
+      <c r="AD191" s="43"/>
+      <c r="AE191" s="43"/>
+      <c r="AF191" s="43"/>
+      <c r="AG191" s="43"/>
+      <c r="AH191" s="43"/>
+      <c r="AI191" s="43"/>
+      <c r="AJ191" s="43"/>
+      <c r="AP191" s="110"/>
+      <c r="AQ191" s="110"/>
+      <c r="AR191" s="113"/>
+    </row>
+    <row r="192" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C192" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" s="43"/>
+      <c r="E192" s="44"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H192" s="150"/>
+      <c r="I192" s="43"/>
+      <c r="T192" s="110"/>
+      <c r="U192" s="113"/>
+      <c r="Y192" s="43"/>
+      <c r="Z192" s="43"/>
+      <c r="AA192" s="43"/>
+      <c r="AB192" s="44"/>
+      <c r="AC192" s="43"/>
+      <c r="AD192" s="43"/>
+      <c r="AE192" s="43"/>
+      <c r="AF192" s="43"/>
+      <c r="AG192" s="43"/>
+      <c r="AH192" s="43"/>
+      <c r="AI192" s="43"/>
+      <c r="AJ192" s="43"/>
+      <c r="AP192" s="110"/>
+      <c r="AQ192" s="110"/>
+      <c r="AR192" s="113"/>
+    </row>
+    <row r="193" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C193" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="AA190" s="107" t="s">
+      <c r="D193" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="AB190" s="112"/>
-      <c r="AQ190" s="110"/>
-      <c r="AR190" s="113"/>
-    </row>
-    <row r="191" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C191" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D191" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="E191" s="112"/>
-      <c r="T191" s="110"/>
-      <c r="U191" s="113"/>
-      <c r="AA191" s="115">
-        <f>AA178</f>
-        <v>0</v>
-      </c>
-      <c r="AB191" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC191" s="112">
-        <v>6</v>
-      </c>
-      <c r="AD191" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE191" s="129">
-        <f>AA191/AC191</f>
-        <v>0</v>
-      </c>
-      <c r="AF191" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG191" s="130">
-        <v>6</v>
-      </c>
-      <c r="AH191" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI191" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP191" s="110">
-        <f>AA191/AC191*AG191</f>
-        <v>0</v>
-      </c>
-      <c r="AR191" s="113"/>
-    </row>
-    <row r="192" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D192" s="115">
-        <f>D174</f>
-        <v>0</v>
-      </c>
-      <c r="E192" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F192" s="112">
-        <v>6</v>
-      </c>
-      <c r="G192" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H192" s="129">
-        <f>D192/F192</f>
-        <v>0</v>
-      </c>
-      <c r="I192" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J192" s="130">
-        <v>6</v>
-      </c>
-      <c r="K192" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="L192" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="S192" s="110">
-        <f>D192/F192*J192</f>
-        <v>0</v>
-      </c>
-      <c r="U192" s="113"/>
-      <c r="AB192" s="112"/>
-      <c r="AJ192" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP192" s="131">
-        <f>AP191</f>
-        <v>0</v>
-      </c>
-      <c r="AR192" s="113"/>
-    </row>
-    <row r="193" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E193" s="112"/>
-      <c r="M193" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S193" s="131">
-        <f>S192</f>
-        <v>0</v>
-      </c>
+      <c r="T193" s="110"/>
       <c r="U193" s="113"/>
       <c r="Y193" s="43"/>
-      <c r="Z193" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA193" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB193" s="112"/>
+      <c r="Z193" s="43"/>
+      <c r="AA193" s="43"/>
+      <c r="AB193" s="44"/>
       <c r="AC193" s="43"/>
       <c r="AD193" s="43"/>
       <c r="AE193" s="43"/>
@@ -8898,570 +9304,561 @@
       <c r="AG193" s="43"/>
       <c r="AH193" s="43"/>
       <c r="AI193" s="43"/>
-      <c r="AQ193" s="115"/>
+      <c r="AJ193" s="43"/>
+      <c r="AP193" s="110"/>
+      <c r="AQ193" s="110"/>
       <c r="AR193" s="113"/>
     </row>
     <row r="194" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C194" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="D194" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E194" s="112"/>
-      <c r="F194" s="43"/>
-      <c r="G194" s="43"/>
-      <c r="H194" s="43"/>
-      <c r="I194" s="43"/>
-      <c r="J194" s="43"/>
-      <c r="K194" s="43"/>
-      <c r="L194" s="43"/>
-      <c r="T194" s="115"/>
+      <c r="D194" s="115">
+        <f>D185</f>
+        <v>0</v>
+      </c>
+      <c r="E194" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="112">
+        <v>6</v>
+      </c>
+      <c r="G194" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" s="129">
+        <f>D194/F194</f>
+        <v>0</v>
+      </c>
+      <c r="I194" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J194" s="130">
+        <v>6</v>
+      </c>
+      <c r="K194" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L194" s="107" t="s">
+        <v>164</v>
+      </c>
+      <c r="S194" s="110">
+        <f>D194/F194*J194</f>
+        <v>0</v>
+      </c>
       <c r="U194" s="113"/>
-      <c r="AB194" s="112"/>
-      <c r="AC194" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG194" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH194" s="136">
-        <v>9</v>
-      </c>
-      <c r="AI194" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ194" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP194" s="137">
-        <f>AP192*AH194%</f>
-        <v>0</v>
-      </c>
-      <c r="AQ194" s="115"/>
+      <c r="Y194" s="43"/>
+      <c r="Z194" s="43"/>
+      <c r="AA194" s="43"/>
+      <c r="AB194" s="44"/>
+      <c r="AC194" s="43"/>
+      <c r="AD194" s="43"/>
+      <c r="AE194" s="43"/>
+      <c r="AF194" s="43"/>
+      <c r="AG194" s="43"/>
+      <c r="AH194" s="43"/>
+      <c r="AI194" s="43"/>
+      <c r="AJ194" s="43"/>
+      <c r="AP194" s="110"/>
+      <c r="AQ194" s="110"/>
       <c r="AR194" s="113"/>
     </row>
     <row r="195" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E195" s="112"/>
-      <c r="F195" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J195" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K195" s="136">
-        <v>9</v>
-      </c>
-      <c r="L195" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M195" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S195" s="137">
-        <f>S193*K195%</f>
+        <v>46</v>
+      </c>
+      <c r="S195" s="131">
+        <f>S194</f>
         <v>0</v>
       </c>
-      <c r="T195" s="115"/>
       <c r="U195" s="113"/>
-      <c r="AA195" s="112"/>
-      <c r="AG195" s="136"/>
-      <c r="AJ195" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP195" s="148">
-        <f>AP192+AP194</f>
-        <v>0</v>
-      </c>
-      <c r="AQ195" s="115"/>
+      <c r="Y195" s="43"/>
+      <c r="Z195" s="43"/>
+      <c r="AA195" s="43"/>
+      <c r="AB195" s="44"/>
+      <c r="AC195" s="43"/>
+      <c r="AD195" s="43"/>
+      <c r="AE195" s="43"/>
+      <c r="AF195" s="43"/>
+      <c r="AG195" s="43"/>
+      <c r="AH195" s="43"/>
+      <c r="AI195" s="43"/>
+      <c r="AJ195" s="43"/>
+      <c r="AP195" s="110"/>
+      <c r="AQ195" s="110"/>
       <c r="AR195" s="113"/>
     </row>
     <row r="196" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D196" s="112"/>
-      <c r="J196" s="136"/>
-      <c r="M196" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S196" s="148">
-        <f>S193+S195</f>
-        <v>0</v>
-      </c>
+      <c r="C196" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D196" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="112"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="43"/>
+      <c r="J196" s="43"/>
+      <c r="K196" s="43"/>
+      <c r="L196" s="43"/>
       <c r="T196" s="115"/>
       <c r="U196" s="113"/>
-      <c r="AB196" s="112"/>
-      <c r="AJ196" s="107" t="s">
+      <c r="Y196" s="43"/>
+      <c r="Z196" s="43"/>
+      <c r="AA196" s="43"/>
+      <c r="AB196" s="43"/>
+      <c r="AC196" s="43"/>
+      <c r="AD196" s="43"/>
+      <c r="AE196" s="43"/>
+      <c r="AF196" s="43"/>
+      <c r="AG196" s="43"/>
+      <c r="AH196" s="43"/>
+      <c r="AI196" s="43"/>
+      <c r="AJ196" s="43"/>
+      <c r="AK196" s="43"/>
+      <c r="AL196" s="43"/>
+      <c r="AM196" s="43"/>
+      <c r="AN196" s="43"/>
+      <c r="AO196" s="43"/>
+      <c r="AP196" s="43"/>
+      <c r="AQ196" s="43"/>
+      <c r="AR196" s="43"/>
+    </row>
+    <row r="197" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="E197" s="112"/>
+      <c r="F197" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J197" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" s="136">
+        <v>9</v>
+      </c>
+      <c r="L197" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="M197" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="S197" s="137">
+        <f>S195*K197%</f>
+        <v>0</v>
+      </c>
+      <c r="T197" s="115"/>
+      <c r="U197" s="113"/>
+      <c r="Y197" s="43"/>
+      <c r="Z197" s="43"/>
+      <c r="AA197" s="43"/>
+      <c r="AB197" s="43"/>
+      <c r="AC197" s="43"/>
+      <c r="AD197" s="43"/>
+      <c r="AE197" s="43"/>
+      <c r="AF197" s="43"/>
+      <c r="AG197" s="43"/>
+      <c r="AH197" s="43"/>
+      <c r="AI197" s="43"/>
+      <c r="AJ197" s="43"/>
+      <c r="AK197" s="43"/>
+      <c r="AL197" s="43"/>
+      <c r="AM197" s="43"/>
+      <c r="AN197" s="43"/>
+      <c r="AO197" s="43"/>
+      <c r="AP197" s="43"/>
+      <c r="AQ197" s="43"/>
+      <c r="AR197" s="43"/>
+    </row>
+    <row r="198" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="D198" s="112"/>
+      <c r="J198" s="136"/>
+      <c r="M198" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S198" s="148">
+        <f>S195+S197</f>
+        <v>0</v>
+      </c>
+      <c r="T198" s="115"/>
+      <c r="U198" s="113"/>
+      <c r="Y198" s="157" t="str">
+        <f>Y82</f>
+        <v>Jr. San Martin N° 967</v>
+      </c>
+      <c r="Z198" s="157"/>
+      <c r="AA198" s="157"/>
+      <c r="AB198" s="157"/>
+      <c r="AC198" s="157"/>
+      <c r="AD198" s="157"/>
+      <c r="AE198" s="157"/>
+      <c r="AF198" s="157"/>
+      <c r="AG198" s="157"/>
+      <c r="AH198" s="157"/>
+      <c r="AI198" s="157"/>
+      <c r="AJ198" s="157"/>
+      <c r="AK198" s="157"/>
+      <c r="AL198" s="157"/>
+      <c r="AM198" s="157"/>
+      <c r="AN198" s="157"/>
+      <c r="AO198" s="157"/>
+      <c r="AP198" s="157"/>
+      <c r="AQ198" s="157"/>
+    </row>
+    <row r="199" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E199" s="112"/>
+      <c r="M199" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="AP196" s="147">
-        <v>7.49</v>
-      </c>
-      <c r="AQ196" s="110"/>
-      <c r="AR196" s="113"/>
-    </row>
-    <row r="197" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E197" s="112"/>
-      <c r="M197" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="S197" s="151">
-        <v>49.64</v>
-      </c>
-      <c r="T197" s="110"/>
-      <c r="U197" s="113"/>
-      <c r="AB197" s="112"/>
-      <c r="AJ197" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP197" s="132"/>
-      <c r="AQ197" s="133">
-        <f>SUM(AP195:AP196)</f>
-        <v>7.49</v>
-      </c>
-      <c r="AR197" s="113"/>
-    </row>
-    <row r="198" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E198" s="112"/>
-      <c r="M198" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S198" s="132"/>
-      <c r="T198" s="133">
-        <f>SUM(S196:S197)</f>
-        <v>49.64</v>
-      </c>
-      <c r="U198" s="113"/>
-      <c r="Y198" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z198" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA198" s="43"/>
-      <c r="AB198" s="44"/>
-      <c r="AC198" s="43"/>
-      <c r="AD198" s="43"/>
-      <c r="AE198" s="43"/>
-      <c r="AF198" s="43"/>
-      <c r="AG198" s="62"/>
-      <c r="AQ198" s="110"/>
-      <c r="AR198" s="113"/>
-    </row>
-    <row r="199" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C199" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D199" s="43"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="43"/>
-      <c r="G199" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="H199" s="150"/>
-      <c r="I199" s="43"/>
+      <c r="S199" s="151">
+        <v>56.96</v>
+      </c>
       <c r="T199" s="110"/>
       <c r="U199" s="113"/>
-      <c r="Y199" s="43"/>
-      <c r="Z199" s="43"/>
-      <c r="AA199" s="43"/>
-      <c r="AB199" s="44"/>
-      <c r="AC199" s="43"/>
-      <c r="AD199" s="43"/>
-      <c r="AE199" s="43"/>
-      <c r="AF199" s="43"/>
-      <c r="AG199" s="62"/>
-      <c r="AQ199" s="110"/>
-      <c r="AR199" s="113"/>
+      <c r="Y199" s="158"/>
+      <c r="Z199" s="158"/>
+      <c r="AA199" s="158"/>
+      <c r="AB199" s="158"/>
+      <c r="AC199" s="158"/>
+      <c r="AD199" s="158"/>
+      <c r="AE199" s="158"/>
+      <c r="AF199" s="158"/>
+      <c r="AG199" s="158"/>
+      <c r="AH199" s="158"/>
+      <c r="AI199" s="158"/>
+      <c r="AJ199" s="158"/>
+      <c r="AK199" s="158"/>
+      <c r="AL199" s="158"/>
+      <c r="AM199" s="158"/>
+      <c r="AN199" s="158"/>
+      <c r="AO199" s="158"/>
+      <c r="AP199" s="158"/>
+      <c r="AQ199" s="158"/>
     </row>
     <row r="200" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C200" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D200" s="107" t="s">
-        <v>25</v>
-      </c>
       <c r="E200" s="112"/>
-      <c r="T200" s="110"/>
+      <c r="M200" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S200" s="132"/>
+      <c r="T200" s="133">
+        <f>SUM(S198:S199)</f>
+        <v>56.96</v>
+      </c>
       <c r="U200" s="113"/>
       <c r="Y200" s="43"/>
-      <c r="Z200" s="43"/>
+      <c r="Z200" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="AA200" s="43"/>
       <c r="AB200" s="44"/>
       <c r="AC200" s="43"/>
-      <c r="AD200" s="43"/>
+      <c r="AD200" s="43" t="s">
+        <v>146</v>
+      </c>
       <c r="AE200" s="43"/>
       <c r="AF200" s="43"/>
-      <c r="AG200" s="62"/>
       <c r="AQ200" s="110"/>
       <c r="AR200" s="113"/>
     </row>
     <row r="201" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D201" s="115">
-        <f>D192</f>
+      <c r="C201" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="43"/>
+      <c r="E201" s="44"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="H201" s="150"/>
+      <c r="I201" s="43"/>
+      <c r="T201" s="110"/>
+      <c r="U201" s="113"/>
+      <c r="Z201" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA201" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB201" s="112"/>
+      <c r="AQ201" s="110"/>
+      <c r="AR201" s="113"/>
+    </row>
+    <row r="202" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C202" s="107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D202" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="112"/>
+      <c r="T202" s="110"/>
+      <c r="U202" s="113"/>
+      <c r="AA202" s="115">
+        <f>AA189</f>
         <v>0</v>
       </c>
-      <c r="E201" s="107" t="s">
+      <c r="AB202" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="F201" s="112">
+      <c r="AC202" s="112">
         <v>6</v>
       </c>
-      <c r="G201" s="107" t="s">
+      <c r="AD202" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H201" s="129">
-        <f>D201/F201</f>
+      <c r="AE202" s="129">
+        <f>AA202/AC202</f>
         <v>0</v>
       </c>
-      <c r="I201" s="107" t="s">
+      <c r="AF202" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J201" s="130">
+      <c r="AG202" s="130">
         <v>6</v>
       </c>
-      <c r="K201" s="107" t="s">
+      <c r="AH202" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L201" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="S201" s="110">
-        <f>D201/F201*J201</f>
+      <c r="AI202" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP202" s="110">
+        <f>AA202/AC202*AG202</f>
         <v>0</v>
       </c>
-      <c r="U201" s="113"/>
-      <c r="Y201" s="117"/>
-      <c r="Z201" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA201" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB201" s="118"/>
-      <c r="AC201" s="117"/>
-      <c r="AD201" s="117"/>
-      <c r="AE201" s="117"/>
-      <c r="AF201" s="117"/>
-      <c r="AG201" s="117"/>
-      <c r="AH201" s="117"/>
-      <c r="AI201" s="117"/>
-      <c r="AJ201" s="62"/>
-      <c r="AK201" s="117"/>
-      <c r="AL201" s="117"/>
-      <c r="AM201" s="117"/>
-      <c r="AN201" s="117"/>
-      <c r="AO201" s="117"/>
-      <c r="AP201" s="117"/>
-      <c r="AQ201" s="141"/>
-      <c r="AR201" s="113"/>
-    </row>
-    <row r="202" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E202" s="112"/>
-      <c r="M202" s="107" t="s">
+      <c r="AR202" s="113"/>
+    </row>
+    <row r="203" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D203" s="115">
+        <f>D185</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="112">
+        <v>6</v>
+      </c>
+      <c r="G203" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="129">
+        <f>D203/F203</f>
+        <v>0</v>
+      </c>
+      <c r="I203" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J203" s="130">
+        <v>6</v>
+      </c>
+      <c r="K203" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L203" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="S203" s="110">
+        <f>D203/F203*J203</f>
+        <v>0</v>
+      </c>
+      <c r="U203" s="113"/>
+      <c r="AB203" s="112"/>
+      <c r="AJ203" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="S202" s="131">
-        <f>S201</f>
+      <c r="AP203" s="131">
+        <f>AP202</f>
         <v>0</v>
       </c>
-      <c r="U202" s="113"/>
-      <c r="Y202" s="117"/>
-      <c r="Z202" s="140"/>
-      <c r="AA202" s="62"/>
-      <c r="AB202" s="118"/>
-      <c r="AC202" s="117"/>
-      <c r="AD202" s="117"/>
-      <c r="AE202" s="117"/>
-      <c r="AF202" s="117"/>
-      <c r="AG202" s="117"/>
-      <c r="AH202" s="117"/>
-      <c r="AI202" s="117"/>
-      <c r="AJ202" s="62"/>
-      <c r="AK202" s="117"/>
-      <c r="AL202" s="117"/>
-      <c r="AM202" s="117"/>
-      <c r="AN202" s="117"/>
-      <c r="AO202" s="117"/>
-      <c r="AP202" s="117"/>
-      <c r="AQ202" s="141"/>
-      <c r="AR202" s="113"/>
-    </row>
-    <row r="203" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C203" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D203" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E203" s="112"/>
-      <c r="F203" s="43"/>
-      <c r="G203" s="43"/>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="43"/>
-      <c r="L203" s="43"/>
-      <c r="T203" s="115"/>
-      <c r="U203" s="113"/>
-      <c r="Y203" s="154" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z203" s="154"/>
-      <c r="AA203" s="154"/>
-      <c r="AB203" s="154"/>
-      <c r="AC203" s="154"/>
-      <c r="AD203" s="117" t="str">
-        <f>AG87</f>
-        <v>ST KDOSH GROUP S.A.C.</v>
-      </c>
-      <c r="AE203" s="117"/>
-      <c r="AF203" s="117"/>
-      <c r="AG203" s="117"/>
-      <c r="AH203" s="117"/>
-      <c r="AI203" s="117"/>
-      <c r="AJ203" s="117"/>
-      <c r="AK203" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL203" s="117"/>
-      <c r="AM203" s="117"/>
-      <c r="AN203" s="155" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AO203" s="155"/>
-      <c r="AP203" s="117"/>
-      <c r="AQ203" s="117"/>
       <c r="AR203" s="113"/>
     </row>
     <row r="204" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E204" s="112"/>
-      <c r="F204" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J204" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K204" s="136">
-        <v>9</v>
-      </c>
-      <c r="L204" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M204" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S204" s="137">
-        <f>S202*K204%</f>
+        <v>46</v>
+      </c>
+      <c r="S204" s="131">
+        <f>S203</f>
         <v>0</v>
       </c>
-      <c r="T204" s="115"/>
       <c r="U204" s="113"/>
-      <c r="Y204" s="117" t="str">
-        <f>AA201</f>
-        <v>Tres Mil Ciento Quince con 74/100 soles</v>
-      </c>
-      <c r="Z204" s="117"/>
-      <c r="AA204" s="117"/>
-      <c r="AB204" s="118"/>
-      <c r="AC204" s="117"/>
-      <c r="AD204" s="117"/>
-      <c r="AE204" s="117"/>
-      <c r="AF204" s="117"/>
-      <c r="AG204" s="117"/>
-      <c r="AH204" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI204" s="117"/>
-      <c r="AJ204" s="117"/>
-      <c r="AK204" s="117"/>
-      <c r="AL204" s="117"/>
-      <c r="AM204" s="117"/>
-      <c r="AN204" s="117"/>
-      <c r="AO204" s="117"/>
-      <c r="AP204" s="120"/>
-      <c r="AQ204" s="117"/>
+      <c r="Y204" s="43"/>
+      <c r="Z204" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA204" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB204" s="112"/>
+      <c r="AC204" s="43"/>
+      <c r="AD204" s="43"/>
+      <c r="AE204" s="43"/>
+      <c r="AF204" s="43"/>
+      <c r="AG204" s="43"/>
+      <c r="AH204" s="43"/>
+      <c r="AI204" s="43"/>
+      <c r="AQ204" s="115"/>
       <c r="AR204" s="113"/>
     </row>
     <row r="205" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D205" s="112"/>
-      <c r="J205" s="136"/>
-      <c r="M205" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S205" s="148">
-        <f>S202+S204</f>
-        <v>0</v>
-      </c>
+      <c r="C205" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="D205" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E205" s="112"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="43"/>
+      <c r="J205" s="43"/>
+      <c r="K205" s="43"/>
+      <c r="L205" s="43"/>
       <c r="T205" s="115"/>
       <c r="U205" s="113"/>
-      <c r="Y205" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z205" s="117"/>
-      <c r="AA205" s="117"/>
-      <c r="AB205" s="118"/>
-      <c r="AC205" s="117"/>
-      <c r="AD205" s="117"/>
-      <c r="AE205" s="117"/>
-      <c r="AF205" s="117"/>
-      <c r="AG205" s="117"/>
-      <c r="AH205" s="117"/>
-      <c r="AI205" s="117"/>
-      <c r="AJ205" s="117"/>
-      <c r="AK205" s="117"/>
-      <c r="AL205" s="117"/>
-      <c r="AM205" s="117"/>
-      <c r="AN205" s="117"/>
-      <c r="AO205" s="117"/>
-      <c r="AP205" s="120"/>
-      <c r="AQ205" s="117"/>
+      <c r="AB205" s="112"/>
+      <c r="AC205" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG205" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH205" s="136">
+        <v>9</v>
+      </c>
+      <c r="AI205" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ205" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP205" s="137">
+        <f>AP203*AH205%</f>
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="115"/>
       <c r="AR205" s="113"/>
     </row>
     <row r="206" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E206" s="112"/>
+      <c r="F206" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J206" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K206" s="136">
+        <v>9</v>
+      </c>
+      <c r="L206" s="107" t="s">
+        <v>40</v>
+      </c>
       <c r="M206" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="S206" s="137">
+        <f>S204*K206%</f>
+        <v>0</v>
+      </c>
+      <c r="T206" s="115"/>
+      <c r="U206" s="113"/>
+      <c r="AA206" s="112"/>
+      <c r="AG206" s="136"/>
+      <c r="AJ206" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP206" s="148">
+        <f>AP203+AP205</f>
+        <v>0</v>
+      </c>
+      <c r="AQ206" s="115"/>
+      <c r="AR206" s="113"/>
+    </row>
+    <row r="207" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D207" s="112"/>
+      <c r="J207" s="136"/>
+      <c r="M207" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S207" s="148">
+        <f>S204+S206</f>
+        <v>0</v>
+      </c>
+      <c r="T207" s="115"/>
+      <c r="U207" s="113"/>
+      <c r="AB207" s="112"/>
+      <c r="AJ207" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="S206" s="151">
-        <v>36.69</v>
-      </c>
-      <c r="T206" s="110"/>
-      <c r="U206" s="113"/>
-      <c r="Y206" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z206" s="117"/>
-      <c r="AA206" s="117"/>
-      <c r="AB206" s="118"/>
-      <c r="AC206" s="117"/>
-      <c r="AD206" s="117"/>
-      <c r="AE206" s="117"/>
-      <c r="AF206" s="117"/>
-      <c r="AG206" s="117"/>
-      <c r="AH206" s="117"/>
-      <c r="AI206" s="117"/>
-      <c r="AJ206" s="117"/>
-      <c r="AK206" s="117"/>
-      <c r="AL206" s="117"/>
-      <c r="AM206" s="117"/>
-      <c r="AN206" s="117"/>
-      <c r="AO206" s="117"/>
-      <c r="AP206" s="120"/>
-      <c r="AQ206" s="117"/>
-      <c r="AR206" s="113"/>
-    </row>
-    <row r="207" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E207" s="112"/>
-      <c r="M207" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S207" s="132"/>
-      <c r="T207" s="133">
-        <f>SUM(S205:S206)</f>
-        <v>36.69</v>
-      </c>
-      <c r="U207" s="113"/>
-      <c r="Y207" s="117"/>
-      <c r="Z207" s="117"/>
-      <c r="AA207" s="117"/>
-      <c r="AB207" s="118"/>
-      <c r="AC207" s="117"/>
-      <c r="AD207" s="117"/>
-      <c r="AE207" s="117"/>
-      <c r="AF207" s="117"/>
-      <c r="AG207" s="160" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH207" s="160"/>
-      <c r="AI207" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ207" s="161"/>
-      <c r="AK207" s="161"/>
-      <c r="AL207" s="161"/>
-      <c r="AM207" s="161"/>
-      <c r="AN207" s="62"/>
-      <c r="AO207" s="62"/>
-      <c r="AP207" s="140"/>
-      <c r="AQ207" s="62"/>
+      <c r="AP207" s="147">
+        <v>7.49</v>
+      </c>
+      <c r="AQ207" s="110"/>
       <c r="AR207" s="113"/>
     </row>
     <row r="208" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C208" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D208" s="43"/>
-      <c r="E208" s="44"/>
-      <c r="F208" s="43"/>
-      <c r="G208" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="H208" s="150"/>
-      <c r="I208" s="43"/>
+      <c r="E208" s="112"/>
+      <c r="M208" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="S208" s="151">
+        <v>49.64</v>
+      </c>
       <c r="T208" s="110"/>
       <c r="U208" s="113"/>
       <c r="AB208" s="112"/>
-      <c r="AG208" s="114"/>
-      <c r="AH208" s="114"/>
-      <c r="AN208" s="43"/>
-      <c r="AO208" s="43"/>
-      <c r="AP208" s="143"/>
-      <c r="AQ208" s="43"/>
+      <c r="AJ208" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP208" s="132"/>
+      <c r="AQ208" s="133">
+        <f>SUM(AP206:AP207)</f>
+        <v>7.49</v>
+      </c>
       <c r="AR208" s="113"/>
     </row>
     <row r="209" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C209" s="107" t="s">
-        <v>170</v>
-      </c>
-      <c r="D209" s="107" t="s">
-        <v>25</v>
-      </c>
       <c r="E209" s="112"/>
-      <c r="T209" s="110"/>
+      <c r="M209" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S209" s="132"/>
+      <c r="T209" s="133">
+        <f>SUM(S207:S208)</f>
+        <v>49.64</v>
+      </c>
       <c r="U209" s="113"/>
-      <c r="AB209" s="112"/>
-      <c r="AG209" s="114"/>
-      <c r="AH209" s="114"/>
-      <c r="AN209" s="43"/>
-      <c r="AO209" s="43"/>
-      <c r="AP209" s="143"/>
-      <c r="AQ209" s="43"/>
+      <c r="Y209" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z209" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA209" s="43"/>
+      <c r="AB209" s="44"/>
+      <c r="AC209" s="43"/>
+      <c r="AD209" s="43"/>
+      <c r="AE209" s="43"/>
+      <c r="AF209" s="43"/>
+      <c r="AG209" s="62"/>
+      <c r="AQ209" s="110"/>
       <c r="AR209" s="113"/>
     </row>
     <row r="210" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D210" s="115">
-        <f>D192</f>
-        <v>0</v>
-      </c>
-      <c r="E210" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F210" s="112">
-        <v>6</v>
-      </c>
-      <c r="G210" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H210" s="129">
-        <f>D210/F210</f>
-        <v>0</v>
-      </c>
-      <c r="I210" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J210" s="130">
-        <v>6</v>
-      </c>
-      <c r="K210" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="L210" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="S210" s="110">
-        <f>D210/F210*J210</f>
-        <v>0</v>
-      </c>
+      <c r="C210" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D210" s="43"/>
+      <c r="E210" s="44"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H210" s="150"/>
+      <c r="I210" s="43"/>
+      <c r="T210" s="110"/>
       <c r="U210" s="113"/>
       <c r="Y210" s="43"/>
       <c r="Z210" s="43"/>
@@ -9476,14 +9873,14 @@
       <c r="AR210" s="113"/>
     </row>
     <row r="211" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C211" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="D211" s="107" t="s">
+        <v>25</v>
+      </c>
       <c r="E211" s="112"/>
-      <c r="M211" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S211" s="131">
-        <f>S210</f>
-        <v>0</v>
-      </c>
+      <c r="T211" s="110"/>
       <c r="U211" s="113"/>
       <c r="Y211" s="43"/>
       <c r="Z211" s="43"/>
@@ -9498,271 +9895,373 @@
       <c r="AR211" s="113"/>
     </row>
     <row r="212" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C212" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="D212" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E212" s="112"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
-      <c r="I212" s="43"/>
-      <c r="J212" s="43"/>
-      <c r="K212" s="43"/>
-      <c r="L212" s="43"/>
-      <c r="T212" s="115"/>
+      <c r="D212" s="115">
+        <f>D203</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="112">
+        <v>6</v>
+      </c>
+      <c r="G212" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H212" s="129">
+        <f>D212/F212</f>
+        <v>0</v>
+      </c>
+      <c r="I212" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J212" s="130">
+        <v>6</v>
+      </c>
+      <c r="K212" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L212" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="S212" s="110">
+        <f>D212/F212*J212</f>
+        <v>0</v>
+      </c>
       <c r="U212" s="113"/>
-      <c r="Y212" s="43"/>
-      <c r="Z212" s="43"/>
-      <c r="AA212" s="43"/>
-      <c r="AB212" s="44"/>
-      <c r="AC212" s="43"/>
-      <c r="AD212" s="43"/>
-      <c r="AE212" s="43"/>
-      <c r="AF212" s="43"/>
-      <c r="AG212" s="62"/>
-      <c r="AQ212" s="110"/>
+      <c r="Y212" s="117"/>
+      <c r="Z212" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA212" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB212" s="118"/>
+      <c r="AC212" s="117"/>
+      <c r="AD212" s="117"/>
+      <c r="AE212" s="117"/>
+      <c r="AF212" s="117"/>
+      <c r="AG212" s="117"/>
+      <c r="AH212" s="117"/>
+      <c r="AI212" s="117"/>
+      <c r="AJ212" s="62"/>
+      <c r="AK212" s="117"/>
+      <c r="AL212" s="117"/>
+      <c r="AM212" s="117"/>
+      <c r="AN212" s="117"/>
+      <c r="AO212" s="117"/>
+      <c r="AP212" s="117"/>
+      <c r="AQ212" s="141"/>
       <c r="AR212" s="113"/>
     </row>
     <row r="213" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E213" s="112"/>
-      <c r="F213" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J213" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K213" s="136">
-        <v>9</v>
-      </c>
-      <c r="L213" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M213" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S213" s="137">
-        <f>S211*K213%</f>
+        <v>46</v>
+      </c>
+      <c r="S213" s="131">
+        <f>S212</f>
         <v>0</v>
       </c>
-      <c r="T213" s="115"/>
       <c r="U213" s="113"/>
-      <c r="Y213" s="43"/>
-      <c r="Z213" s="43"/>
-      <c r="AA213" s="43"/>
-      <c r="AB213" s="44"/>
-      <c r="AC213" s="43"/>
-      <c r="AD213" s="43"/>
-      <c r="AE213" s="43"/>
-      <c r="AF213" s="43"/>
-      <c r="AG213" s="62"/>
-      <c r="AQ213" s="110"/>
+      <c r="Y213" s="117"/>
+      <c r="Z213" s="140"/>
+      <c r="AA213" s="62"/>
+      <c r="AB213" s="118"/>
+      <c r="AC213" s="117"/>
+      <c r="AD213" s="117"/>
+      <c r="AE213" s="117"/>
+      <c r="AF213" s="117"/>
+      <c r="AG213" s="117"/>
+      <c r="AH213" s="117"/>
+      <c r="AI213" s="117"/>
+      <c r="AJ213" s="62"/>
+      <c r="AK213" s="117"/>
+      <c r="AL213" s="117"/>
+      <c r="AM213" s="117"/>
+      <c r="AN213" s="117"/>
+      <c r="AO213" s="117"/>
+      <c r="AP213" s="117"/>
+      <c r="AQ213" s="141"/>
       <c r="AR213" s="113"/>
     </row>
     <row r="214" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D214" s="112"/>
-      <c r="J214" s="136"/>
-      <c r="M214" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S214" s="148">
-        <f>S211+S213</f>
-        <v>0</v>
-      </c>
+      <c r="C214" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D214" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" s="112"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="43"/>
+      <c r="L214" s="43"/>
       <c r="T214" s="115"/>
       <c r="U214" s="113"/>
-      <c r="Y214" s="43"/>
-      <c r="Z214" s="43"/>
-      <c r="AA214" s="43"/>
-      <c r="AB214" s="44"/>
-      <c r="AC214" s="43"/>
-      <c r="AD214" s="43"/>
-      <c r="AE214" s="43"/>
-      <c r="AF214" s="43"/>
-      <c r="AG214" s="62"/>
-      <c r="AQ214" s="110"/>
+      <c r="Y214" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z214" s="154"/>
+      <c r="AA214" s="154"/>
+      <c r="AB214" s="154"/>
+      <c r="AC214" s="154"/>
+      <c r="AD214" s="117" t="str">
+        <f>AG87</f>
+        <v>ST KDOSH GROUP S.A.C.</v>
+      </c>
+      <c r="AE214" s="117"/>
+      <c r="AF214" s="117"/>
+      <c r="AG214" s="117"/>
+      <c r="AH214" s="117"/>
+      <c r="AI214" s="117"/>
+      <c r="AJ214" s="117"/>
+      <c r="AK214" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL214" s="117"/>
+      <c r="AM214" s="117"/>
+      <c r="AN214" s="155" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO214" s="155"/>
+      <c r="AP214" s="117"/>
+      <c r="AQ214" s="117"/>
       <c r="AR214" s="113"/>
     </row>
     <row r="215" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E215" s="112"/>
+      <c r="F215" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J215" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K215" s="136">
+        <v>9</v>
+      </c>
+      <c r="L215" s="107" t="s">
+        <v>40</v>
+      </c>
       <c r="M215" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="S215" s="137">
+        <f>S213*K215%</f>
+        <v>0</v>
+      </c>
+      <c r="T215" s="115"/>
+      <c r="U215" s="113"/>
+      <c r="Y215" s="117" t="str">
+        <f>AA212</f>
+        <v>Tres Mil Ciento Quince con 74/100 soles</v>
+      </c>
+      <c r="Z215" s="117"/>
+      <c r="AA215" s="117"/>
+      <c r="AB215" s="118"/>
+      <c r="AC215" s="117"/>
+      <c r="AD215" s="117"/>
+      <c r="AE215" s="117"/>
+      <c r="AF215" s="117"/>
+      <c r="AG215" s="117"/>
+      <c r="AH215" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI215" s="117"/>
+      <c r="AJ215" s="117"/>
+      <c r="AK215" s="117"/>
+      <c r="AL215" s="117"/>
+      <c r="AM215" s="117"/>
+      <c r="AN215" s="117"/>
+      <c r="AO215" s="117"/>
+      <c r="AP215" s="120"/>
+      <c r="AQ215" s="117"/>
+      <c r="AR215" s="113"/>
+    </row>
+    <row r="216" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D216" s="112"/>
+      <c r="J216" s="136"/>
+      <c r="M216" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S216" s="148">
+        <f>S213+S215</f>
+        <v>0</v>
+      </c>
+      <c r="T216" s="115"/>
+      <c r="U216" s="113"/>
+      <c r="Y216" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z216" s="117"/>
+      <c r="AA216" s="117"/>
+      <c r="AB216" s="118"/>
+      <c r="AC216" s="117"/>
+      <c r="AD216" s="117"/>
+      <c r="AE216" s="117"/>
+      <c r="AF216" s="117"/>
+      <c r="AG216" s="117"/>
+      <c r="AH216" s="117"/>
+      <c r="AI216" s="117"/>
+      <c r="AJ216" s="117"/>
+      <c r="AK216" s="117"/>
+      <c r="AL216" s="117"/>
+      <c r="AM216" s="117"/>
+      <c r="AN216" s="117"/>
+      <c r="AO216" s="117"/>
+      <c r="AP216" s="120"/>
+      <c r="AQ216" s="117"/>
+      <c r="AR216" s="113"/>
+    </row>
+    <row r="217" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E217" s="112"/>
+      <c r="M217" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="S215" s="151">
-        <v>26.53</v>
-      </c>
-      <c r="T215" s="110"/>
-      <c r="U215" s="113"/>
-      <c r="Y215" s="43"/>
-      <c r="Z215" s="43"/>
-      <c r="AA215" s="43"/>
-      <c r="AB215" s="44"/>
-      <c r="AC215" s="43"/>
-      <c r="AD215" s="43"/>
-      <c r="AE215" s="43"/>
-      <c r="AF215" s="43"/>
-      <c r="AG215" s="62"/>
-      <c r="AQ215" s="110"/>
-      <c r="AR215" s="113"/>
-    </row>
-    <row r="216" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E216" s="112"/>
-      <c r="M216" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S216" s="132"/>
-      <c r="T216" s="133">
-        <f>SUM(S214:S215)</f>
-        <v>26.53</v>
-      </c>
-      <c r="U216" s="113"/>
-      <c r="Y216" s="43"/>
-      <c r="Z216" s="43"/>
-      <c r="AA216" s="43"/>
-      <c r="AB216" s="44"/>
-      <c r="AC216" s="43"/>
-      <c r="AD216" s="43"/>
-      <c r="AE216" s="43"/>
-      <c r="AF216" s="43"/>
-      <c r="AG216" s="62"/>
-      <c r="AQ216" s="110"/>
-      <c r="AR216" s="113"/>
-    </row>
-    <row r="217" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C217" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D217" s="43"/>
-      <c r="E217" s="44"/>
-      <c r="F217" s="43"/>
-      <c r="G217" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="H217" s="150"/>
-      <c r="I217" s="43"/>
+      <c r="S217" s="151">
+        <v>36.69</v>
+      </c>
       <c r="T217" s="110"/>
       <c r="U217" s="113"/>
-      <c r="Y217" s="43"/>
-      <c r="Z217" s="43"/>
-      <c r="AA217" s="43"/>
-      <c r="AB217" s="44"/>
-      <c r="AC217" s="43"/>
-      <c r="AD217" s="43"/>
-      <c r="AE217" s="43"/>
-      <c r="AF217" s="43"/>
-      <c r="AG217" s="62"/>
-      <c r="AQ217" s="110"/>
+      <c r="Y217" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z217" s="117"/>
+      <c r="AA217" s="117"/>
+      <c r="AB217" s="118"/>
+      <c r="AC217" s="117"/>
+      <c r="AD217" s="117"/>
+      <c r="AE217" s="117"/>
+      <c r="AF217" s="117"/>
+      <c r="AG217" s="117"/>
+      <c r="AH217" s="117"/>
+      <c r="AI217" s="117"/>
+      <c r="AJ217" s="117"/>
+      <c r="AK217" s="117"/>
+      <c r="AL217" s="117"/>
+      <c r="AM217" s="117"/>
+      <c r="AN217" s="117"/>
+      <c r="AO217" s="117"/>
+      <c r="AP217" s="120"/>
+      <c r="AQ217" s="117"/>
       <c r="AR217" s="113"/>
     </row>
     <row r="218" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C218" s="107" t="s">
-        <v>172</v>
-      </c>
-      <c r="D218" s="107" t="s">
+      <c r="E218" s="112"/>
+      <c r="M218" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S218" s="132"/>
+      <c r="T218" s="133">
+        <f>SUM(S216:S217)</f>
+        <v>36.69</v>
+      </c>
+      <c r="U218" s="113"/>
+      <c r="Y218" s="117"/>
+      <c r="Z218" s="117"/>
+      <c r="AA218" s="117"/>
+      <c r="AB218" s="118"/>
+      <c r="AC218" s="117"/>
+      <c r="AD218" s="117"/>
+      <c r="AE218" s="117"/>
+      <c r="AF218" s="117"/>
+      <c r="AG218" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH218" s="160"/>
+      <c r="AI218" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ218" s="161"/>
+      <c r="AK218" s="161"/>
+      <c r="AL218" s="161"/>
+      <c r="AM218" s="161"/>
+      <c r="AN218" s="62"/>
+      <c r="AO218" s="62"/>
+      <c r="AP218" s="140"/>
+      <c r="AQ218" s="62"/>
+      <c r="AR218" s="113"/>
+    </row>
+    <row r="219" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C219" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D219" s="43"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="H219" s="150"/>
+      <c r="I219" s="43"/>
+      <c r="T219" s="110"/>
+      <c r="U219" s="113"/>
+      <c r="AB219" s="112"/>
+      <c r="AG219" s="114"/>
+      <c r="AH219" s="114"/>
+      <c r="AN219" s="43"/>
+      <c r="AO219" s="43"/>
+      <c r="AP219" s="143"/>
+      <c r="AQ219" s="43"/>
+      <c r="AR219" s="113"/>
+    </row>
+    <row r="220" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C220" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D220" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E218" s="112"/>
-      <c r="T218" s="110"/>
-      <c r="U218" s="113"/>
-      <c r="Y218" s="43"/>
-      <c r="Z218" s="43"/>
-      <c r="AA218" s="43"/>
-      <c r="AB218" s="44"/>
-      <c r="AC218" s="43"/>
-      <c r="AD218" s="43"/>
-      <c r="AE218" s="43"/>
-      <c r="AF218" s="43"/>
-      <c r="AG218" s="62"/>
-      <c r="AQ218" s="110"/>
-      <c r="AR218" s="113"/>
-    </row>
-    <row r="219" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D219" s="115">
-        <f>D210</f>
+      <c r="E220" s="112"/>
+      <c r="T220" s="110"/>
+      <c r="U220" s="113"/>
+      <c r="AB220" s="112"/>
+      <c r="AG220" s="114"/>
+      <c r="AH220" s="114"/>
+      <c r="AN220" s="43"/>
+      <c r="AO220" s="43"/>
+      <c r="AP220" s="143"/>
+      <c r="AQ220" s="43"/>
+      <c r="AR220" s="113"/>
+    </row>
+    <row r="221" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D221" s="115">
+        <f>D203</f>
         <v>0</v>
       </c>
-      <c r="E219" s="107" t="s">
+      <c r="E221" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="F219" s="112">
+      <c r="F221" s="112">
         <v>6</v>
       </c>
-      <c r="G219" s="107" t="s">
+      <c r="G221" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="H219" s="129">
-        <f>D219/F219</f>
+      <c r="H221" s="129">
+        <f>D221/F221</f>
         <v>0</v>
       </c>
-      <c r="I219" s="107" t="s">
+      <c r="I221" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J219" s="130">
+      <c r="J221" s="130">
         <v>6</v>
       </c>
-      <c r="K219" s="107" t="s">
+      <c r="K221" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L219" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="S219" s="110">
-        <f>D219/F219*J219</f>
+      <c r="L221" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="S221" s="110">
+        <f>D221/F221*J221</f>
         <v>0</v>
       </c>
-      <c r="U219" s="113"/>
-      <c r="Y219" s="43"/>
-      <c r="Z219" s="43"/>
-      <c r="AA219" s="43"/>
-      <c r="AB219" s="44"/>
-      <c r="AC219" s="43"/>
-      <c r="AD219" s="43"/>
-      <c r="AE219" s="43"/>
-      <c r="AF219" s="43"/>
-      <c r="AG219" s="62"/>
-      <c r="AQ219" s="110"/>
-      <c r="AR219" s="113"/>
-    </row>
-    <row r="220" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E220" s="112"/>
-      <c r="M220" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S220" s="131">
-        <f>S219</f>
-        <v>0</v>
-      </c>
-      <c r="U220" s="113"/>
-      <c r="Y220" s="43"/>
-      <c r="Z220" s="43"/>
-      <c r="AA220" s="43"/>
-      <c r="AB220" s="44"/>
-      <c r="AC220" s="43"/>
-      <c r="AD220" s="43"/>
-      <c r="AE220" s="43"/>
-      <c r="AF220" s="43"/>
-      <c r="AG220" s="62"/>
-      <c r="AQ220" s="110"/>
-      <c r="AR220" s="113"/>
-    </row>
-    <row r="221" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C221" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="D221" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="E221" s="112"/>
-      <c r="F221" s="43"/>
-      <c r="G221" s="43"/>
-      <c r="H221" s="43"/>
-      <c r="I221" s="43"/>
-      <c r="J221" s="43"/>
-      <c r="K221" s="43"/>
-      <c r="L221" s="43"/>
-      <c r="T221" s="115"/>
       <c r="U221" s="113"/>
       <c r="Y221" s="43"/>
       <c r="Z221" s="43"/>
@@ -9778,26 +10277,13 @@
     </row>
     <row r="222" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E222" s="112"/>
-      <c r="F222" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J222" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="K222" s="136">
-        <v>9</v>
-      </c>
-      <c r="L222" s="107" t="s">
-        <v>40</v>
-      </c>
       <c r="M222" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S222" s="137">
-        <f>S220*K222%</f>
+        <v>46</v>
+      </c>
+      <c r="S222" s="131">
+        <f>S221</f>
         <v>0</v>
       </c>
-      <c r="T222" s="115"/>
       <c r="U222" s="113"/>
       <c r="Y222" s="43"/>
       <c r="Z222" s="43"/>
@@ -9812,15 +10298,20 @@
       <c r="AR222" s="113"/>
     </row>
     <row r="223" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D223" s="112"/>
-      <c r="J223" s="136"/>
-      <c r="M223" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S223" s="148">
-        <f>S220+S222</f>
-        <v>0</v>
-      </c>
+      <c r="C223" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D223" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E223" s="112"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="43"/>
+      <c r="H223" s="43"/>
+      <c r="I223" s="43"/>
+      <c r="J223" s="43"/>
+      <c r="K223" s="43"/>
+      <c r="L223" s="43"/>
       <c r="T223" s="115"/>
       <c r="U223" s="113"/>
       <c r="Y223" s="43"/>
@@ -9837,13 +10328,26 @@
     </row>
     <row r="224" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E224" s="112"/>
+      <c r="F224" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J224" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K224" s="136">
+        <v>9</v>
+      </c>
+      <c r="L224" s="107" t="s">
+        <v>40</v>
+      </c>
       <c r="M224" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="S224" s="151">
-        <v>14.97</v>
-      </c>
-      <c r="T224" s="110"/>
+        <v>51</v>
+      </c>
+      <c r="S224" s="137">
+        <f>S222*K224%</f>
+        <v>0</v>
+      </c>
+      <c r="T224" s="115"/>
       <c r="U224" s="113"/>
       <c r="Y224" s="43"/>
       <c r="Z224" s="43"/>
@@ -9857,16 +10361,17 @@
       <c r="AQ224" s="110"/>
       <c r="AR224" s="113"/>
     </row>
-    <row r="225" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E225" s="112"/>
+    <row r="225" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D225" s="112"/>
+      <c r="J225" s="136"/>
       <c r="M225" s="107" t="s">
-        <v>141</v>
-      </c>
-      <c r="S225" s="132"/>
-      <c r="T225" s="133">
-        <f>SUM(S223:S224)</f>
-        <v>14.97</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="S225" s="148">
+        <f>S222+S224</f>
+        <v>0</v>
+      </c>
+      <c r="T225" s="115"/>
       <c r="U225" s="113"/>
       <c r="Y225" s="43"/>
       <c r="Z225" s="43"/>
@@ -9880,18 +10385,14 @@
       <c r="AQ225" s="110"/>
       <c r="AR225" s="113"/>
     </row>
-    <row r="226" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C226" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D226" s="43"/>
-      <c r="E226" s="44"/>
-      <c r="F226" s="43"/>
-      <c r="G226" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H226" s="150"/>
-      <c r="I226" s="43"/>
+    <row r="226" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E226" s="112"/>
+      <c r="M226" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="S226" s="151">
+        <v>26.53</v>
+      </c>
       <c r="T226" s="110"/>
       <c r="U226" s="113"/>
       <c r="Y226" s="43"/>
@@ -9906,15 +10407,16 @@
       <c r="AQ226" s="110"/>
       <c r="AR226" s="113"/>
     </row>
-    <row r="227" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C227" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D227" s="107" t="s">
-        <v>25</v>
-      </c>
+    <row r="227" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E227" s="112"/>
-      <c r="T227" s="110"/>
+      <c r="M227" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S227" s="132"/>
+      <c r="T227" s="133">
+        <f>SUM(S225:S226)</f>
+        <v>26.53</v>
+      </c>
       <c r="U227" s="113"/>
       <c r="Y227" s="43"/>
       <c r="Z227" s="43"/>
@@ -9928,40 +10430,19 @@
       <c r="AQ227" s="110"/>
       <c r="AR227" s="113"/>
     </row>
-    <row r="228" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D228" s="115">
-        <f>D210</f>
-        <v>0</v>
-      </c>
-      <c r="E228" s="107" t="s">
-        <v>19</v>
-      </c>
-      <c r="F228" s="112">
-        <v>6</v>
-      </c>
-      <c r="G228" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H228" s="129">
-        <f>D228/F228</f>
-        <v>0</v>
-      </c>
-      <c r="I228" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="J228" s="130">
-        <v>6</v>
-      </c>
-      <c r="K228" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="L228" s="107" t="s">
-        <v>144</v>
-      </c>
-      <c r="S228" s="110">
-        <f>D228/F228*J228</f>
-        <v>0</v>
-      </c>
+    <row r="228" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C228" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D228" s="43"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H228" s="150"/>
+      <c r="I228" s="43"/>
+      <c r="T228" s="110"/>
       <c r="U228" s="113"/>
       <c r="Y228" s="43"/>
       <c r="Z228" s="43"/>
@@ -9975,15 +10456,15 @@
       <c r="AQ228" s="110"/>
       <c r="AR228" s="113"/>
     </row>
-    <row r="229" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="229" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C229" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="D229" s="107" t="s">
+        <v>25</v>
+      </c>
       <c r="E229" s="112"/>
-      <c r="M229" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="S229" s="131">
-        <f>S228</f>
-        <v>0</v>
-      </c>
+      <c r="T229" s="110"/>
       <c r="U229" s="113"/>
       <c r="Y229" s="43"/>
       <c r="Z229" s="43"/>
@@ -9997,223 +10478,243 @@
       <c r="AQ229" s="110"/>
       <c r="AR229" s="113"/>
     </row>
-    <row r="230" spans="1:44" s="107" customFormat="1" ht="3" customHeight="1" thickBot="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="45"/>
-      <c r="C230" s="45"/>
-      <c r="D230" s="45"/>
-      <c r="E230" s="45"/>
-      <c r="F230" s="45"/>
-      <c r="G230" s="45"/>
-      <c r="H230" s="45"/>
-      <c r="I230" s="45"/>
-      <c r="J230" s="45"/>
-      <c r="K230" s="45"/>
-      <c r="L230" s="45"/>
-      <c r="M230" s="45"/>
-      <c r="N230" s="45"/>
-      <c r="O230" s="46"/>
-      <c r="P230" s="46"/>
-      <c r="Q230" s="46"/>
-      <c r="R230" s="46"/>
-      <c r="S230" s="46"/>
-      <c r="T230" s="45"/>
-      <c r="U230" s="45"/>
-      <c r="V230" s="1"/>
-    </row>
-    <row r="231" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="158" t="str">
-        <f>B154</f>
-        <v>Jr. San Martin N° 967</v>
-      </c>
-      <c r="C231" s="158"/>
-      <c r="D231" s="158"/>
-      <c r="E231" s="158"/>
-      <c r="F231" s="158"/>
-      <c r="G231" s="158"/>
-      <c r="H231" s="158"/>
-      <c r="I231" s="158"/>
-      <c r="J231" s="158"/>
-      <c r="K231" s="158"/>
-      <c r="L231" s="158"/>
-      <c r="M231" s="158"/>
-      <c r="N231" s="158"/>
-      <c r="O231" s="158"/>
-      <c r="P231" s="158"/>
-      <c r="Q231" s="158"/>
-      <c r="R231" s="158"/>
-      <c r="S231" s="158"/>
-      <c r="T231" s="158"/>
-      <c r="U231" s="158"/>
-      <c r="V231" s="1"/>
-    </row>
-    <row r="232" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A232" s="1"/>
-      <c r="B232" s="158"/>
-      <c r="C232" s="158"/>
-      <c r="D232" s="158"/>
-      <c r="E232" s="158"/>
-      <c r="F232" s="158"/>
-      <c r="G232" s="158"/>
-      <c r="H232" s="158"/>
-      <c r="I232" s="158"/>
-      <c r="J232" s="158"/>
-      <c r="K232" s="158"/>
-      <c r="L232" s="158"/>
-      <c r="M232" s="158"/>
-      <c r="N232" s="158"/>
-      <c r="O232" s="158"/>
-      <c r="P232" s="158"/>
-      <c r="Q232" s="158"/>
-      <c r="R232" s="158"/>
-      <c r="S232" s="158"/>
-      <c r="T232" s="158"/>
-      <c r="U232" s="158"/>
-      <c r="V232" s="1"/>
-    </row>
-    <row r="233" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A233" s="52"/>
-      <c r="B233" s="173" t="s">
-        <v>62</v>
-      </c>
-      <c r="C233" s="173"/>
-      <c r="D233" s="173"/>
-      <c r="E233" s="173"/>
-      <c r="F233" s="173"/>
-      <c r="G233" s="173"/>
-      <c r="H233" s="173"/>
-      <c r="I233" s="173"/>
-      <c r="J233" s="173"/>
-      <c r="K233" s="173"/>
-      <c r="L233" s="173"/>
-      <c r="M233" s="173"/>
-      <c r="N233" s="173"/>
-      <c r="O233" s="173"/>
-      <c r="P233" s="173"/>
-      <c r="Q233" s="173"/>
-      <c r="R233" s="173"/>
-      <c r="S233" s="173"/>
-      <c r="T233" s="173"/>
-      <c r="U233" s="173"/>
-      <c r="V233" s="173"/>
-    </row>
-    <row r="234" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A234" s="52"/>
-      <c r="B234" s="173"/>
-      <c r="C234" s="173"/>
-      <c r="D234" s="173"/>
-      <c r="E234" s="173"/>
-      <c r="F234" s="173"/>
-      <c r="G234" s="173"/>
-      <c r="H234" s="173"/>
-      <c r="I234" s="173"/>
-      <c r="J234" s="173"/>
-      <c r="K234" s="173"/>
-      <c r="L234" s="173"/>
-      <c r="M234" s="173"/>
-      <c r="N234" s="173"/>
-      <c r="O234" s="173"/>
-      <c r="P234" s="173"/>
-      <c r="Q234" s="173"/>
-      <c r="R234" s="173"/>
-      <c r="S234" s="173"/>
-      <c r="T234" s="173"/>
-      <c r="U234" s="173"/>
-      <c r="V234" s="173"/>
-    </row>
-    <row r="235" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A235" s="52"/>
-      <c r="B235" s="173" t="s">
-        <v>63</v>
-      </c>
-      <c r="C235" s="173"/>
-      <c r="D235" s="173"/>
-      <c r="E235" s="173"/>
-      <c r="F235" s="173"/>
-      <c r="G235" s="173"/>
-      <c r="H235" s="173"/>
-      <c r="I235" s="173"/>
-      <c r="J235" s="173"/>
-      <c r="K235" s="173"/>
-      <c r="L235" s="173"/>
-      <c r="M235" s="173"/>
-      <c r="N235" s="173"/>
-      <c r="O235" s="173"/>
-      <c r="P235" s="173"/>
-      <c r="Q235" s="173"/>
-      <c r="R235" s="173"/>
-      <c r="S235" s="173"/>
-      <c r="T235" s="173"/>
-      <c r="U235" s="173"/>
-      <c r="V235" s="173"/>
-    </row>
-    <row r="236" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A236" s="52"/>
-      <c r="B236" s="173"/>
-      <c r="C236" s="173"/>
-      <c r="D236" s="173"/>
-      <c r="E236" s="173"/>
-      <c r="F236" s="173"/>
-      <c r="G236" s="173"/>
-      <c r="H236" s="173"/>
-      <c r="I236" s="173"/>
-      <c r="J236" s="173"/>
-      <c r="K236" s="173"/>
-      <c r="L236" s="173"/>
-      <c r="M236" s="173"/>
-      <c r="N236" s="173"/>
-      <c r="O236" s="173"/>
-      <c r="P236" s="173"/>
-      <c r="Q236" s="173"/>
-      <c r="R236" s="173"/>
-      <c r="S236" s="173"/>
-      <c r="T236" s="173"/>
-      <c r="U236" s="173"/>
-      <c r="V236" s="173"/>
-    </row>
-    <row r="237" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A237" s="52"/>
-      <c r="B237" s="162" t="s">
-        <v>64</v>
-      </c>
-      <c r="C237" s="162"/>
-      <c r="D237" s="162"/>
-      <c r="E237" s="162"/>
-      <c r="F237" s="162"/>
-      <c r="G237" s="162"/>
-      <c r="H237" s="162"/>
-      <c r="I237" s="162"/>
-      <c r="J237" s="162"/>
-      <c r="K237" s="162"/>
-      <c r="L237" s="162"/>
-      <c r="M237" s="162"/>
-      <c r="N237" s="162"/>
-      <c r="O237" s="162"/>
-      <c r="P237" s="162"/>
-      <c r="Q237" s="162"/>
-      <c r="R237" s="162"/>
-      <c r="S237" s="162"/>
-      <c r="T237" s="162"/>
-      <c r="U237" s="53"/>
-      <c r="V237" s="52"/>
-    </row>
-    <row r="238" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="230" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D230" s="115">
+        <f>D221</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="112">
+        <v>6</v>
+      </c>
+      <c r="G230" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H230" s="129">
+        <f>D230/F230</f>
+        <v>0</v>
+      </c>
+      <c r="I230" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="J230" s="130">
+        <v>6</v>
+      </c>
+      <c r="K230" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L230" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="S230" s="110">
+        <f>D230/F230*J230</f>
+        <v>0</v>
+      </c>
+      <c r="U230" s="113"/>
+      <c r="Y230" s="43"/>
+      <c r="Z230" s="43"/>
+      <c r="AA230" s="43"/>
+      <c r="AB230" s="44"/>
+      <c r="AC230" s="43"/>
+      <c r="AD230" s="43"/>
+      <c r="AE230" s="43"/>
+      <c r="AF230" s="43"/>
+      <c r="AG230" s="62"/>
+      <c r="AQ230" s="110"/>
+      <c r="AR230" s="113"/>
+    </row>
+    <row r="231" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E231" s="112"/>
+      <c r="M231" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="S231" s="131">
+        <f>S230</f>
+        <v>0</v>
+      </c>
+      <c r="U231" s="113"/>
+      <c r="Y231" s="43"/>
+      <c r="Z231" s="43"/>
+      <c r="AA231" s="43"/>
+      <c r="AB231" s="44"/>
+      <c r="AC231" s="43"/>
+      <c r="AD231" s="43"/>
+      <c r="AE231" s="43"/>
+      <c r="AF231" s="43"/>
+      <c r="AG231" s="62"/>
+      <c r="AQ231" s="110"/>
+      <c r="AR231" s="113"/>
+    </row>
+    <row r="232" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C232" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="D232" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E232" s="112"/>
+      <c r="F232" s="43"/>
+      <c r="G232" s="43"/>
+      <c r="H232" s="43"/>
+      <c r="I232" s="43"/>
+      <c r="J232" s="43"/>
+      <c r="K232" s="43"/>
+      <c r="L232" s="43"/>
+      <c r="T232" s="115"/>
+      <c r="U232" s="113"/>
+      <c r="Y232" s="43"/>
+      <c r="Z232" s="43"/>
+      <c r="AA232" s="43"/>
+      <c r="AB232" s="44"/>
+      <c r="AC232" s="43"/>
+      <c r="AD232" s="43"/>
+      <c r="AE232" s="43"/>
+      <c r="AF232" s="43"/>
+      <c r="AG232" s="62"/>
+      <c r="AQ232" s="110"/>
+      <c r="AR232" s="113"/>
+    </row>
+    <row r="233" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E233" s="112"/>
+      <c r="F233" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J233" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K233" s="136">
+        <v>9</v>
+      </c>
+      <c r="L233" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="M233" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="S233" s="137">
+        <f>S231*K233%</f>
+        <v>0</v>
+      </c>
+      <c r="T233" s="115"/>
+      <c r="U233" s="113"/>
+      <c r="Y233" s="43"/>
+      <c r="Z233" s="43"/>
+      <c r="AA233" s="43"/>
+      <c r="AB233" s="44"/>
+      <c r="AC233" s="43"/>
+      <c r="AD233" s="43"/>
+      <c r="AE233" s="43"/>
+      <c r="AF233" s="43"/>
+      <c r="AG233" s="62"/>
+      <c r="AQ233" s="110"/>
+      <c r="AR233" s="113"/>
+    </row>
+    <row r="234" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D234" s="112"/>
+      <c r="J234" s="136"/>
+      <c r="M234" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S234" s="148">
+        <f>S231+S233</f>
+        <v>0</v>
+      </c>
+      <c r="T234" s="115"/>
+      <c r="U234" s="113"/>
+      <c r="Y234" s="43"/>
+      <c r="Z234" s="43"/>
+      <c r="AA234" s="43"/>
+      <c r="AB234" s="44"/>
+      <c r="AC234" s="43"/>
+      <c r="AD234" s="43"/>
+      <c r="AE234" s="43"/>
+      <c r="AF234" s="43"/>
+      <c r="AG234" s="62"/>
+      <c r="AQ234" s="110"/>
+      <c r="AR234" s="113"/>
+    </row>
+    <row r="235" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E235" s="112"/>
+      <c r="M235" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="S235" s="151">
+        <v>14.97</v>
+      </c>
+      <c r="T235" s="110"/>
+      <c r="U235" s="113"/>
+      <c r="Y235" s="43"/>
+      <c r="Z235" s="43"/>
+      <c r="AA235" s="43"/>
+      <c r="AB235" s="44"/>
+      <c r="AC235" s="43"/>
+      <c r="AD235" s="43"/>
+      <c r="AE235" s="43"/>
+      <c r="AF235" s="43"/>
+      <c r="AG235" s="62"/>
+      <c r="AQ235" s="110"/>
+      <c r="AR235" s="113"/>
+    </row>
+    <row r="236" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E236" s="112"/>
+      <c r="M236" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="S236" s="132"/>
+      <c r="T236" s="133">
+        <f>SUM(S234:S235)</f>
+        <v>14.97</v>
+      </c>
+      <c r="U236" s="113"/>
+      <c r="Y236" s="43"/>
+      <c r="Z236" s="43"/>
+      <c r="AA236" s="43"/>
+      <c r="AB236" s="44"/>
+      <c r="AC236" s="43"/>
+      <c r="AD236" s="43"/>
+      <c r="AE236" s="43"/>
+      <c r="AF236" s="43"/>
+      <c r="AG236" s="62"/>
+      <c r="AQ236" s="110"/>
+      <c r="AR236" s="113"/>
+    </row>
+    <row r="237" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C237" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" s="43"/>
+      <c r="E237" s="44"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H237" s="150"/>
+      <c r="I237" s="43"/>
+      <c r="T237" s="110"/>
+      <c r="U237" s="113"/>
+      <c r="Y237" s="43"/>
+      <c r="Z237" s="43"/>
+      <c r="AA237" s="43"/>
+      <c r="AB237" s="44"/>
+      <c r="AC237" s="43"/>
+      <c r="AD237" s="43"/>
+      <c r="AE237" s="43"/>
+      <c r="AF237" s="43"/>
+      <c r="AG237" s="62"/>
+      <c r="AQ237" s="110"/>
+      <c r="AR237" s="113"/>
+    </row>
+    <row r="238" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="C238" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="D238" s="135" t="s">
-        <v>48</v>
+        <v>174</v>
+      </c>
+      <c r="D238" s="107" t="s">
+        <v>25</v>
       </c>
       <c r="E238" s="112"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="43"/>
-      <c r="H238" s="43"/>
-      <c r="I238" s="43"/>
-      <c r="J238" s="43"/>
-      <c r="K238" s="43"/>
-      <c r="L238" s="43"/>
-      <c r="T238" s="115"/>
+      <c r="T238" s="110"/>
       <c r="U238" s="113"/>
       <c r="Y238" s="43"/>
       <c r="Z238" s="43"/>
@@ -10227,28 +10728,40 @@
       <c r="AQ238" s="110"/>
       <c r="AR238" s="113"/>
     </row>
-    <row r="239" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E239" s="112"/>
-      <c r="F239" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J239" s="107" t="s">
+    <row r="239" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D239" s="115">
+        <f>D221</f>
+        <v>0</v>
+      </c>
+      <c r="E239" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="112">
+        <v>6</v>
+      </c>
+      <c r="G239" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H239" s="129">
+        <f>D239/F239</f>
+        <v>0</v>
+      </c>
+      <c r="I239" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K239" s="136">
-        <v>9</v>
+      <c r="J239" s="130">
+        <v>6</v>
+      </c>
+      <c r="K239" s="107" t="s">
+        <v>29</v>
       </c>
       <c r="L239" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="M239" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="S239" s="137">
-        <f>S229*K239%</f>
+        <v>144</v>
+      </c>
+      <c r="S239" s="110">
+        <f>D239/F239*J239</f>
         <v>0</v>
       </c>
-      <c r="T239" s="115"/>
       <c r="U239" s="113"/>
       <c r="Y239" s="43"/>
       <c r="Z239" s="43"/>
@@ -10262,17 +10775,15 @@
       <c r="AQ239" s="110"/>
       <c r="AR239" s="113"/>
     </row>
-    <row r="240" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D240" s="112"/>
-      <c r="J240" s="136"/>
+    <row r="240" spans="3:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E240" s="112"/>
       <c r="M240" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="S240" s="148">
-        <f>S229+S239</f>
+        <v>46</v>
+      </c>
+      <c r="S240" s="131">
+        <f>S239</f>
         <v>0</v>
       </c>
-      <c r="T240" s="115"/>
       <c r="U240" s="113"/>
       <c r="Y240" s="43"/>
       <c r="Z240" s="43"/>
@@ -10286,830 +10797,821 @@
       <c r="AQ240" s="110"/>
       <c r="AR240" s="113"/>
     </row>
-    <row r="241" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E241" s="112"/>
-      <c r="M241" s="107" t="s">
+    <row r="241" spans="1:44" s="107" customFormat="1" ht="3" customHeight="1" thickBot="1">
+      <c r="A241" s="1"/>
+      <c r="B241" s="45"/>
+      <c r="C241" s="45"/>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
+      <c r="G241" s="45"/>
+      <c r="H241" s="45"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+      <c r="K241" s="45"/>
+      <c r="L241" s="45"/>
+      <c r="M241" s="45"/>
+      <c r="N241" s="45"/>
+      <c r="O241" s="46"/>
+      <c r="P241" s="46"/>
+      <c r="Q241" s="46"/>
+      <c r="R241" s="46"/>
+      <c r="S241" s="46"/>
+      <c r="T241" s="45"/>
+      <c r="U241" s="45"/>
+      <c r="V241" s="1"/>
+    </row>
+    <row r="242" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1" thickTop="1">
+      <c r="A242" s="1"/>
+      <c r="B242" s="158" t="str">
+        <f>B165</f>
+        <v>Jr. San Martin N° 967</v>
+      </c>
+      <c r="C242" s="158"/>
+      <c r="D242" s="158"/>
+      <c r="E242" s="158"/>
+      <c r="F242" s="158"/>
+      <c r="G242" s="158"/>
+      <c r="H242" s="158"/>
+      <c r="I242" s="158"/>
+      <c r="J242" s="158"/>
+      <c r="K242" s="158"/>
+      <c r="L242" s="158"/>
+      <c r="M242" s="158"/>
+      <c r="N242" s="158"/>
+      <c r="O242" s="158"/>
+      <c r="P242" s="158"/>
+      <c r="Q242" s="158"/>
+      <c r="R242" s="158"/>
+      <c r="S242" s="158"/>
+      <c r="T242" s="158"/>
+      <c r="U242" s="158"/>
+      <c r="V242" s="1"/>
+    </row>
+    <row r="243" spans="1:44" s="107" customFormat="1" ht="7.5" customHeight="1">
+      <c r="A243" s="1"/>
+      <c r="B243" s="158"/>
+      <c r="C243" s="158"/>
+      <c r="D243" s="158"/>
+      <c r="E243" s="158"/>
+      <c r="F243" s="158"/>
+      <c r="G243" s="158"/>
+      <c r="H243" s="158"/>
+      <c r="I243" s="158"/>
+      <c r="J243" s="158"/>
+      <c r="K243" s="158"/>
+      <c r="L243" s="158"/>
+      <c r="M243" s="158"/>
+      <c r="N243" s="158"/>
+      <c r="O243" s="158"/>
+      <c r="P243" s="158"/>
+      <c r="Q243" s="158"/>
+      <c r="R243" s="158"/>
+      <c r="S243" s="158"/>
+      <c r="T243" s="158"/>
+      <c r="U243" s="158"/>
+      <c r="V243" s="1"/>
+    </row>
+    <row r="244" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A244" s="52"/>
+      <c r="B244" s="173" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" s="173"/>
+      <c r="D244" s="173"/>
+      <c r="E244" s="173"/>
+      <c r="F244" s="173"/>
+      <c r="G244" s="173"/>
+      <c r="H244" s="173"/>
+      <c r="I244" s="173"/>
+      <c r="J244" s="173"/>
+      <c r="K244" s="173"/>
+      <c r="L244" s="173"/>
+      <c r="M244" s="173"/>
+      <c r="N244" s="173"/>
+      <c r="O244" s="173"/>
+      <c r="P244" s="173"/>
+      <c r="Q244" s="173"/>
+      <c r="R244" s="173"/>
+      <c r="S244" s="173"/>
+      <c r="T244" s="173"/>
+      <c r="U244" s="173"/>
+      <c r="V244" s="173"/>
+    </row>
+    <row r="245" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A245" s="52"/>
+      <c r="B245" s="173"/>
+      <c r="C245" s="173"/>
+      <c r="D245" s="173"/>
+      <c r="E245" s="173"/>
+      <c r="F245" s="173"/>
+      <c r="G245" s="173"/>
+      <c r="H245" s="173"/>
+      <c r="I245" s="173"/>
+      <c r="J245" s="173"/>
+      <c r="K245" s="173"/>
+      <c r="L245" s="173"/>
+      <c r="M245" s="173"/>
+      <c r="N245" s="173"/>
+      <c r="O245" s="173"/>
+      <c r="P245" s="173"/>
+      <c r="Q245" s="173"/>
+      <c r="R245" s="173"/>
+      <c r="S245" s="173"/>
+      <c r="T245" s="173"/>
+      <c r="U245" s="173"/>
+      <c r="V245" s="173"/>
+    </row>
+    <row r="246" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A246" s="52"/>
+      <c r="B246" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C246" s="173"/>
+      <c r="D246" s="173"/>
+      <c r="E246" s="173"/>
+      <c r="F246" s="173"/>
+      <c r="G246" s="173"/>
+      <c r="H246" s="173"/>
+      <c r="I246" s="173"/>
+      <c r="J246" s="173"/>
+      <c r="K246" s="173"/>
+      <c r="L246" s="173"/>
+      <c r="M246" s="173"/>
+      <c r="N246" s="173"/>
+      <c r="O246" s="173"/>
+      <c r="P246" s="173"/>
+      <c r="Q246" s="173"/>
+      <c r="R246" s="173"/>
+      <c r="S246" s="173"/>
+      <c r="T246" s="173"/>
+      <c r="U246" s="173"/>
+      <c r="V246" s="173"/>
+    </row>
+    <row r="247" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A247" s="52"/>
+      <c r="B247" s="173"/>
+      <c r="C247" s="173"/>
+      <c r="D247" s="173"/>
+      <c r="E247" s="173"/>
+      <c r="F247" s="173"/>
+      <c r="G247" s="173"/>
+      <c r="H247" s="173"/>
+      <c r="I247" s="173"/>
+      <c r="J247" s="173"/>
+      <c r="K247" s="173"/>
+      <c r="L247" s="173"/>
+      <c r="M247" s="173"/>
+      <c r="N247" s="173"/>
+      <c r="O247" s="173"/>
+      <c r="P247" s="173"/>
+      <c r="Q247" s="173"/>
+      <c r="R247" s="173"/>
+      <c r="S247" s="173"/>
+      <c r="T247" s="173"/>
+      <c r="U247" s="173"/>
+      <c r="V247" s="173"/>
+    </row>
+    <row r="248" spans="1:44" s="107" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A248" s="52"/>
+      <c r="B248" s="162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C248" s="162"/>
+      <c r="D248" s="162"/>
+      <c r="E248" s="162"/>
+      <c r="F248" s="162"/>
+      <c r="G248" s="162"/>
+      <c r="H248" s="162"/>
+      <c r="I248" s="162"/>
+      <c r="J248" s="162"/>
+      <c r="K248" s="162"/>
+      <c r="L248" s="162"/>
+      <c r="M248" s="162"/>
+      <c r="N248" s="162"/>
+      <c r="O248" s="162"/>
+      <c r="P248" s="162"/>
+      <c r="Q248" s="162"/>
+      <c r="R248" s="162"/>
+      <c r="S248" s="162"/>
+      <c r="T248" s="162"/>
+      <c r="U248" s="53"/>
+      <c r="V248" s="52"/>
+    </row>
+    <row r="249" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C249" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="D249" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E249" s="112"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="43"/>
+      <c r="H249" s="43"/>
+      <c r="I249" s="43"/>
+      <c r="J249" s="43"/>
+      <c r="K249" s="43"/>
+      <c r="L249" s="43"/>
+      <c r="T249" s="115"/>
+      <c r="U249" s="113"/>
+      <c r="Y249" s="43"/>
+      <c r="Z249" s="43"/>
+      <c r="AA249" s="43"/>
+      <c r="AB249" s="44"/>
+      <c r="AC249" s="43"/>
+      <c r="AD249" s="43"/>
+      <c r="AE249" s="43"/>
+      <c r="AF249" s="43"/>
+      <c r="AG249" s="62"/>
+      <c r="AQ249" s="110"/>
+      <c r="AR249" s="113"/>
+    </row>
+    <row r="250" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E250" s="112"/>
+      <c r="F250" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J250" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="K250" s="136">
+        <v>9</v>
+      </c>
+      <c r="L250" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="M250" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="S250" s="137">
+        <f>S240*K250%</f>
+        <v>0</v>
+      </c>
+      <c r="T250" s="115"/>
+      <c r="U250" s="113"/>
+      <c r="Y250" s="43"/>
+      <c r="Z250" s="43"/>
+      <c r="AA250" s="43"/>
+      <c r="AB250" s="44"/>
+      <c r="AC250" s="43"/>
+      <c r="AD250" s="43"/>
+      <c r="AE250" s="43"/>
+      <c r="AF250" s="43"/>
+      <c r="AG250" s="62"/>
+      <c r="AQ250" s="110"/>
+      <c r="AR250" s="113"/>
+    </row>
+    <row r="251" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D251" s="112"/>
+      <c r="J251" s="136"/>
+      <c r="M251" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="S251" s="148">
+        <f>S240+S250</f>
+        <v>0</v>
+      </c>
+      <c r="T251" s="115"/>
+      <c r="U251" s="113"/>
+      <c r="Y251" s="43"/>
+      <c r="Z251" s="43"/>
+      <c r="AA251" s="43"/>
+      <c r="AB251" s="44"/>
+      <c r="AC251" s="43"/>
+      <c r="AD251" s="43"/>
+      <c r="AE251" s="43"/>
+      <c r="AF251" s="43"/>
+      <c r="AG251" s="62"/>
+      <c r="AQ251" s="110"/>
+      <c r="AR251" s="113"/>
+    </row>
+    <row r="252" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E252" s="112"/>
+      <c r="M252" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="S241" s="151">
+      <c r="S252" s="151">
         <v>8.3800000000000008</v>
       </c>
-      <c r="T241" s="110"/>
-      <c r="U241" s="113"/>
-      <c r="AR241" s="113"/>
-    </row>
-    <row r="242" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A242" s="107"/>
-      <c r="B242" s="107"/>
-      <c r="C242" s="107"/>
-      <c r="D242" s="107"/>
-      <c r="E242" s="112"/>
-      <c r="F242" s="107"/>
-      <c r="G242" s="107"/>
-      <c r="H242" s="107"/>
-      <c r="I242" s="107"/>
-      <c r="J242" s="107"/>
-      <c r="K242" s="107"/>
-      <c r="L242" s="107"/>
-      <c r="M242" s="107" t="s">
+      <c r="T252" s="110"/>
+      <c r="U252" s="113"/>
+      <c r="AR252" s="113"/>
+    </row>
+    <row r="253" spans="1:44" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A253" s="107"/>
+      <c r="B253" s="107"/>
+      <c r="C253" s="107"/>
+      <c r="D253" s="107"/>
+      <c r="E253" s="112"/>
+      <c r="F253" s="107"/>
+      <c r="G253" s="107"/>
+      <c r="H253" s="107"/>
+      <c r="I253" s="107"/>
+      <c r="J253" s="107"/>
+      <c r="K253" s="107"/>
+      <c r="L253" s="107"/>
+      <c r="M253" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="N242" s="107"/>
-      <c r="O242" s="107"/>
-      <c r="P242" s="107"/>
-      <c r="Q242" s="107"/>
-      <c r="R242" s="107"/>
-      <c r="S242" s="132"/>
-      <c r="T242" s="133">
-        <f>SUM(S240:S241)</f>
+      <c r="N253" s="107"/>
+      <c r="O253" s="107"/>
+      <c r="P253" s="107"/>
+      <c r="Q253" s="107"/>
+      <c r="R253" s="107"/>
+      <c r="S253" s="132"/>
+      <c r="T253" s="133">
+        <f>SUM(S251:S252)</f>
         <v>8.3800000000000008</v>
       </c>
-      <c r="U242" s="113"/>
-      <c r="V242" s="107"/>
-      <c r="W242" s="107"/>
-      <c r="X242" s="107"/>
-      <c r="AR242" s="122"/>
-    </row>
-    <row r="243" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A243" s="107"/>
-      <c r="B243" s="107"/>
-      <c r="C243" s="107"/>
-      <c r="D243" s="107"/>
-      <c r="E243" s="112"/>
-      <c r="F243" s="107"/>
-      <c r="G243" s="107"/>
-      <c r="H243" s="107"/>
-      <c r="I243" s="107"/>
-      <c r="J243" s="107"/>
-      <c r="K243" s="107"/>
-      <c r="L243" s="107"/>
-      <c r="M243" s="43" t="s">
+      <c r="U253" s="113"/>
+      <c r="V253" s="107"/>
+      <c r="W253" s="107"/>
+      <c r="X253" s="107"/>
+      <c r="AR253" s="122"/>
+    </row>
+    <row r="254" spans="1:44" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A254" s="107"/>
+      <c r="B254" s="107"/>
+      <c r="C254" s="107"/>
+      <c r="D254" s="107"/>
+      <c r="E254" s="112"/>
+      <c r="F254" s="107"/>
+      <c r="G254" s="107"/>
+      <c r="H254" s="107"/>
+      <c r="I254" s="107"/>
+      <c r="J254" s="107"/>
+      <c r="K254" s="107"/>
+      <c r="L254" s="107"/>
+      <c r="M254" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="N243" s="107"/>
-      <c r="O243" s="107"/>
-      <c r="P243" s="107"/>
-      <c r="Q243" s="107"/>
-      <c r="R243" s="107"/>
-      <c r="S243" s="107"/>
-      <c r="T243" s="109"/>
-      <c r="U243" s="109">
-        <f>T171+T180+T189+T198+T207+T216+T225+T242</f>
+      <c r="N254" s="107"/>
+      <c r="O254" s="107"/>
+      <c r="P254" s="107"/>
+      <c r="Q254" s="107"/>
+      <c r="R254" s="107"/>
+      <c r="S254" s="107"/>
+      <c r="T254" s="109"/>
+      <c r="U254" s="109">
+        <f>T182+T191+T200+T209+T218+T227+T236+T253</f>
         <v>294.77</v>
       </c>
-      <c r="V243" s="107"/>
-      <c r="W243" s="107"/>
-      <c r="X243" s="107"/>
-      <c r="AR243" s="122"/>
-    </row>
-    <row r="244" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A244" s="107"/>
-      <c r="B244" s="43" t="s">
+      <c r="V254" s="107"/>
+      <c r="W254" s="107"/>
+      <c r="X254" s="107"/>
+      <c r="AR254" s="122"/>
+    </row>
+    <row r="255" spans="1:44" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A255" s="107"/>
+      <c r="B255" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C244" s="43" t="s">
+      <c r="C255" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D244" s="43"/>
-      <c r="E244" s="44"/>
-      <c r="F244" s="43"/>
-      <c r="G244" s="43"/>
-      <c r="H244" s="43"/>
-      <c r="I244" s="43"/>
-      <c r="J244" s="62"/>
-      <c r="K244" s="107"/>
-      <c r="L244" s="107"/>
-      <c r="W244" s="107"/>
-      <c r="X244" s="107"/>
-      <c r="AR244" s="122"/>
-    </row>
-    <row r="245" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A245" s="107"/>
-      <c r="B245" s="107"/>
-      <c r="C245" s="107" t="s">
+      <c r="D255" s="43"/>
+      <c r="E255" s="44"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="43"/>
+      <c r="H255" s="43"/>
+      <c r="I255" s="43"/>
+      <c r="J255" s="62"/>
+      <c r="K255" s="107"/>
+      <c r="L255" s="107"/>
+      <c r="W255" s="107"/>
+      <c r="X255" s="107"/>
+      <c r="AR255" s="122"/>
+    </row>
+    <row r="256" spans="1:44" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A256" s="107"/>
+      <c r="B256" s="107"/>
+      <c r="C256" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="D245" s="107" t="s">
+      <c r="D256" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E245" s="112"/>
-      <c r="F245" s="107"/>
-      <c r="G245" s="107"/>
-      <c r="H245" s="43" t="s">
+      <c r="E256" s="112"/>
+      <c r="F256" s="107"/>
+      <c r="G256" s="107"/>
+      <c r="H256" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I245" s="107"/>
-      <c r="J245" s="62"/>
-      <c r="K245" s="107"/>
-      <c r="L245" s="107"/>
-      <c r="M245" s="107"/>
-      <c r="N245" s="107"/>
-      <c r="O245" s="107"/>
-      <c r="P245" s="107"/>
-      <c r="Q245" s="107"/>
-      <c r="R245" s="107"/>
-      <c r="S245" s="107"/>
-      <c r="T245" s="110"/>
-      <c r="U245" s="113"/>
-      <c r="V245" s="107"/>
-      <c r="W245" s="107"/>
-      <c r="X245" s="107"/>
-      <c r="AR245" s="142"/>
-    </row>
-    <row r="246" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A246" s="107"/>
-      <c r="B246" s="138"/>
-      <c r="C246" s="107"/>
-      <c r="D246" s="115">
+      <c r="I256" s="107"/>
+      <c r="J256" s="62"/>
+      <c r="K256" s="107"/>
+      <c r="L256" s="107"/>
+      <c r="M256" s="107"/>
+      <c r="N256" s="107"/>
+      <c r="O256" s="107"/>
+      <c r="P256" s="107"/>
+      <c r="Q256" s="107"/>
+      <c r="R256" s="107"/>
+      <c r="S256" s="107"/>
+      <c r="T256" s="110"/>
+      <c r="U256" s="113"/>
+      <c r="V256" s="107"/>
+      <c r="W256" s="107"/>
+      <c r="X256" s="107"/>
+      <c r="AR256" s="142"/>
+    </row>
+    <row r="257" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A257" s="107"/>
+      <c r="B257" s="138"/>
+      <c r="C257" s="107"/>
+      <c r="D257" s="115">
         <f>K100*1/2</f>
         <v>0</v>
       </c>
-      <c r="E246" s="138" t="s">
+      <c r="E257" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F246" s="112">
+      <c r="F257" s="112">
         <v>12</v>
       </c>
-      <c r="G246" s="138" t="s">
+      <c r="G257" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H246" s="129">
-        <f>D246/F246</f>
+      <c r="H257" s="129">
+        <f>D257/F257</f>
         <v>0</v>
       </c>
-      <c r="I246" s="107" t="s">
+      <c r="I257" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J246" s="130">
+      <c r="J257" s="130">
         <v>12</v>
       </c>
-      <c r="K246" s="107" t="s">
+      <c r="K257" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L246" s="107" t="s">
+      <c r="L257" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="M246" s="107"/>
-      <c r="N246" s="107"/>
-      <c r="O246" s="107"/>
-      <c r="P246" s="107"/>
-      <c r="Q246" s="107"/>
-      <c r="R246" s="107"/>
-      <c r="S246" s="134">
-        <f>H246*J246</f>
+      <c r="M257" s="107"/>
+      <c r="N257" s="107"/>
+      <c r="O257" s="107"/>
+      <c r="P257" s="107"/>
+      <c r="Q257" s="107"/>
+      <c r="R257" s="107"/>
+      <c r="S257" s="134">
+        <f>H257*J257</f>
         <v>0</v>
       </c>
-      <c r="T246" s="107"/>
-      <c r="U246" s="113"/>
-      <c r="V246" s="107"/>
-      <c r="W246" s="107"/>
-      <c r="X246" s="107"/>
-      <c r="AR246" s="121"/>
-      <c r="AS246" s="122"/>
-    </row>
-    <row r="247" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A247" s="107"/>
-      <c r="B247" s="107"/>
-      <c r="C247" s="107"/>
-      <c r="D247" s="107"/>
-      <c r="E247" s="112"/>
-      <c r="F247" s="107"/>
-      <c r="G247" s="107"/>
-      <c r="H247" s="107"/>
-      <c r="I247" s="107"/>
-      <c r="J247" s="107"/>
-      <c r="K247" s="107"/>
-      <c r="L247" s="107"/>
-      <c r="M247" s="107" t="s">
+      <c r="T257" s="107"/>
+      <c r="U257" s="113"/>
+      <c r="V257" s="107"/>
+      <c r="W257" s="107"/>
+      <c r="X257" s="107"/>
+      <c r="AR257" s="121"/>
+      <c r="AS257" s="122"/>
+    </row>
+    <row r="258" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A258" s="107"/>
+      <c r="B258" s="107"/>
+      <c r="C258" s="107"/>
+      <c r="D258" s="107"/>
+      <c r="E258" s="112"/>
+      <c r="F258" s="107"/>
+      <c r="G258" s="107"/>
+      <c r="H258" s="107"/>
+      <c r="I258" s="107"/>
+      <c r="J258" s="107"/>
+      <c r="K258" s="107"/>
+      <c r="L258" s="107"/>
+      <c r="M258" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="N247" s="107"/>
-      <c r="O247" s="107"/>
-      <c r="P247" s="107"/>
-      <c r="Q247" s="107"/>
-      <c r="R247" s="107"/>
-      <c r="S247" s="147">
-        <f>SUM(S246:S246)</f>
+      <c r="N258" s="107"/>
+      <c r="O258" s="107"/>
+      <c r="P258" s="107"/>
+      <c r="Q258" s="107"/>
+      <c r="R258" s="107"/>
+      <c r="S258" s="147">
+        <f>SUM(S257:S257)</f>
         <v>0</v>
       </c>
-      <c r="T247" s="107"/>
-      <c r="U247" s="113"/>
-      <c r="V247" s="107"/>
-      <c r="W247" s="107"/>
-      <c r="X247" s="107"/>
-      <c r="AR247" s="121"/>
-      <c r="AS247" s="122"/>
-    </row>
-    <row r="248" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A248" s="107"/>
-      <c r="B248" s="107"/>
-      <c r="C248" s="107"/>
-      <c r="D248" s="107"/>
-      <c r="E248" s="112"/>
-      <c r="F248" s="107"/>
-      <c r="G248" s="107"/>
-      <c r="H248" s="107"/>
-      <c r="I248" s="107"/>
-      <c r="J248" s="107"/>
-      <c r="K248" s="107"/>
-      <c r="L248" s="107"/>
-      <c r="M248" s="107" t="s">
+      <c r="T258" s="107"/>
+      <c r="U258" s="113"/>
+      <c r="V258" s="107"/>
+      <c r="W258" s="107"/>
+      <c r="X258" s="107"/>
+      <c r="AR258" s="121"/>
+      <c r="AS258" s="122"/>
+    </row>
+    <row r="259" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A259" s="107"/>
+      <c r="B259" s="107"/>
+      <c r="C259" s="107"/>
+      <c r="D259" s="107"/>
+      <c r="E259" s="112"/>
+      <c r="F259" s="107"/>
+      <c r="G259" s="107"/>
+      <c r="H259" s="107"/>
+      <c r="I259" s="107"/>
+      <c r="J259" s="107"/>
+      <c r="K259" s="107"/>
+      <c r="L259" s="107"/>
+      <c r="M259" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="N248" s="107"/>
-      <c r="O248" s="107"/>
-      <c r="P248" s="107"/>
-      <c r="Q248" s="107"/>
-      <c r="R248" s="107"/>
-      <c r="S248" s="149">
+      <c r="N259" s="107"/>
+      <c r="O259" s="107"/>
+      <c r="P259" s="107"/>
+      <c r="Q259" s="107"/>
+      <c r="R259" s="107"/>
+      <c r="S259" s="149">
         <v>53.91</v>
       </c>
-      <c r="T248" s="110"/>
-      <c r="U248" s="113"/>
-      <c r="V248" s="107"/>
-      <c r="W248" s="107"/>
-      <c r="X248" s="107"/>
-      <c r="AR248" s="121"/>
-      <c r="AS248" s="122"/>
-    </row>
-    <row r="249" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A249" s="107"/>
-      <c r="B249" s="107"/>
-      <c r="C249" s="107"/>
-      <c r="D249" s="107"/>
-      <c r="E249" s="112"/>
-      <c r="F249" s="107"/>
-      <c r="G249" s="107"/>
-      <c r="H249" s="107"/>
-      <c r="I249" s="107"/>
-      <c r="J249" s="107"/>
-      <c r="K249" s="107"/>
-      <c r="L249" s="107"/>
-      <c r="M249" s="107" t="s">
+      <c r="T259" s="110"/>
+      <c r="U259" s="113"/>
+      <c r="V259" s="107"/>
+      <c r="W259" s="107"/>
+      <c r="X259" s="107"/>
+      <c r="AR259" s="121"/>
+      <c r="AS259" s="122"/>
+    </row>
+    <row r="260" spans="1:45" s="117" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A260" s="107"/>
+      <c r="B260" s="107"/>
+      <c r="C260" s="107"/>
+      <c r="D260" s="107"/>
+      <c r="E260" s="112"/>
+      <c r="F260" s="107"/>
+      <c r="G260" s="107"/>
+      <c r="H260" s="107"/>
+      <c r="I260" s="107"/>
+      <c r="J260" s="107"/>
+      <c r="K260" s="107"/>
+      <c r="L260" s="107"/>
+      <c r="M260" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="N249" s="107"/>
-      <c r="O249" s="107"/>
-      <c r="P249" s="107"/>
-      <c r="Q249" s="107"/>
-      <c r="R249" s="107"/>
-      <c r="S249" s="132"/>
-      <c r="T249" s="133">
-        <f>SUM(S247:S248)</f>
+      <c r="N260" s="107"/>
+      <c r="O260" s="107"/>
+      <c r="P260" s="107"/>
+      <c r="Q260" s="107"/>
+      <c r="R260" s="107"/>
+      <c r="S260" s="132"/>
+      <c r="T260" s="133">
+        <f>SUM(S258:S259)</f>
         <v>53.91</v>
       </c>
-      <c r="U249" s="113"/>
-      <c r="V249" s="107"/>
-      <c r="W249" s="107"/>
-      <c r="X249" s="107"/>
-      <c r="AR249" s="122"/>
-    </row>
-    <row r="250" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="B250" s="117"/>
-      <c r="C250" s="107" t="s">
+      <c r="U260" s="113"/>
+      <c r="V260" s="107"/>
+      <c r="W260" s="107"/>
+      <c r="X260" s="107"/>
+      <c r="AR260" s="122"/>
+    </row>
+    <row r="261" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B261" s="117"/>
+      <c r="C261" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="D250" s="107" t="s">
+      <c r="D261" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E250" s="112"/>
-      <c r="H250" s="43" t="s">
+      <c r="E261" s="112"/>
+      <c r="H261" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="J250" s="62"/>
-      <c r="T250" s="110"/>
-      <c r="U250" s="113"/>
-      <c r="AR250" s="113"/>
-    </row>
-    <row r="251" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D251" s="115">
-        <f>D246</f>
+      <c r="J261" s="62"/>
+      <c r="T261" s="110"/>
+      <c r="U261" s="113"/>
+      <c r="AR261" s="113"/>
+    </row>
+    <row r="262" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D262" s="115">
+        <f>D257</f>
         <v>0</v>
       </c>
-      <c r="E251" s="138" t="s">
+      <c r="E262" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F251" s="112">
+      <c r="F262" s="112">
         <v>12</v>
       </c>
-      <c r="G251" s="138" t="s">
+      <c r="G262" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H251" s="129">
-        <f>D251/F251</f>
+      <c r="H262" s="129">
+        <f>D262/F262</f>
         <v>0</v>
       </c>
-      <c r="I251" s="107" t="s">
+      <c r="I262" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J251" s="130">
+      <c r="J262" s="130">
         <v>12</v>
       </c>
-      <c r="K251" s="107" t="s">
+      <c r="K262" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L251" s="107" t="s">
+      <c r="L262" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="S251" s="134">
-        <f>H251*J251</f>
+      <c r="S262" s="134">
+        <f>H262*J262</f>
         <v>0</v>
       </c>
-      <c r="U251" s="113"/>
-      <c r="AR251" s="113"/>
-    </row>
-    <row r="252" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E252" s="112"/>
-      <c r="M252" s="107" t="s">
+      <c r="U262" s="113"/>
+      <c r="AR262" s="113"/>
+    </row>
+    <row r="263" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E263" s="112"/>
+      <c r="M263" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="S252" s="147">
-        <f>SUM(S251:S251)</f>
+      <c r="S263" s="147">
+        <f>SUM(S262:S262)</f>
         <v>0</v>
       </c>
-      <c r="U252" s="113"/>
-      <c r="AB252" s="112"/>
-      <c r="AG252" s="114"/>
-      <c r="AH252" s="114"/>
-      <c r="AN252" s="43"/>
-      <c r="AO252" s="43"/>
-      <c r="AP252" s="143"/>
-      <c r="AQ252" s="43"/>
-      <c r="AR252" s="113"/>
-    </row>
-    <row r="253" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E253" s="112"/>
-      <c r="M253" s="107" t="s">
+      <c r="U263" s="113"/>
+      <c r="AB263" s="112"/>
+      <c r="AG263" s="114"/>
+      <c r="AH263" s="114"/>
+      <c r="AN263" s="43"/>
+      <c r="AO263" s="43"/>
+      <c r="AP263" s="143"/>
+      <c r="AQ263" s="43"/>
+      <c r="AR263" s="113"/>
+    </row>
+    <row r="264" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E264" s="112"/>
+      <c r="M264" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="S253" s="149">
+      <c r="S264" s="149">
         <v>40.89</v>
       </c>
-      <c r="T253" s="110"/>
-      <c r="U253" s="113"/>
-      <c r="AB253" s="112"/>
-      <c r="AG253" s="114"/>
-      <c r="AH253" s="114"/>
-      <c r="AN253" s="43"/>
-      <c r="AO253" s="43"/>
-      <c r="AP253" s="143"/>
-      <c r="AQ253" s="43"/>
-      <c r="AR253" s="113"/>
-    </row>
-    <row r="254" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E254" s="112"/>
-      <c r="M254" s="107" t="s">
+      <c r="T264" s="110"/>
+      <c r="U264" s="113"/>
+      <c r="AB264" s="112"/>
+      <c r="AG264" s="114"/>
+      <c r="AH264" s="114"/>
+      <c r="AN264" s="43"/>
+      <c r="AO264" s="43"/>
+      <c r="AP264" s="143"/>
+      <c r="AQ264" s="43"/>
+      <c r="AR264" s="113"/>
+    </row>
+    <row r="265" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E265" s="112"/>
+      <c r="M265" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="S254" s="132"/>
-      <c r="T254" s="133">
-        <f>SUM(S252:S253)</f>
+      <c r="S265" s="132"/>
+      <c r="T265" s="133">
+        <f>SUM(S263:S264)</f>
         <v>40.89</v>
       </c>
-      <c r="U254" s="113"/>
-      <c r="AB254" s="112"/>
-      <c r="AG254" s="114"/>
-      <c r="AH254" s="114"/>
-      <c r="AM254" s="132"/>
-      <c r="AN254" s="145"/>
-      <c r="AO254" s="145"/>
-      <c r="AP254" s="146"/>
-      <c r="AQ254" s="145"/>
-      <c r="AR254" s="113"/>
-    </row>
-    <row r="255" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C255" s="107" t="s">
+      <c r="U265" s="113"/>
+      <c r="AB265" s="112"/>
+      <c r="AG265" s="114"/>
+      <c r="AH265" s="114"/>
+      <c r="AM265" s="132"/>
+      <c r="AN265" s="145"/>
+      <c r="AO265" s="145"/>
+      <c r="AP265" s="146"/>
+      <c r="AQ265" s="145"/>
+      <c r="AR265" s="113"/>
+    </row>
+    <row r="266" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="C266" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="D255" s="107" t="s">
+      <c r="D266" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="E255" s="112"/>
-      <c r="H255" s="43" t="s">
+      <c r="E266" s="112"/>
+      <c r="H266" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="J255" s="62"/>
-      <c r="T255" s="110"/>
-      <c r="U255" s="117"/>
-      <c r="V255" s="117"/>
-      <c r="AB255" s="112"/>
-      <c r="AG255" s="114"/>
-      <c r="AH255" s="114"/>
-      <c r="AL255" s="159" t="str">
+      <c r="J266" s="62"/>
+      <c r="T266" s="110"/>
+      <c r="U266" s="117"/>
+      <c r="V266" s="117"/>
+      <c r="AB266" s="112"/>
+      <c r="AG266" s="114"/>
+      <c r="AH266" s="114"/>
+      <c r="AL266" s="159" t="str">
         <f>AG93</f>
         <v>GARCIA EUGENIO ANHELO REYNALDO</v>
       </c>
-      <c r="AM255" s="159"/>
-      <c r="AN255" s="159"/>
-      <c r="AO255" s="159"/>
-      <c r="AP255" s="159"/>
-      <c r="AQ255" s="159"/>
-      <c r="AR255" s="159"/>
-    </row>
-    <row r="256" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="D256" s="115">
-        <f>D251</f>
+      <c r="AM266" s="159"/>
+      <c r="AN266" s="159"/>
+      <c r="AO266" s="159"/>
+      <c r="AP266" s="159"/>
+      <c r="AQ266" s="159"/>
+      <c r="AR266" s="159"/>
+    </row>
+    <row r="267" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="D267" s="115">
+        <f>D262</f>
         <v>0</v>
       </c>
-      <c r="E256" s="138" t="s">
+      <c r="E267" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="F256" s="112">
+      <c r="F267" s="112">
         <v>12</v>
       </c>
-      <c r="G256" s="138" t="s">
+      <c r="G267" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="H256" s="129">
-        <f>D256/F256</f>
+      <c r="H267" s="129">
+        <f>D267/F267</f>
         <v>0</v>
       </c>
-      <c r="I256" s="107" t="s">
+      <c r="I267" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="J256" s="130">
+      <c r="J267" s="130">
         <v>12</v>
       </c>
-      <c r="K256" s="107" t="s">
+      <c r="K267" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="L256" s="107" t="s">
+      <c r="L267" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="S256" s="134">
-        <f>H256*J256</f>
+      <c r="S267" s="134">
+        <f>H267*J267</f>
         <v>0</v>
       </c>
-      <c r="U256" s="117"/>
-      <c r="V256" s="117"/>
-      <c r="AB256" s="112"/>
-      <c r="AG256" s="114"/>
-      <c r="AH256" s="114"/>
-      <c r="AM256" s="159" t="str">
+      <c r="U267" s="117"/>
+      <c r="V267" s="117"/>
+      <c r="AB267" s="112"/>
+      <c r="AG267" s="114"/>
+      <c r="AH267" s="114"/>
+      <c r="AM267" s="159" t="str">
         <f>AG94</f>
         <v>DNI N° 71881872</v>
       </c>
-      <c r="AN256" s="159"/>
-      <c r="AO256" s="159"/>
-      <c r="AP256" s="159"/>
-      <c r="AQ256" s="159"/>
-      <c r="AR256" s="113"/>
-    </row>
-    <row r="257" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E257" s="112"/>
-      <c r="M257" s="107" t="s">
+      <c r="AN267" s="159"/>
+      <c r="AO267" s="159"/>
+      <c r="AP267" s="159"/>
+      <c r="AQ267" s="159"/>
+      <c r="AR267" s="113"/>
+    </row>
+    <row r="268" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E268" s="112"/>
+      <c r="M268" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="S257" s="147">
-        <f>SUM(S256:S256)</f>
+      <c r="S268" s="147">
+        <f>SUM(S267:S267)</f>
         <v>0</v>
       </c>
-      <c r="U257" s="117"/>
-      <c r="V257" s="117"/>
-      <c r="AB257" s="112"/>
-      <c r="AG257" s="114"/>
-      <c r="AH257" s="114"/>
-      <c r="AM257" s="159" t="s">
+      <c r="U268" s="117"/>
+      <c r="V268" s="117"/>
+      <c r="AB268" s="112"/>
+      <c r="AG268" s="114"/>
+      <c r="AH268" s="114"/>
+      <c r="AM268" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="AN257" s="159"/>
-      <c r="AO257" s="159"/>
-      <c r="AP257" s="159"/>
-      <c r="AQ257" s="159"/>
-    </row>
-    <row r="258" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E258" s="112"/>
-      <c r="M258" s="107" t="s">
+      <c r="AN268" s="159"/>
+      <c r="AO268" s="159"/>
+      <c r="AP268" s="159"/>
+      <c r="AQ268" s="159"/>
+    </row>
+    <row r="269" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E269" s="112"/>
+      <c r="M269" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="S258" s="149">
+      <c r="S269" s="149">
         <v>20.7</v>
       </c>
-      <c r="T258" s="110"/>
-      <c r="U258" s="117"/>
-      <c r="V258" s="117"/>
-      <c r="AB258" s="112"/>
-      <c r="AG258" s="114"/>
-      <c r="AH258" s="114"/>
-      <c r="AN258" s="43"/>
-      <c r="AO258" s="43"/>
-      <c r="AP258" s="143"/>
-      <c r="AQ258" s="43"/>
-      <c r="AR258" s="113"/>
-    </row>
-    <row r="259" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E259" s="112"/>
-      <c r="M259" s="107" t="s">
+      <c r="T269" s="110"/>
+      <c r="U269" s="117"/>
+      <c r="V269" s="117"/>
+      <c r="AB269" s="112"/>
+      <c r="AG269" s="114"/>
+      <c r="AH269" s="114"/>
+      <c r="AN269" s="43"/>
+      <c r="AO269" s="43"/>
+      <c r="AP269" s="143"/>
+      <c r="AQ269" s="43"/>
+      <c r="AR269" s="113"/>
+    </row>
+    <row r="270" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E270" s="112"/>
+      <c r="M270" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="S259" s="132"/>
-      <c r="T259" s="133">
-        <f>SUM(S257:S258)</f>
+      <c r="S270" s="132"/>
+      <c r="T270" s="133">
+        <f>SUM(S268:S269)</f>
         <v>20.7</v>
       </c>
-      <c r="U259" s="117"/>
-      <c r="V259" s="117"/>
-      <c r="Y259" s="107" t="s">
+      <c r="U270" s="117"/>
+      <c r="V270" s="117"/>
+      <c r="Y270" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="AB259" s="112"/>
-      <c r="AM259" s="44"/>
-      <c r="AN259" s="44"/>
-      <c r="AO259" s="44"/>
-      <c r="AP259" s="44"/>
-      <c r="AQ259" s="44"/>
-    </row>
-    <row r="260" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E260" s="112"/>
-      <c r="M260" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="T260" s="109"/>
-      <c r="U260" s="109">
-        <f>T249+T254+T259</f>
-        <v>115.5</v>
-      </c>
-      <c r="V260" s="117"/>
-      <c r="AB260" s="112"/>
-      <c r="AM260" s="44"/>
-      <c r="AN260" s="44"/>
-      <c r="AO260" s="44"/>
-      <c r="AP260" s="44"/>
-      <c r="AQ260" s="44"/>
-    </row>
-    <row r="261" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E261" s="112"/>
-      <c r="T261" s="109"/>
-      <c r="U261" s="117"/>
-      <c r="V261" s="117"/>
-      <c r="AB261" s="112"/>
-      <c r="AM261" s="44"/>
-      <c r="AN261" s="44"/>
-      <c r="AO261" s="44"/>
-      <c r="AP261" s="44"/>
-      <c r="AQ261" s="44"/>
-    </row>
-    <row r="262" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E262" s="112"/>
-      <c r="T262" s="110"/>
-      <c r="U262" s="115"/>
-      <c r="AB262" s="112"/>
-      <c r="AM262" s="44"/>
-      <c r="AN262" s="44"/>
-      <c r="AO262" s="44"/>
-      <c r="AP262" s="44"/>
-      <c r="AQ262" s="44"/>
-    </row>
-    <row r="263" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="E263" s="112"/>
-      <c r="M263" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="U263" s="139">
-        <f>SUM(U104:U262)</f>
-        <v>410.27</v>
-      </c>
-      <c r="AB263" s="112"/>
-      <c r="AM263" s="44"/>
-      <c r="AN263" s="44"/>
-      <c r="AO263" s="44"/>
-      <c r="AP263" s="44"/>
-      <c r="AQ263" s="44"/>
-    </row>
-    <row r="264" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
-      <c r="A264" s="117"/>
-      <c r="B264" s="117"/>
-      <c r="C264" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="D264" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="E264" s="118"/>
-      <c r="F264" s="117"/>
-      <c r="G264" s="117"/>
-      <c r="H264" s="117"/>
-      <c r="I264" s="117"/>
-      <c r="J264" s="117"/>
-      <c r="K264" s="117"/>
-      <c r="L264" s="117"/>
-      <c r="M264" s="62"/>
-      <c r="N264" s="117"/>
-      <c r="O264" s="117"/>
-      <c r="P264" s="117"/>
-      <c r="Q264" s="117"/>
-      <c r="R264" s="117"/>
-      <c r="S264" s="117"/>
-      <c r="T264" s="141"/>
-      <c r="U264" s="122"/>
-      <c r="V264" s="117"/>
-      <c r="AB264" s="112"/>
-      <c r="AM264" s="44"/>
-      <c r="AN264" s="44"/>
-      <c r="AO264" s="44"/>
-      <c r="AP264" s="44"/>
-      <c r="AQ264" s="44"/>
-    </row>
-    <row r="265" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A265" s="117"/>
-      <c r="B265" s="117"/>
-      <c r="C265" s="140"/>
-      <c r="D265" s="62"/>
-      <c r="E265" s="118"/>
-      <c r="F265" s="117"/>
-      <c r="G265" s="117"/>
-      <c r="H265" s="117"/>
-      <c r="I265" s="117"/>
-      <c r="J265" s="117"/>
-      <c r="K265" s="117"/>
-      <c r="L265" s="117"/>
-      <c r="M265" s="62"/>
-      <c r="N265" s="117"/>
-      <c r="O265" s="117"/>
-      <c r="P265" s="117"/>
-      <c r="Q265" s="117"/>
-      <c r="R265" s="117"/>
-      <c r="S265" s="117"/>
-      <c r="T265" s="141"/>
-      <c r="U265" s="122"/>
-      <c r="V265" s="117"/>
-      <c r="AB265" s="112"/>
-      <c r="AM265" s="44"/>
-      <c r="AN265" s="44"/>
-      <c r="AO265" s="44"/>
-      <c r="AP265" s="44"/>
-      <c r="AQ265" s="44"/>
-    </row>
-    <row r="266" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A266" s="117"/>
-      <c r="B266" s="154" t="s">
-        <v>57</v>
-      </c>
-      <c r="C266" s="154"/>
-      <c r="D266" s="154"/>
-      <c r="E266" s="154"/>
-      <c r="F266" s="154"/>
-      <c r="G266" s="117" t="str">
-        <f>J87</f>
-        <v>ST KDOSH GROUP S.A.C.</v>
-      </c>
-      <c r="H266" s="117"/>
-      <c r="I266" s="117"/>
-      <c r="J266" s="117"/>
-      <c r="K266" s="117"/>
-      <c r="L266" s="117"/>
-      <c r="M266" s="117"/>
-      <c r="N266" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="O266" s="117"/>
-      <c r="P266" s="117"/>
-      <c r="Q266" s="155">
-        <f>U263</f>
-        <v>410.27</v>
-      </c>
-      <c r="R266" s="155"/>
-      <c r="S266" s="117"/>
-      <c r="T266" s="117"/>
-      <c r="U266" s="142"/>
-      <c r="V266" s="117"/>
-      <c r="AB266" s="112"/>
-      <c r="AM266" s="44"/>
-      <c r="AN266" s="44"/>
-      <c r="AO266" s="44"/>
-      <c r="AP266" s="44"/>
-      <c r="AQ266" s="44"/>
-    </row>
-    <row r="267" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A267" s="117"/>
-      <c r="B267" s="117" t="str">
-        <f>D264</f>
-        <v>Tres Mil Ciento Quince con 74/100 soles</v>
-      </c>
-      <c r="C267" s="117"/>
-      <c r="D267" s="117"/>
-      <c r="E267" s="118"/>
-      <c r="F267" s="117"/>
-      <c r="G267" s="117"/>
-      <c r="H267" s="117"/>
-      <c r="I267" s="117"/>
-      <c r="J267" s="117"/>
-      <c r="K267" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="L267" s="117"/>
-      <c r="M267" s="117"/>
-      <c r="N267" s="117"/>
-      <c r="O267" s="117"/>
-      <c r="P267" s="117"/>
-      <c r="Q267" s="117"/>
-      <c r="R267" s="117"/>
-      <c r="S267" s="120"/>
-      <c r="T267" s="117"/>
-      <c r="U267" s="121"/>
-      <c r="V267" s="122"/>
-      <c r="W267" s="117"/>
-      <c r="AB267" s="112"/>
-      <c r="AM267" s="44"/>
-      <c r="AN267" s="44"/>
-      <c r="AO267" s="44"/>
-      <c r="AP267" s="44"/>
-      <c r="AQ267" s="44"/>
-    </row>
-    <row r="268" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A268" s="117"/>
-      <c r="B268" s="117" t="s">
-        <v>152</v>
-      </c>
-      <c r="C268" s="117"/>
-      <c r="D268" s="117"/>
-      <c r="E268" s="118"/>
-      <c r="F268" s="117"/>
-      <c r="G268" s="117"/>
-      <c r="H268" s="117"/>
-      <c r="I268" s="117"/>
-      <c r="J268" s="117"/>
-      <c r="K268" s="117"/>
-      <c r="L268" s="117"/>
-      <c r="M268" s="117"/>
-      <c r="N268" s="117"/>
-      <c r="O268" s="117"/>
-      <c r="P268" s="117"/>
-      <c r="Q268" s="117"/>
-      <c r="R268" s="117"/>
-      <c r="S268" s="120"/>
-      <c r="T268" s="117"/>
-      <c r="U268" s="121"/>
-      <c r="V268" s="122"/>
-      <c r="W268" s="117"/>
-      <c r="AB268" s="112"/>
-      <c r="AM268" s="44"/>
-      <c r="AN268" s="44"/>
-      <c r="AO268" s="44"/>
-      <c r="AP268" s="44"/>
-      <c r="AQ268" s="44"/>
-    </row>
-    <row r="269" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A269" s="117"/>
-      <c r="B269" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C269" s="117"/>
-      <c r="D269" s="117"/>
-      <c r="E269" s="118"/>
-      <c r="F269" s="117"/>
-      <c r="G269" s="117"/>
-      <c r="H269" s="117"/>
-      <c r="I269" s="117"/>
-      <c r="J269" s="117"/>
-      <c r="K269" s="117"/>
-      <c r="L269" s="117"/>
-      <c r="M269" s="117"/>
-      <c r="N269" s="117"/>
-      <c r="O269" s="117"/>
-      <c r="P269" s="117"/>
-      <c r="Q269" s="117"/>
-      <c r="R269" s="117"/>
-      <c r="S269" s="120"/>
-      <c r="T269" s="117"/>
-      <c r="U269" s="121"/>
-      <c r="V269" s="122"/>
-      <c r="W269" s="117"/>
-      <c r="AB269" s="112"/>
-      <c r="AM269" s="44"/>
-      <c r="AN269" s="44"/>
-      <c r="AO269" s="44"/>
-      <c r="AP269" s="44"/>
-      <c r="AQ269" s="44"/>
-    </row>
-    <row r="270" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A270" s="117"/>
-      <c r="B270" s="117"/>
-      <c r="C270" s="117"/>
-      <c r="D270" s="117"/>
-      <c r="E270" s="118"/>
-      <c r="F270" s="117"/>
-      <c r="G270" s="117"/>
-      <c r="H270" s="117"/>
-      <c r="I270" s="117"/>
-      <c r="J270" s="160" t="s">
-        <v>54</v>
-      </c>
-      <c r="K270" s="160"/>
-      <c r="L270" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="M270" s="161"/>
-      <c r="N270" s="161"/>
-      <c r="O270" s="161"/>
-      <c r="P270" s="161"/>
-      <c r="Q270" s="62"/>
-      <c r="R270" s="62"/>
-      <c r="S270" s="140"/>
-      <c r="T270" s="62"/>
-      <c r="U270" s="122"/>
-      <c r="V270" s="117"/>
-      <c r="W270" s="117"/>
       <c r="AB270" s="112"/>
       <c r="AM270" s="44"/>
       <c r="AN270" s="44"/>
@@ -11117,16 +11619,17 @@
       <c r="AP270" s="44"/>
       <c r="AQ270" s="44"/>
     </row>
-    <row r="271" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="271" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E271" s="112"/>
-      <c r="J271" s="114"/>
-      <c r="K271" s="114"/>
-      <c r="Q271" s="43"/>
-      <c r="R271" s="43"/>
-      <c r="S271" s="143"/>
-      <c r="T271" s="43"/>
-      <c r="U271" s="113"/>
-      <c r="W271" s="117"/>
+      <c r="M271" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="T271" s="109"/>
+      <c r="U271" s="109">
+        <f>T260+T265+T270</f>
+        <v>115.5</v>
+      </c>
+      <c r="V271" s="117"/>
       <c r="AB271" s="112"/>
       <c r="AM271" s="44"/>
       <c r="AN271" s="44"/>
@@ -11134,16 +11637,11 @@
       <c r="AP271" s="44"/>
       <c r="AQ271" s="44"/>
     </row>
-    <row r="272" spans="1:44" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="272" spans="1:45" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E272" s="112"/>
-      <c r="J272" s="114"/>
-      <c r="K272" s="114"/>
-      <c r="Q272" s="43"/>
-      <c r="R272" s="43"/>
-      <c r="S272" s="143"/>
-      <c r="T272" s="43"/>
-      <c r="U272" s="113"/>
-      <c r="W272" s="117"/>
+      <c r="T272" s="109"/>
+      <c r="U272" s="117"/>
+      <c r="V272" s="117"/>
       <c r="AB272" s="112"/>
       <c r="AM272" s="44"/>
       <c r="AN272" s="44"/>
@@ -11151,16 +11649,10 @@
       <c r="AP272" s="44"/>
       <c r="AQ272" s="44"/>
     </row>
-    <row r="273" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="273" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E273" s="112"/>
-      <c r="J273" s="114"/>
-      <c r="K273" s="114"/>
-      <c r="Q273" s="43"/>
-      <c r="R273" s="43"/>
-      <c r="S273" s="143"/>
-      <c r="T273" s="43"/>
-      <c r="U273" s="113"/>
-      <c r="W273" s="117"/>
+      <c r="T273" s="110"/>
+      <c r="U273" s="115"/>
       <c r="AB273" s="112"/>
       <c r="AM273" s="44"/>
       <c r="AN273" s="44"/>
@@ -11168,15 +11660,15 @@
       <c r="AP273" s="44"/>
       <c r="AQ273" s="44"/>
     </row>
-    <row r="274" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="274" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="E274" s="112"/>
-      <c r="J274" s="114"/>
-      <c r="K274" s="114"/>
-      <c r="Q274" s="43"/>
-      <c r="R274" s="43"/>
-      <c r="S274" s="143"/>
-      <c r="T274" s="43"/>
-      <c r="U274" s="113"/>
+      <c r="M274" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="U274" s="139">
+        <f>SUM(U104:U273)</f>
+        <v>410.27</v>
+      </c>
       <c r="AB274" s="112"/>
       <c r="AM274" s="44"/>
       <c r="AN274" s="44"/>
@@ -11184,16 +11676,33 @@
       <c r="AP274" s="44"/>
       <c r="AQ274" s="44"/>
     </row>
-    <row r="275" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E275" s="112"/>
-      <c r="J275" s="114"/>
-      <c r="K275" s="114"/>
-      <c r="P275" s="132"/>
-      <c r="Q275" s="145"/>
-      <c r="R275" s="145"/>
-      <c r="S275" s="146"/>
-      <c r="T275" s="145"/>
-      <c r="U275" s="113"/>
+    <row r="275" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="A275" s="117"/>
+      <c r="B275" s="117"/>
+      <c r="C275" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E275" s="118"/>
+      <c r="F275" s="117"/>
+      <c r="G275" s="117"/>
+      <c r="H275" s="117"/>
+      <c r="I275" s="117"/>
+      <c r="J275" s="117"/>
+      <c r="K275" s="117"/>
+      <c r="L275" s="117"/>
+      <c r="M275" s="62"/>
+      <c r="N275" s="117"/>
+      <c r="O275" s="117"/>
+      <c r="P275" s="117"/>
+      <c r="Q275" s="117"/>
+      <c r="R275" s="117"/>
+      <c r="S275" s="117"/>
+      <c r="T275" s="141"/>
+      <c r="U275" s="122"/>
+      <c r="V275" s="117"/>
       <c r="AB275" s="112"/>
       <c r="AM275" s="44"/>
       <c r="AN275" s="44"/>
@@ -11201,18 +11710,29 @@
       <c r="AP275" s="44"/>
       <c r="AQ275" s="44"/>
     </row>
-    <row r="276" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E276" s="112"/>
-      <c r="O276" s="159" t="str">
-        <f>J93</f>
-        <v>nombre</v>
-      </c>
-      <c r="P276" s="159"/>
-      <c r="Q276" s="159"/>
-      <c r="R276" s="159"/>
-      <c r="S276" s="159"/>
-      <c r="T276" s="159"/>
-      <c r="U276" s="159"/>
+    <row r="276" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A276" s="117"/>
+      <c r="B276" s="117"/>
+      <c r="C276" s="140"/>
+      <c r="D276" s="62"/>
+      <c r="E276" s="118"/>
+      <c r="F276" s="117"/>
+      <c r="G276" s="117"/>
+      <c r="H276" s="117"/>
+      <c r="I276" s="117"/>
+      <c r="J276" s="117"/>
+      <c r="K276" s="117"/>
+      <c r="L276" s="117"/>
+      <c r="M276" s="62"/>
+      <c r="N276" s="117"/>
+      <c r="O276" s="117"/>
+      <c r="P276" s="117"/>
+      <c r="Q276" s="117"/>
+      <c r="R276" s="117"/>
+      <c r="S276" s="117"/>
+      <c r="T276" s="141"/>
+      <c r="U276" s="122"/>
+      <c r="V276" s="117"/>
       <c r="AB276" s="112"/>
       <c r="AM276" s="44"/>
       <c r="AN276" s="44"/>
@@ -11220,17 +11740,39 @@
       <c r="AP276" s="44"/>
       <c r="AQ276" s="44"/>
     </row>
-    <row r="277" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E277" s="112"/>
-      <c r="P277" s="159" t="str">
-        <f>J94</f>
-        <v>dni</v>
-      </c>
-      <c r="Q277" s="159"/>
-      <c r="R277" s="159"/>
-      <c r="S277" s="159"/>
-      <c r="T277" s="159"/>
-      <c r="U277" s="113"/>
+    <row r="277" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A277" s="117"/>
+      <c r="B277" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="C277" s="154"/>
+      <c r="D277" s="154"/>
+      <c r="E277" s="154"/>
+      <c r="F277" s="154"/>
+      <c r="G277" s="117" t="str">
+        <f>J87</f>
+        <v>ST KDOSH GROUP S.A.C.</v>
+      </c>
+      <c r="H277" s="117"/>
+      <c r="I277" s="117"/>
+      <c r="J277" s="117"/>
+      <c r="K277" s="117"/>
+      <c r="L277" s="117"/>
+      <c r="M277" s="117"/>
+      <c r="N277" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="O277" s="117"/>
+      <c r="P277" s="117"/>
+      <c r="Q277" s="155">
+        <f>U274</f>
+        <v>410.27</v>
+      </c>
+      <c r="R277" s="155"/>
+      <c r="S277" s="117"/>
+      <c r="T277" s="117"/>
+      <c r="U277" s="142"/>
+      <c r="V277" s="117"/>
       <c r="AB277" s="112"/>
       <c r="AM277" s="44"/>
       <c r="AN277" s="44"/>
@@ -11238,15 +11780,35 @@
       <c r="AP277" s="44"/>
       <c r="AQ277" s="44"/>
     </row>
-    <row r="278" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E278" s="112"/>
-      <c r="P278" s="159" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q278" s="159"/>
-      <c r="R278" s="159"/>
-      <c r="S278" s="159"/>
-      <c r="T278" s="159"/>
+    <row r="278" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A278" s="117"/>
+      <c r="B278" s="117" t="str">
+        <f>D275</f>
+        <v>Tres Mil Ciento Quince con 74/100 soles</v>
+      </c>
+      <c r="C278" s="117"/>
+      <c r="D278" s="117"/>
+      <c r="E278" s="118"/>
+      <c r="F278" s="117"/>
+      <c r="G278" s="117"/>
+      <c r="H278" s="117"/>
+      <c r="I278" s="117"/>
+      <c r="J278" s="117"/>
+      <c r="K278" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="L278" s="117"/>
+      <c r="M278" s="117"/>
+      <c r="N278" s="117"/>
+      <c r="O278" s="117"/>
+      <c r="P278" s="117"/>
+      <c r="Q278" s="117"/>
+      <c r="R278" s="117"/>
+      <c r="S278" s="120"/>
+      <c r="T278" s="117"/>
+      <c r="U278" s="121"/>
+      <c r="V278" s="122"/>
+      <c r="W278" s="117"/>
       <c r="AB278" s="112"/>
       <c r="AM278" s="44"/>
       <c r="AN278" s="44"/>
@@ -11254,13 +11816,32 @@
       <c r="AP278" s="44"/>
       <c r="AQ278" s="44"/>
     </row>
-    <row r="279" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E279" s="112"/>
-      <c r="P279" s="44"/>
-      <c r="Q279" s="44"/>
-      <c r="R279" s="44"/>
-      <c r="S279" s="44"/>
-      <c r="T279" s="44"/>
+    <row r="279" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A279" s="117"/>
+      <c r="B279" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="C279" s="117"/>
+      <c r="D279" s="117"/>
+      <c r="E279" s="118"/>
+      <c r="F279" s="117"/>
+      <c r="G279" s="117"/>
+      <c r="H279" s="117"/>
+      <c r="I279" s="117"/>
+      <c r="J279" s="117"/>
+      <c r="K279" s="117"/>
+      <c r="L279" s="117"/>
+      <c r="M279" s="117"/>
+      <c r="N279" s="117"/>
+      <c r="O279" s="117"/>
+      <c r="P279" s="117"/>
+      <c r="Q279" s="117"/>
+      <c r="R279" s="117"/>
+      <c r="S279" s="120"/>
+      <c r="T279" s="117"/>
+      <c r="U279" s="121"/>
+      <c r="V279" s="122"/>
+      <c r="W279" s="117"/>
       <c r="AB279" s="112"/>
       <c r="AM279" s="44"/>
       <c r="AN279" s="44"/>
@@ -11268,24 +11849,32 @@
       <c r="AP279" s="44"/>
       <c r="AQ279" s="44"/>
     </row>
-    <row r="280" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="B280" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="C280" s="152"/>
-      <c r="D280" s="152"/>
-      <c r="E280" s="153"/>
-      <c r="F280" s="152"/>
-      <c r="G280" s="152"/>
-      <c r="H280" s="152"/>
-      <c r="I280" s="152"/>
-      <c r="J280" s="152"/>
-      <c r="K280" s="152"/>
-      <c r="P280" s="44"/>
-      <c r="Q280" s="44"/>
-      <c r="R280" s="44"/>
-      <c r="S280" s="44"/>
-      <c r="T280" s="44"/>
+    <row r="280" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A280" s="117"/>
+      <c r="B280" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C280" s="117"/>
+      <c r="D280" s="117"/>
+      <c r="E280" s="118"/>
+      <c r="F280" s="117"/>
+      <c r="G280" s="117"/>
+      <c r="H280" s="117"/>
+      <c r="I280" s="117"/>
+      <c r="J280" s="117"/>
+      <c r="K280" s="117"/>
+      <c r="L280" s="117"/>
+      <c r="M280" s="117"/>
+      <c r="N280" s="117"/>
+      <c r="O280" s="117"/>
+      <c r="P280" s="117"/>
+      <c r="Q280" s="117"/>
+      <c r="R280" s="117"/>
+      <c r="S280" s="120"/>
+      <c r="T280" s="117"/>
+      <c r="U280" s="121"/>
+      <c r="V280" s="122"/>
+      <c r="W280" s="117"/>
       <c r="AB280" s="112"/>
       <c r="AM280" s="44"/>
       <c r="AN280" s="44"/>
@@ -11293,13 +11882,34 @@
       <c r="AP280" s="44"/>
       <c r="AQ280" s="44"/>
     </row>
-    <row r="281" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E281" s="112"/>
-      <c r="P281" s="44"/>
-      <c r="Q281" s="44"/>
-      <c r="R281" s="44"/>
-      <c r="S281" s="44"/>
-      <c r="T281" s="44"/>
+    <row r="281" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A281" s="117"/>
+      <c r="B281" s="117"/>
+      <c r="C281" s="117"/>
+      <c r="D281" s="117"/>
+      <c r="E281" s="118"/>
+      <c r="F281" s="117"/>
+      <c r="G281" s="117"/>
+      <c r="H281" s="117"/>
+      <c r="I281" s="117"/>
+      <c r="J281" s="160" t="s">
+        <v>54</v>
+      </c>
+      <c r="K281" s="160"/>
+      <c r="L281" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="M281" s="161"/>
+      <c r="N281" s="161"/>
+      <c r="O281" s="161"/>
+      <c r="P281" s="161"/>
+      <c r="Q281" s="62"/>
+      <c r="R281" s="62"/>
+      <c r="S281" s="140"/>
+      <c r="T281" s="62"/>
+      <c r="U281" s="122"/>
+      <c r="V281" s="117"/>
+      <c r="W281" s="117"/>
       <c r="AB281" s="112"/>
       <c r="AM281" s="44"/>
       <c r="AN281" s="44"/>
@@ -11307,13 +11917,16 @@
       <c r="AP281" s="44"/>
       <c r="AQ281" s="44"/>
     </row>
-    <row r="282" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="282" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E282" s="112"/>
-      <c r="P282" s="44"/>
-      <c r="Q282" s="44"/>
-      <c r="R282" s="44"/>
-      <c r="S282" s="44"/>
-      <c r="T282" s="44"/>
+      <c r="J282" s="114"/>
+      <c r="K282" s="114"/>
+      <c r="Q282" s="43"/>
+      <c r="R282" s="43"/>
+      <c r="S282" s="143"/>
+      <c r="T282" s="43"/>
+      <c r="U282" s="113"/>
+      <c r="W282" s="117"/>
       <c r="AB282" s="112"/>
       <c r="AM282" s="44"/>
       <c r="AN282" s="44"/>
@@ -11321,13 +11934,16 @@
       <c r="AP282" s="44"/>
       <c r="AQ282" s="44"/>
     </row>
-    <row r="283" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="283" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E283" s="112"/>
-      <c r="P283" s="44"/>
-      <c r="Q283" s="44"/>
-      <c r="R283" s="44"/>
-      <c r="S283" s="44"/>
-      <c r="T283" s="44"/>
+      <c r="J283" s="114"/>
+      <c r="K283" s="114"/>
+      <c r="Q283" s="43"/>
+      <c r="R283" s="43"/>
+      <c r="S283" s="143"/>
+      <c r="T283" s="43"/>
+      <c r="U283" s="113"/>
+      <c r="W283" s="117"/>
       <c r="AB283" s="112"/>
       <c r="AM283" s="44"/>
       <c r="AN283" s="44"/>
@@ -11335,13 +11951,16 @@
       <c r="AP283" s="44"/>
       <c r="AQ283" s="44"/>
     </row>
-    <row r="284" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="284" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E284" s="112"/>
-      <c r="P284" s="44"/>
-      <c r="Q284" s="44"/>
-      <c r="R284" s="44"/>
-      <c r="S284" s="44"/>
-      <c r="T284" s="44"/>
+      <c r="J284" s="114"/>
+      <c r="K284" s="114"/>
+      <c r="Q284" s="43"/>
+      <c r="R284" s="43"/>
+      <c r="S284" s="143"/>
+      <c r="T284" s="43"/>
+      <c r="U284" s="113"/>
+      <c r="W284" s="117"/>
       <c r="AB284" s="112"/>
       <c r="AM284" s="44"/>
       <c r="AN284" s="44"/>
@@ -11349,13 +11968,15 @@
       <c r="AP284" s="44"/>
       <c r="AQ284" s="44"/>
     </row>
-    <row r="285" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="285" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E285" s="112"/>
-      <c r="P285" s="44"/>
-      <c r="Q285" s="44"/>
-      <c r="R285" s="44"/>
-      <c r="S285" s="44"/>
-      <c r="T285" s="44"/>
+      <c r="J285" s="114"/>
+      <c r="K285" s="114"/>
+      <c r="Q285" s="43"/>
+      <c r="R285" s="43"/>
+      <c r="S285" s="143"/>
+      <c r="T285" s="43"/>
+      <c r="U285" s="113"/>
       <c r="AB285" s="112"/>
       <c r="AM285" s="44"/>
       <c r="AN285" s="44"/>
@@ -11363,13 +11984,16 @@
       <c r="AP285" s="44"/>
       <c r="AQ285" s="44"/>
     </row>
-    <row r="286" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="286" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E286" s="112"/>
-      <c r="P286" s="44"/>
-      <c r="Q286" s="44"/>
-      <c r="R286" s="44"/>
-      <c r="S286" s="44"/>
-      <c r="T286" s="44"/>
+      <c r="J286" s="114"/>
+      <c r="K286" s="114"/>
+      <c r="P286" s="132"/>
+      <c r="Q286" s="145"/>
+      <c r="R286" s="145"/>
+      <c r="S286" s="146"/>
+      <c r="T286" s="145"/>
+      <c r="U286" s="113"/>
       <c r="AB286" s="112"/>
       <c r="AM286" s="44"/>
       <c r="AN286" s="44"/>
@@ -11377,13 +12001,18 @@
       <c r="AP286" s="44"/>
       <c r="AQ286" s="44"/>
     </row>
-    <row r="287" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="287" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E287" s="112"/>
-      <c r="P287" s="44"/>
-      <c r="Q287" s="44"/>
-      <c r="R287" s="44"/>
-      <c r="S287" s="44"/>
-      <c r="T287" s="44"/>
+      <c r="O287" s="159" t="str">
+        <f>J93</f>
+        <v>nombre</v>
+      </c>
+      <c r="P287" s="159"/>
+      <c r="Q287" s="159"/>
+      <c r="R287" s="159"/>
+      <c r="S287" s="159"/>
+      <c r="T287" s="159"/>
+      <c r="U287" s="159"/>
       <c r="AB287" s="112"/>
       <c r="AM287" s="44"/>
       <c r="AN287" s="44"/>
@@ -11391,13 +12020,17 @@
       <c r="AP287" s="44"/>
       <c r="AQ287" s="44"/>
     </row>
-    <row r="288" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="288" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E288" s="112"/>
-      <c r="P288" s="44"/>
-      <c r="Q288" s="44"/>
-      <c r="R288" s="44"/>
-      <c r="S288" s="44"/>
-      <c r="T288" s="44"/>
+      <c r="P288" s="159" t="str">
+        <f>J94</f>
+        <v>dni</v>
+      </c>
+      <c r="Q288" s="159"/>
+      <c r="R288" s="159"/>
+      <c r="S288" s="159"/>
+      <c r="T288" s="159"/>
+      <c r="U288" s="113"/>
       <c r="AB288" s="112"/>
       <c r="AM288" s="44"/>
       <c r="AN288" s="44"/>
@@ -11405,13 +12038,15 @@
       <c r="AP288" s="44"/>
       <c r="AQ288" s="44"/>
     </row>
-    <row r="289" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="289" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E289" s="112"/>
-      <c r="P289" s="44"/>
-      <c r="Q289" s="44"/>
-      <c r="R289" s="44"/>
-      <c r="S289" s="44"/>
-      <c r="T289" s="44"/>
+      <c r="P289" s="159" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q289" s="159"/>
+      <c r="R289" s="159"/>
+      <c r="S289" s="159"/>
+      <c r="T289" s="159"/>
       <c r="AB289" s="112"/>
       <c r="AM289" s="44"/>
       <c r="AN289" s="44"/>
@@ -11419,7 +12054,7 @@
       <c r="AP289" s="44"/>
       <c r="AQ289" s="44"/>
     </row>
-    <row r="290" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="290" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E290" s="112"/>
       <c r="P290" s="44"/>
       <c r="Q290" s="44"/>
@@ -11433,8 +12068,19 @@
       <c r="AP290" s="44"/>
       <c r="AQ290" s="44"/>
     </row>
-    <row r="291" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="E291" s="112"/>
+    <row r="291" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="B291" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C291" s="152"/>
+      <c r="D291" s="152"/>
+      <c r="E291" s="153"/>
+      <c r="F291" s="152"/>
+      <c r="G291" s="152"/>
+      <c r="H291" s="152"/>
+      <c r="I291" s="152"/>
+      <c r="J291" s="152"/>
+      <c r="K291" s="152"/>
       <c r="P291" s="44"/>
       <c r="Q291" s="44"/>
       <c r="R291" s="44"/>
@@ -11447,7 +12093,7 @@
       <c r="AP291" s="44"/>
       <c r="AQ291" s="44"/>
     </row>
-    <row r="292" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="292" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E292" s="112"/>
       <c r="P292" s="44"/>
       <c r="Q292" s="44"/>
@@ -11461,7 +12107,7 @@
       <c r="AP292" s="44"/>
       <c r="AQ292" s="44"/>
     </row>
-    <row r="293" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="293" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E293" s="112"/>
       <c r="P293" s="44"/>
       <c r="Q293" s="44"/>
@@ -11475,7 +12121,7 @@
       <c r="AP293" s="44"/>
       <c r="AQ293" s="44"/>
     </row>
-    <row r="294" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="294" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E294" s="112"/>
       <c r="P294" s="44"/>
       <c r="Q294" s="44"/>
@@ -11489,7 +12135,7 @@
       <c r="AP294" s="44"/>
       <c r="AQ294" s="44"/>
     </row>
-    <row r="295" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+    <row r="295" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E295" s="112"/>
       <c r="P295" s="44"/>
       <c r="Q295" s="44"/>
@@ -11503,391 +12149,545 @@
       <c r="AP295" s="44"/>
       <c r="AQ295" s="44"/>
     </row>
-    <row r="296" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+    <row r="296" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E296" s="112"/>
       <c r="P296" s="44"/>
       <c r="Q296" s="44"/>
       <c r="R296" s="44"/>
       <c r="S296" s="44"/>
       <c r="T296" s="44"/>
-      <c r="Y296" s="144"/>
-      <c r="Z296" s="144"/>
-      <c r="AA296" s="144"/>
-      <c r="AB296" s="144"/>
-      <c r="AC296" s="144"/>
-      <c r="AD296" s="144"/>
-      <c r="AE296" s="144"/>
-      <c r="AF296" s="144"/>
-      <c r="AG296" s="144"/>
-      <c r="AH296" s="144"/>
-      <c r="AI296" s="144"/>
-      <c r="AJ296" s="144"/>
-      <c r="AK296" s="144"/>
-      <c r="AL296" s="46"/>
-      <c r="AM296" s="46"/>
-      <c r="AN296" s="46"/>
-      <c r="AO296" s="46"/>
-      <c r="AP296" s="46"/>
-      <c r="AQ296" s="144"/>
-    </row>
-    <row r="297" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="AB296" s="112"/>
+      <c r="AM296" s="44"/>
+      <c r="AN296" s="44"/>
+      <c r="AO296" s="44"/>
+      <c r="AP296" s="44"/>
+      <c r="AQ296" s="44"/>
+    </row>
+    <row r="297" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E297" s="112"/>
       <c r="P297" s="44"/>
       <c r="Q297" s="44"/>
       <c r="R297" s="44"/>
       <c r="S297" s="44"/>
       <c r="T297" s="44"/>
-      <c r="Y297" s="157" t="str">
-        <f>Y187</f>
-        <v>Jr. San Martin N° 967</v>
-      </c>
-      <c r="Z297" s="157"/>
-      <c r="AA297" s="157"/>
-      <c r="AB297" s="157"/>
-      <c r="AC297" s="157"/>
-      <c r="AD297" s="157"/>
-      <c r="AE297" s="157"/>
-      <c r="AF297" s="157"/>
-      <c r="AG297" s="157"/>
-      <c r="AH297" s="157"/>
-      <c r="AI297" s="157"/>
-      <c r="AJ297" s="157"/>
-      <c r="AK297" s="157"/>
-      <c r="AL297" s="157"/>
-      <c r="AM297" s="157"/>
-      <c r="AN297" s="157"/>
-      <c r="AO297" s="157"/>
-      <c r="AP297" s="157"/>
-      <c r="AQ297" s="157"/>
-    </row>
-    <row r="298" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="AB297" s="112"/>
+      <c r="AM297" s="44"/>
+      <c r="AN297" s="44"/>
+      <c r="AO297" s="44"/>
+      <c r="AP297" s="44"/>
+      <c r="AQ297" s="44"/>
+    </row>
+    <row r="298" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E298" s="112"/>
       <c r="P298" s="44"/>
       <c r="Q298" s="44"/>
       <c r="R298" s="44"/>
       <c r="S298" s="44"/>
       <c r="T298" s="44"/>
-      <c r="Y298" s="158"/>
-      <c r="Z298" s="158"/>
-      <c r="AA298" s="158"/>
-      <c r="AB298" s="158"/>
-      <c r="AC298" s="158"/>
-      <c r="AD298" s="158"/>
-      <c r="AE298" s="158"/>
-      <c r="AF298" s="158"/>
-      <c r="AG298" s="158"/>
-      <c r="AH298" s="158"/>
-      <c r="AI298" s="158"/>
-      <c r="AJ298" s="158"/>
-      <c r="AK298" s="158"/>
-      <c r="AL298" s="158"/>
-      <c r="AM298" s="158"/>
-      <c r="AN298" s="158"/>
-      <c r="AO298" s="158"/>
-      <c r="AP298" s="158"/>
-      <c r="AQ298" s="158"/>
-    </row>
-    <row r="299" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A299" s="107"/>
-      <c r="B299" s="107"/>
-      <c r="C299" s="107"/>
-      <c r="D299" s="107"/>
+      <c r="AB298" s="112"/>
+      <c r="AM298" s="44"/>
+      <c r="AN298" s="44"/>
+      <c r="AO298" s="44"/>
+      <c r="AP298" s="44"/>
+      <c r="AQ298" s="44"/>
+    </row>
+    <row r="299" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E299" s="112"/>
-      <c r="F299" s="107"/>
-      <c r="G299" s="107"/>
-      <c r="H299" s="107"/>
-      <c r="I299" s="107"/>
-      <c r="J299" s="107"/>
-      <c r="K299" s="107"/>
-      <c r="L299" s="107"/>
-      <c r="M299" s="107"/>
-      <c r="N299" s="107"/>
-      <c r="O299" s="107"/>
       <c r="P299" s="44"/>
       <c r="Q299" s="44"/>
       <c r="R299" s="44"/>
       <c r="S299" s="44"/>
       <c r="T299" s="44"/>
-      <c r="U299" s="107"/>
-      <c r="V299" s="107"/>
-      <c r="W299" s="107"/>
-    </row>
-    <row r="300" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A300" s="107"/>
-      <c r="B300" s="107"/>
-      <c r="C300" s="107"/>
-      <c r="D300" s="107"/>
+      <c r="AB299" s="112"/>
+      <c r="AM299" s="44"/>
+      <c r="AN299" s="44"/>
+      <c r="AO299" s="44"/>
+      <c r="AP299" s="44"/>
+      <c r="AQ299" s="44"/>
+    </row>
+    <row r="300" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E300" s="112"/>
-      <c r="F300" s="107"/>
-      <c r="G300" s="107"/>
-      <c r="H300" s="107"/>
-      <c r="I300" s="107"/>
-      <c r="J300" s="107"/>
-      <c r="K300" s="107"/>
-      <c r="L300" s="107"/>
-      <c r="M300" s="107"/>
-      <c r="N300" s="107"/>
-      <c r="O300" s="107"/>
       <c r="P300" s="44"/>
       <c r="Q300" s="44"/>
       <c r="R300" s="44"/>
       <c r="S300" s="44"/>
       <c r="T300" s="44"/>
-      <c r="U300" s="107"/>
-      <c r="V300" s="107"/>
-      <c r="W300" s="107"/>
-    </row>
-    <row r="301" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A301" s="107"/>
-      <c r="B301" s="107"/>
-      <c r="C301" s="107"/>
-      <c r="D301" s="107"/>
+      <c r="AB300" s="112"/>
+      <c r="AM300" s="44"/>
+      <c r="AN300" s="44"/>
+      <c r="AO300" s="44"/>
+      <c r="AP300" s="44"/>
+      <c r="AQ300" s="44"/>
+    </row>
+    <row r="301" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E301" s="112"/>
-      <c r="F301" s="107"/>
-      <c r="G301" s="107"/>
-      <c r="H301" s="107"/>
-      <c r="I301" s="107"/>
-      <c r="J301" s="107"/>
-      <c r="K301" s="107"/>
-      <c r="L301" s="107"/>
-      <c r="M301" s="107"/>
-      <c r="N301" s="107"/>
-      <c r="O301" s="107"/>
       <c r="P301" s="44"/>
       <c r="Q301" s="44"/>
       <c r="R301" s="44"/>
       <c r="S301" s="44"/>
       <c r="T301" s="44"/>
-      <c r="U301" s="107"/>
-      <c r="V301" s="107"/>
-      <c r="W301" s="107"/>
-    </row>
-    <row r="302" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A302" s="107"/>
-      <c r="B302" s="107"/>
-      <c r="C302" s="107"/>
-      <c r="D302" s="107"/>
+      <c r="AB301" s="112"/>
+      <c r="AM301" s="44"/>
+      <c r="AN301" s="44"/>
+      <c r="AO301" s="44"/>
+      <c r="AP301" s="44"/>
+      <c r="AQ301" s="44"/>
+    </row>
+    <row r="302" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E302" s="112"/>
-      <c r="F302" s="107"/>
-      <c r="G302" s="107"/>
-      <c r="H302" s="107"/>
-      <c r="I302" s="107"/>
-      <c r="J302" s="107"/>
-      <c r="K302" s="107"/>
-      <c r="L302" s="107"/>
-      <c r="M302" s="107"/>
-      <c r="N302" s="107"/>
-      <c r="O302" s="107"/>
       <c r="P302" s="44"/>
       <c r="Q302" s="44"/>
       <c r="R302" s="44"/>
       <c r="S302" s="44"/>
       <c r="T302" s="44"/>
-      <c r="U302" s="107"/>
-      <c r="V302" s="107"/>
-      <c r="W302" s="107"/>
-    </row>
-    <row r="303" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A303" s="107"/>
-      <c r="B303" s="107"/>
-      <c r="C303" s="107"/>
-      <c r="D303" s="107"/>
+      <c r="AB302" s="112"/>
+      <c r="AM302" s="44"/>
+      <c r="AN302" s="44"/>
+      <c r="AO302" s="44"/>
+      <c r="AP302" s="44"/>
+      <c r="AQ302" s="44"/>
+    </row>
+    <row r="303" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E303" s="112"/>
-      <c r="F303" s="107"/>
-      <c r="G303" s="107"/>
-      <c r="H303" s="107"/>
-      <c r="I303" s="107"/>
-      <c r="J303" s="107"/>
-      <c r="K303" s="107"/>
-      <c r="L303" s="107"/>
-      <c r="M303" s="107"/>
-      <c r="N303" s="107"/>
-      <c r="O303" s="107"/>
       <c r="P303" s="44"/>
       <c r="Q303" s="44"/>
       <c r="R303" s="44"/>
       <c r="S303" s="44"/>
       <c r="T303" s="44"/>
-      <c r="U303" s="107"/>
-      <c r="V303" s="107"/>
-      <c r="W303" s="107"/>
-    </row>
-    <row r="304" spans="1:43" ht="9.9499999999999993" customHeight="1">
-      <c r="A304" s="107"/>
-      <c r="B304" s="107"/>
-      <c r="C304" s="107"/>
-      <c r="D304" s="107"/>
+      <c r="AB303" s="112"/>
+      <c r="AM303" s="44"/>
+      <c r="AN303" s="44"/>
+      <c r="AO303" s="44"/>
+      <c r="AP303" s="44"/>
+      <c r="AQ303" s="44"/>
+    </row>
+    <row r="304" spans="2:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E304" s="112"/>
-      <c r="F304" s="107"/>
-      <c r="G304" s="107"/>
-      <c r="H304" s="107"/>
-      <c r="I304" s="107"/>
-      <c r="J304" s="107"/>
-      <c r="K304" s="107"/>
-      <c r="L304" s="107"/>
-      <c r="M304" s="107"/>
-      <c r="N304" s="107"/>
-      <c r="O304" s="107"/>
       <c r="P304" s="44"/>
       <c r="Q304" s="44"/>
       <c r="R304" s="44"/>
       <c r="S304" s="44"/>
       <c r="T304" s="44"/>
-      <c r="U304" s="107"/>
-      <c r="V304" s="107"/>
-      <c r="W304" s="107"/>
-    </row>
-    <row r="305" spans="1:23" ht="9.9499999999999993" customHeight="1">
-      <c r="A305" s="107"/>
-      <c r="B305" s="107"/>
-      <c r="C305" s="107"/>
-      <c r="D305" s="107"/>
+      <c r="AB304" s="112"/>
+      <c r="AM304" s="44"/>
+      <c r="AN304" s="44"/>
+      <c r="AO304" s="44"/>
+      <c r="AP304" s="44"/>
+      <c r="AQ304" s="44"/>
+    </row>
+    <row r="305" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E305" s="112"/>
-      <c r="F305" s="107"/>
-      <c r="G305" s="107"/>
-      <c r="H305" s="107"/>
-      <c r="I305" s="107"/>
-      <c r="J305" s="107"/>
-      <c r="K305" s="107"/>
-      <c r="L305" s="107"/>
-      <c r="M305" s="107"/>
-      <c r="N305" s="107"/>
-      <c r="O305" s="107"/>
       <c r="P305" s="44"/>
       <c r="Q305" s="44"/>
       <c r="R305" s="44"/>
       <c r="S305" s="44"/>
       <c r="T305" s="44"/>
-      <c r="U305" s="107"/>
-      <c r="V305" s="107"/>
-      <c r="W305" s="107"/>
-    </row>
-    <row r="306" spans="1:23" ht="9.9499999999999993" customHeight="1">
-      <c r="A306" s="107"/>
-      <c r="B306" s="107"/>
-      <c r="C306" s="107"/>
-      <c r="D306" s="107"/>
+      <c r="AB305" s="112"/>
+      <c r="AM305" s="44"/>
+      <c r="AN305" s="44"/>
+      <c r="AO305" s="44"/>
+      <c r="AP305" s="44"/>
+      <c r="AQ305" s="44"/>
+    </row>
+    <row r="306" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="E306" s="112"/>
-      <c r="F306" s="107"/>
-      <c r="G306" s="107"/>
-      <c r="H306" s="107"/>
-      <c r="I306" s="107"/>
-      <c r="J306" s="107"/>
-      <c r="K306" s="107"/>
-      <c r="L306" s="107"/>
-      <c r="M306" s="107"/>
-      <c r="N306" s="107"/>
-      <c r="O306" s="107"/>
       <c r="P306" s="44"/>
       <c r="Q306" s="44"/>
       <c r="R306" s="44"/>
       <c r="S306" s="44"/>
       <c r="T306" s="44"/>
-      <c r="U306" s="107"/>
-      <c r="V306" s="107"/>
-      <c r="W306" s="107"/>
-    </row>
-    <row r="307" spans="1:23" ht="3" customHeight="1" thickBot="1">
-      <c r="A307" s="107"/>
-      <c r="B307" s="144"/>
-      <c r="C307" s="144"/>
-      <c r="D307" s="144"/>
-      <c r="E307" s="144"/>
-      <c r="F307" s="144"/>
-      <c r="G307" s="144"/>
-      <c r="H307" s="144"/>
-      <c r="I307" s="144"/>
-      <c r="J307" s="144"/>
-      <c r="K307" s="144"/>
-      <c r="L307" s="144"/>
-      <c r="M307" s="144"/>
-      <c r="N307" s="144"/>
-      <c r="O307" s="46"/>
-      <c r="P307" s="46"/>
-      <c r="Q307" s="46"/>
-      <c r="R307" s="46"/>
-      <c r="S307" s="46"/>
-      <c r="T307" s="144"/>
-      <c r="U307" s="107"/>
-      <c r="V307" s="107"/>
-      <c r="W307" s="107"/>
-    </row>
-    <row r="308" spans="1:23" ht="9.9499999999999993" customHeight="1" thickTop="1">
-      <c r="A308" s="107"/>
-      <c r="B308" s="157" t="str">
-        <f>B231</f>
+      <c r="AB306" s="112"/>
+      <c r="AM306" s="44"/>
+      <c r="AN306" s="44"/>
+      <c r="AO306" s="44"/>
+      <c r="AP306" s="44"/>
+      <c r="AQ306" s="44"/>
+    </row>
+    <row r="307" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="E307" s="112"/>
+      <c r="P307" s="44"/>
+      <c r="Q307" s="44"/>
+      <c r="R307" s="44"/>
+      <c r="S307" s="44"/>
+      <c r="T307" s="44"/>
+      <c r="Y307" s="144"/>
+      <c r="Z307" s="144"/>
+      <c r="AA307" s="144"/>
+      <c r="AB307" s="144"/>
+      <c r="AC307" s="144"/>
+      <c r="AD307" s="144"/>
+      <c r="AE307" s="144"/>
+      <c r="AF307" s="144"/>
+      <c r="AG307" s="144"/>
+      <c r="AH307" s="144"/>
+      <c r="AI307" s="144"/>
+      <c r="AJ307" s="144"/>
+      <c r="AK307" s="144"/>
+      <c r="AL307" s="46"/>
+      <c r="AM307" s="46"/>
+      <c r="AN307" s="46"/>
+      <c r="AO307" s="46"/>
+      <c r="AP307" s="46"/>
+      <c r="AQ307" s="144"/>
+    </row>
+    <row r="308" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="E308" s="112"/>
+      <c r="P308" s="44"/>
+      <c r="Q308" s="44"/>
+      <c r="R308" s="44"/>
+      <c r="S308" s="44"/>
+      <c r="T308" s="44"/>
+      <c r="Y308" s="157" t="str">
+        <f>Y198</f>
         <v>Jr. San Martin N° 967</v>
       </c>
-      <c r="C308" s="157"/>
-      <c r="D308" s="157"/>
-      <c r="E308" s="157"/>
-      <c r="F308" s="157"/>
-      <c r="G308" s="157"/>
-      <c r="H308" s="157"/>
-      <c r="I308" s="157"/>
-      <c r="J308" s="157"/>
-      <c r="K308" s="157"/>
-      <c r="L308" s="157"/>
-      <c r="M308" s="157"/>
-      <c r="N308" s="157"/>
-      <c r="O308" s="157"/>
-      <c r="P308" s="157"/>
-      <c r="Q308" s="157"/>
-      <c r="R308" s="157"/>
-      <c r="S308" s="157"/>
-      <c r="T308" s="157"/>
-      <c r="U308" s="107"/>
-      <c r="V308" s="107"/>
-      <c r="W308" s="107"/>
-    </row>
-    <row r="309" spans="1:23" ht="9.9499999999999993" customHeight="1">
-      <c r="A309" s="107"/>
-      <c r="B309" s="158"/>
-      <c r="C309" s="158"/>
-      <c r="D309" s="158"/>
-      <c r="E309" s="158"/>
-      <c r="F309" s="158"/>
-      <c r="G309" s="158"/>
-      <c r="H309" s="158"/>
-      <c r="I309" s="158"/>
-      <c r="J309" s="158"/>
-      <c r="K309" s="158"/>
-      <c r="L309" s="158"/>
-      <c r="M309" s="158"/>
-      <c r="N309" s="158"/>
-      <c r="O309" s="158"/>
-      <c r="P309" s="158"/>
-      <c r="Q309" s="158"/>
-      <c r="R309" s="158"/>
-      <c r="S309" s="158"/>
-      <c r="T309" s="158"/>
-      <c r="U309" s="107"/>
-      <c r="V309" s="107"/>
-      <c r="W309" s="107"/>
-    </row>
-    <row r="310" spans="1:23" ht="9.9499999999999993" customHeight="1">
+      <c r="Z308" s="157"/>
+      <c r="AA308" s="157"/>
+      <c r="AB308" s="157"/>
+      <c r="AC308" s="157"/>
+      <c r="AD308" s="157"/>
+      <c r="AE308" s="157"/>
+      <c r="AF308" s="157"/>
+      <c r="AG308" s="157"/>
+      <c r="AH308" s="157"/>
+      <c r="AI308" s="157"/>
+      <c r="AJ308" s="157"/>
+      <c r="AK308" s="157"/>
+      <c r="AL308" s="157"/>
+      <c r="AM308" s="157"/>
+      <c r="AN308" s="157"/>
+      <c r="AO308" s="157"/>
+      <c r="AP308" s="157"/>
+      <c r="AQ308" s="157"/>
+    </row>
+    <row r="309" spans="1:43" s="107" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="E309" s="112"/>
+      <c r="P309" s="44"/>
+      <c r="Q309" s="44"/>
+      <c r="R309" s="44"/>
+      <c r="S309" s="44"/>
+      <c r="T309" s="44"/>
+      <c r="Y309" s="158"/>
+      <c r="Z309" s="158"/>
+      <c r="AA309" s="158"/>
+      <c r="AB309" s="158"/>
+      <c r="AC309" s="158"/>
+      <c r="AD309" s="158"/>
+      <c r="AE309" s="158"/>
+      <c r="AF309" s="158"/>
+      <c r="AG309" s="158"/>
+      <c r="AH309" s="158"/>
+      <c r="AI309" s="158"/>
+      <c r="AJ309" s="158"/>
+      <c r="AK309" s="158"/>
+      <c r="AL309" s="158"/>
+      <c r="AM309" s="158"/>
+      <c r="AN309" s="158"/>
+      <c r="AO309" s="158"/>
+      <c r="AP309" s="158"/>
+      <c r="AQ309" s="158"/>
+    </row>
+    <row r="310" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A310" s="107"/>
+      <c r="B310" s="107"/>
+      <c r="C310" s="107"/>
+      <c r="D310" s="107"/>
+      <c r="E310" s="112"/>
+      <c r="F310" s="107"/>
+      <c r="G310" s="107"/>
+      <c r="H310" s="107"/>
+      <c r="I310" s="107"/>
+      <c r="J310" s="107"/>
+      <c r="K310" s="107"/>
+      <c r="L310" s="107"/>
+      <c r="M310" s="107"/>
+      <c r="N310" s="107"/>
+      <c r="O310" s="107"/>
+      <c r="P310" s="44"/>
+      <c r="Q310" s="44"/>
+      <c r="R310" s="44"/>
+      <c r="S310" s="44"/>
+      <c r="T310" s="44"/>
+      <c r="U310" s="107"/>
+      <c r="V310" s="107"/>
       <c r="W310" s="107"/>
     </row>
-    <row r="311" spans="1:23" ht="9.9499999999999993" customHeight="1">
+    <row r="311" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A311" s="107"/>
+      <c r="B311" s="107"/>
+      <c r="C311" s="107"/>
+      <c r="D311" s="107"/>
+      <c r="E311" s="112"/>
+      <c r="F311" s="107"/>
+      <c r="G311" s="107"/>
+      <c r="H311" s="107"/>
+      <c r="I311" s="107"/>
+      <c r="J311" s="107"/>
+      <c r="K311" s="107"/>
+      <c r="L311" s="107"/>
+      <c r="M311" s="107"/>
+      <c r="N311" s="107"/>
+      <c r="O311" s="107"/>
+      <c r="P311" s="44"/>
+      <c r="Q311" s="44"/>
+      <c r="R311" s="44"/>
+      <c r="S311" s="44"/>
+      <c r="T311" s="44"/>
+      <c r="U311" s="107"/>
+      <c r="V311" s="107"/>
       <c r="W311" s="107"/>
     </row>
-    <row r="312" spans="1:23" ht="9.9499999999999993" customHeight="1">
+    <row r="312" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A312" s="107"/>
+      <c r="B312" s="107"/>
+      <c r="C312" s="107"/>
+      <c r="D312" s="107"/>
+      <c r="E312" s="112"/>
+      <c r="F312" s="107"/>
+      <c r="G312" s="107"/>
+      <c r="H312" s="107"/>
+      <c r="I312" s="107"/>
+      <c r="J312" s="107"/>
+      <c r="K312" s="107"/>
+      <c r="L312" s="107"/>
+      <c r="M312" s="107"/>
+      <c r="N312" s="107"/>
+      <c r="O312" s="107"/>
+      <c r="P312" s="44"/>
+      <c r="Q312" s="44"/>
+      <c r="R312" s="44"/>
+      <c r="S312" s="44"/>
+      <c r="T312" s="44"/>
+      <c r="U312" s="107"/>
+      <c r="V312" s="107"/>
       <c r="W312" s="107"/>
+    </row>
+    <row r="313" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A313" s="107"/>
+      <c r="B313" s="107"/>
+      <c r="C313" s="107"/>
+      <c r="D313" s="107"/>
+      <c r="E313" s="112"/>
+      <c r="F313" s="107"/>
+      <c r="G313" s="107"/>
+      <c r="H313" s="107"/>
+      <c r="I313" s="107"/>
+      <c r="J313" s="107"/>
+      <c r="K313" s="107"/>
+      <c r="L313" s="107"/>
+      <c r="M313" s="107"/>
+      <c r="N313" s="107"/>
+      <c r="O313" s="107"/>
+      <c r="P313" s="44"/>
+      <c r="Q313" s="44"/>
+      <c r="R313" s="44"/>
+      <c r="S313" s="44"/>
+      <c r="T313" s="44"/>
+      <c r="U313" s="107"/>
+      <c r="V313" s="107"/>
+      <c r="W313" s="107"/>
+    </row>
+    <row r="314" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A314" s="107"/>
+      <c r="B314" s="107"/>
+      <c r="C314" s="107"/>
+      <c r="D314" s="107"/>
+      <c r="E314" s="112"/>
+      <c r="F314" s="107"/>
+      <c r="G314" s="107"/>
+      <c r="H314" s="107"/>
+      <c r="I314" s="107"/>
+      <c r="J314" s="107"/>
+      <c r="K314" s="107"/>
+      <c r="L314" s="107"/>
+      <c r="M314" s="107"/>
+      <c r="N314" s="107"/>
+      <c r="O314" s="107"/>
+      <c r="P314" s="44"/>
+      <c r="Q314" s="44"/>
+      <c r="R314" s="44"/>
+      <c r="S314" s="44"/>
+      <c r="T314" s="44"/>
+      <c r="U314" s="107"/>
+      <c r="V314" s="107"/>
+      <c r="W314" s="107"/>
+    </row>
+    <row r="315" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A315" s="107"/>
+      <c r="B315" s="107"/>
+      <c r="C315" s="107"/>
+      <c r="D315" s="107"/>
+      <c r="E315" s="112"/>
+      <c r="F315" s="107"/>
+      <c r="G315" s="107"/>
+      <c r="H315" s="107"/>
+      <c r="I315" s="107"/>
+      <c r="J315" s="107"/>
+      <c r="K315" s="107"/>
+      <c r="L315" s="107"/>
+      <c r="M315" s="107"/>
+      <c r="N315" s="107"/>
+      <c r="O315" s="107"/>
+      <c r="P315" s="44"/>
+      <c r="Q315" s="44"/>
+      <c r="R315" s="44"/>
+      <c r="S315" s="44"/>
+      <c r="T315" s="44"/>
+      <c r="U315" s="107"/>
+      <c r="V315" s="107"/>
+      <c r="W315" s="107"/>
+    </row>
+    <row r="316" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A316" s="107"/>
+      <c r="B316" s="107"/>
+      <c r="C316" s="107"/>
+      <c r="D316" s="107"/>
+      <c r="E316" s="112"/>
+      <c r="F316" s="107"/>
+      <c r="G316" s="107"/>
+      <c r="H316" s="107"/>
+      <c r="I316" s="107"/>
+      <c r="J316" s="107"/>
+      <c r="K316" s="107"/>
+      <c r="L316" s="107"/>
+      <c r="M316" s="107"/>
+      <c r="N316" s="107"/>
+      <c r="O316" s="107"/>
+      <c r="P316" s="44"/>
+      <c r="Q316" s="44"/>
+      <c r="R316" s="44"/>
+      <c r="S316" s="44"/>
+      <c r="T316" s="44"/>
+      <c r="U316" s="107"/>
+      <c r="V316" s="107"/>
+      <c r="W316" s="107"/>
+    </row>
+    <row r="317" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A317" s="107"/>
+      <c r="B317" s="107"/>
+      <c r="C317" s="107"/>
+      <c r="D317" s="107"/>
+      <c r="E317" s="112"/>
+      <c r="F317" s="107"/>
+      <c r="G317" s="107"/>
+      <c r="H317" s="107"/>
+      <c r="I317" s="107"/>
+      <c r="J317" s="107"/>
+      <c r="K317" s="107"/>
+      <c r="L317" s="107"/>
+      <c r="M317" s="107"/>
+      <c r="N317" s="107"/>
+      <c r="O317" s="107"/>
+      <c r="P317" s="44"/>
+      <c r="Q317" s="44"/>
+      <c r="R317" s="44"/>
+      <c r="S317" s="44"/>
+      <c r="T317" s="44"/>
+      <c r="U317" s="107"/>
+      <c r="V317" s="107"/>
+      <c r="W317" s="107"/>
+    </row>
+    <row r="318" spans="1:43" ht="3" customHeight="1" thickBot="1">
+      <c r="A318" s="107"/>
+      <c r="B318" s="144"/>
+      <c r="C318" s="144"/>
+      <c r="D318" s="144"/>
+      <c r="E318" s="144"/>
+      <c r="F318" s="144"/>
+      <c r="G318" s="144"/>
+      <c r="H318" s="144"/>
+      <c r="I318" s="144"/>
+      <c r="J318" s="144"/>
+      <c r="K318" s="144"/>
+      <c r="L318" s="144"/>
+      <c r="M318" s="144"/>
+      <c r="N318" s="144"/>
+      <c r="O318" s="46"/>
+      <c r="P318" s="46"/>
+      <c r="Q318" s="46"/>
+      <c r="R318" s="46"/>
+      <c r="S318" s="46"/>
+      <c r="T318" s="144"/>
+      <c r="U318" s="107"/>
+      <c r="V318" s="107"/>
+      <c r="W318" s="107"/>
+    </row>
+    <row r="319" spans="1:43" ht="9.9499999999999993" customHeight="1" thickTop="1">
+      <c r="A319" s="107"/>
+      <c r="B319" s="157" t="str">
+        <f>B242</f>
+        <v>Jr. San Martin N° 967</v>
+      </c>
+      <c r="C319" s="157"/>
+      <c r="D319" s="157"/>
+      <c r="E319" s="157"/>
+      <c r="F319" s="157"/>
+      <c r="G319" s="157"/>
+      <c r="H319" s="157"/>
+      <c r="I319" s="157"/>
+      <c r="J319" s="157"/>
+      <c r="K319" s="157"/>
+      <c r="L319" s="157"/>
+      <c r="M319" s="157"/>
+      <c r="N319" s="157"/>
+      <c r="O319" s="157"/>
+      <c r="P319" s="157"/>
+      <c r="Q319" s="157"/>
+      <c r="R319" s="157"/>
+      <c r="S319" s="157"/>
+      <c r="T319" s="157"/>
+      <c r="U319" s="107"/>
+      <c r="V319" s="107"/>
+      <c r="W319" s="107"/>
+    </row>
+    <row r="320" spans="1:43" ht="9.9499999999999993" customHeight="1">
+      <c r="A320" s="107"/>
+      <c r="B320" s="158"/>
+      <c r="C320" s="158"/>
+      <c r="D320" s="158"/>
+      <c r="E320" s="158"/>
+      <c r="F320" s="158"/>
+      <c r="G320" s="158"/>
+      <c r="H320" s="158"/>
+      <c r="I320" s="158"/>
+      <c r="J320" s="158"/>
+      <c r="K320" s="158"/>
+      <c r="L320" s="158"/>
+      <c r="M320" s="158"/>
+      <c r="N320" s="158"/>
+      <c r="O320" s="158"/>
+      <c r="P320" s="158"/>
+      <c r="Q320" s="158"/>
+      <c r="R320" s="158"/>
+      <c r="S320" s="158"/>
+      <c r="T320" s="158"/>
+      <c r="U320" s="107"/>
+      <c r="V320" s="107"/>
+      <c r="W320" s="107"/>
+    </row>
+    <row r="321" spans="23:23" ht="9.9499999999999993" customHeight="1">
+      <c r="W321" s="107"/>
+    </row>
+    <row r="322" spans="23:23" ht="9.9499999999999993" customHeight="1">
+      <c r="W322" s="107"/>
+    </row>
+    <row r="323" spans="23:23" ht="9.9499999999999993" customHeight="1">
+      <c r="W323" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="79">
     <mergeCell ref="J99:P99"/>
-    <mergeCell ref="B154:U155"/>
-    <mergeCell ref="B156:V157"/>
-    <mergeCell ref="B158:V159"/>
-    <mergeCell ref="AM256:AQ256"/>
-    <mergeCell ref="AM257:AQ257"/>
-    <mergeCell ref="B160:T160"/>
-    <mergeCell ref="B231:U232"/>
-    <mergeCell ref="B233:V234"/>
-    <mergeCell ref="B235:V236"/>
-    <mergeCell ref="B237:T237"/>
-    <mergeCell ref="Y297:AQ298"/>
+    <mergeCell ref="B165:U166"/>
+    <mergeCell ref="B167:V168"/>
+    <mergeCell ref="B169:V170"/>
+    <mergeCell ref="AM267:AQ267"/>
+    <mergeCell ref="AM268:AQ268"/>
+    <mergeCell ref="B171:T171"/>
+    <mergeCell ref="B242:U243"/>
+    <mergeCell ref="B244:V245"/>
+    <mergeCell ref="B246:V247"/>
+    <mergeCell ref="B248:T248"/>
+    <mergeCell ref="Y308:AQ309"/>
     <mergeCell ref="B1:V2"/>
     <mergeCell ref="B3:V4"/>
     <mergeCell ref="B78:V79"/>
@@ -11895,15 +12695,15 @@
     <mergeCell ref="B76:U77"/>
     <mergeCell ref="B84:U84"/>
     <mergeCell ref="B85:U85"/>
-    <mergeCell ref="Y203:AC203"/>
-    <mergeCell ref="AN203:AO203"/>
-    <mergeCell ref="AG207:AH207"/>
-    <mergeCell ref="AI207:AM207"/>
-    <mergeCell ref="AL255:AR255"/>
+    <mergeCell ref="Y214:AC214"/>
+    <mergeCell ref="AN214:AO214"/>
+    <mergeCell ref="AG218:AH218"/>
+    <mergeCell ref="AI218:AM218"/>
+    <mergeCell ref="AL266:AR266"/>
     <mergeCell ref="AG96:AH96"/>
     <mergeCell ref="AG97:AH97"/>
     <mergeCell ref="AH99:AI99"/>
-    <mergeCell ref="Y187:AQ188"/>
+    <mergeCell ref="Y198:AQ199"/>
     <mergeCell ref="X80:AR81"/>
     <mergeCell ref="Y82:AQ82"/>
     <mergeCell ref="Y84:AQ84"/>
@@ -11941,15 +12741,15 @@
     <mergeCell ref="L61:P61"/>
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="Q266:R266"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="Q277:R277"/>
     <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B308:T309"/>
-    <mergeCell ref="P278:T278"/>
-    <mergeCell ref="P277:T277"/>
-    <mergeCell ref="O276:U276"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="L270:P270"/>
+    <mergeCell ref="B319:T320"/>
+    <mergeCell ref="P289:T289"/>
+    <mergeCell ref="P288:T288"/>
+    <mergeCell ref="O287:U287"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="L281:P281"/>
     <mergeCell ref="B82:T82"/>
     <mergeCell ref="J97:K97"/>
     <mergeCell ref="J96:K96"/>
